--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>370600</v>
+        <v>445500</v>
       </c>
       <c r="E8" s="3">
-        <v>319500</v>
+        <v>336000</v>
       </c>
       <c r="F8" s="3">
-        <v>288300</v>
+        <v>361500</v>
       </c>
       <c r="G8" s="3">
-        <v>439300</v>
+        <v>311700</v>
       </c>
       <c r="H8" s="3">
-        <v>92200</v>
+        <v>281200</v>
       </c>
       <c r="I8" s="3">
+        <v>428500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K8" s="3">
         <v>62300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>86000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>64400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>52500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>53700</v>
+        <v>48700</v>
       </c>
       <c r="E9" s="3">
-        <v>43600</v>
+        <v>24800</v>
       </c>
       <c r="F9" s="3">
-        <v>32700</v>
+        <v>52400</v>
       </c>
       <c r="G9" s="3">
-        <v>32400</v>
+        <v>42500</v>
       </c>
       <c r="H9" s="3">
-        <v>25100</v>
+        <v>31900</v>
       </c>
       <c r="I9" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K9" s="3">
         <v>32900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>14300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>316900</v>
+        <v>396800</v>
       </c>
       <c r="E10" s="3">
-        <v>275900</v>
+        <v>311300</v>
       </c>
       <c r="F10" s="3">
-        <v>255500</v>
+        <v>309100</v>
       </c>
       <c r="G10" s="3">
-        <v>406900</v>
+        <v>269100</v>
       </c>
       <c r="H10" s="3">
-        <v>67100</v>
+        <v>249300</v>
       </c>
       <c r="I10" s="3">
+        <v>396900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K10" s="3">
         <v>29500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>71700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>55600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>41100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,29 +1030,35 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235400</v>
+        <v>419700</v>
       </c>
       <c r="E17" s="3">
-        <v>200500</v>
+        <v>299300</v>
       </c>
       <c r="F17" s="3">
-        <v>164900</v>
+        <v>229600</v>
       </c>
       <c r="G17" s="3">
-        <v>137500</v>
+        <v>195600</v>
       </c>
       <c r="H17" s="3">
-        <v>70200</v>
+        <v>160900</v>
       </c>
       <c r="I17" s="3">
+        <v>134100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>68400</v>
+      </c>
+      <c r="K17" s="3">
         <v>141500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>55400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>36100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>49600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>135200</v>
+        <v>25800</v>
       </c>
       <c r="E18" s="3">
-        <v>119000</v>
+        <v>36700</v>
       </c>
       <c r="F18" s="3">
-        <v>123300</v>
+        <v>131900</v>
       </c>
       <c r="G18" s="3">
-        <v>301800</v>
+        <v>116100</v>
       </c>
       <c r="H18" s="3">
-        <v>22000</v>
+        <v>120300</v>
       </c>
       <c r="I18" s="3">
+        <v>294400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-79200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>30600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>28400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1176,54 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>8300</v>
-      </c>
       <c r="G20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1163,47 +1236,53 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
-        <v>302600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>23000</v>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+      <c r="J21" s="3">
+        <v>22700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-8000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>3700</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1213,11 +1292,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>132400</v>
+        <v>31900</v>
       </c>
       <c r="E23" s="3">
-        <v>113500</v>
+        <v>47100</v>
       </c>
       <c r="F23" s="3">
-        <v>131600</v>
+        <v>129100</v>
       </c>
       <c r="G23" s="3">
-        <v>302400</v>
+        <v>110700</v>
       </c>
       <c r="H23" s="3">
-        <v>22900</v>
+        <v>128400</v>
       </c>
       <c r="I23" s="3">
+        <v>295000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-78800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>31000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>28500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27100</v>
+        <v>6300</v>
       </c>
       <c r="E24" s="3">
-        <v>24800</v>
+        <v>-13000</v>
       </c>
       <c r="F24" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="G24" s="3">
-        <v>63800</v>
+        <v>24200</v>
       </c>
       <c r="H24" s="3">
-        <v>8100</v>
+        <v>27600</v>
       </c>
       <c r="I24" s="3">
+        <v>62300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>105200</v>
+        <v>25600</v>
       </c>
       <c r="E26" s="3">
-        <v>88700</v>
+        <v>60100</v>
       </c>
       <c r="F26" s="3">
-        <v>103300</v>
+        <v>102700</v>
       </c>
       <c r="G26" s="3">
-        <v>238600</v>
+        <v>86500</v>
       </c>
       <c r="H26" s="3">
-        <v>14700</v>
+        <v>100800</v>
       </c>
       <c r="I26" s="3">
+        <v>232700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-74200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>23500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>22100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105300</v>
+        <v>25700</v>
       </c>
       <c r="E27" s="3">
-        <v>88700</v>
+        <v>60200</v>
       </c>
       <c r="F27" s="3">
-        <v>103300</v>
+        <v>102700</v>
       </c>
       <c r="G27" s="3">
-        <v>238600</v>
+        <v>86500</v>
       </c>
       <c r="H27" s="3">
-        <v>-429700</v>
+        <v>100800</v>
       </c>
       <c r="I27" s="3">
+        <v>232700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-419200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-74200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>23500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>22100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-8300</v>
-      </c>
       <c r="G32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105300</v>
+        <v>25700</v>
       </c>
       <c r="E33" s="3">
-        <v>88700</v>
+        <v>60200</v>
       </c>
       <c r="F33" s="3">
-        <v>103300</v>
+        <v>102700</v>
       </c>
       <c r="G33" s="3">
-        <v>238600</v>
+        <v>86500</v>
       </c>
       <c r="H33" s="3">
-        <v>-429700</v>
+        <v>100800</v>
       </c>
       <c r="I33" s="3">
+        <v>232700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-419200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-74200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>23500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>22100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105300</v>
+        <v>25700</v>
       </c>
       <c r="E35" s="3">
-        <v>88700</v>
+        <v>60200</v>
       </c>
       <c r="F35" s="3">
-        <v>103300</v>
+        <v>102700</v>
       </c>
       <c r="G35" s="3">
-        <v>238600</v>
+        <v>86500</v>
       </c>
       <c r="H35" s="3">
-        <v>-429700</v>
+        <v>100800</v>
       </c>
       <c r="I35" s="3">
+        <v>232700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-419200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-74200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>23500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>22100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,35 +1965,37 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>264600</v>
+        <v>506200</v>
       </c>
       <c r="E41" s="3">
-        <v>262200</v>
+        <v>295100</v>
       </c>
       <c r="F41" s="3">
-        <v>183800</v>
+        <v>258100</v>
       </c>
       <c r="G41" s="3">
-        <v>207400</v>
+        <v>255800</v>
       </c>
       <c r="H41" s="3">
-        <v>288200</v>
+        <v>179300</v>
       </c>
       <c r="I41" s="3">
+        <v>202400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>281100</v>
+      </c>
+      <c r="K41" s="3">
         <v>65600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,35 +2049,41 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1926400</v>
+        <v>1910800</v>
       </c>
       <c r="E43" s="3">
-        <v>1529600</v>
+        <v>1970900</v>
       </c>
       <c r="F43" s="3">
-        <v>986300</v>
+        <v>1879100</v>
       </c>
       <c r="G43" s="3">
-        <v>634700</v>
+        <v>1492100</v>
       </c>
       <c r="H43" s="3">
-        <v>182200</v>
+        <v>962100</v>
       </c>
       <c r="I43" s="3">
+        <v>619100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>177700</v>
+      </c>
+      <c r="K43" s="3">
         <v>272300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,35 +2137,41 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>458200</v>
+        <v>530200</v>
       </c>
       <c r="E45" s="3">
-        <v>392800</v>
+        <v>463700</v>
       </c>
       <c r="F45" s="3">
-        <v>333300</v>
+        <v>446900</v>
       </c>
       <c r="G45" s="3">
-        <v>211300</v>
+        <v>383200</v>
       </c>
       <c r="H45" s="3">
-        <v>160000</v>
+        <v>325100</v>
       </c>
       <c r="I45" s="3">
+        <v>206100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>156100</v>
+      </c>
+      <c r="K45" s="3">
         <v>102600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1984,35 +2181,41 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2649200</v>
+        <v>2947200</v>
       </c>
       <c r="E46" s="3">
-        <v>2184700</v>
+        <v>2729700</v>
       </c>
       <c r="F46" s="3">
-        <v>1503400</v>
+        <v>2584200</v>
       </c>
       <c r="G46" s="3">
-        <v>1053400</v>
+        <v>2131100</v>
       </c>
       <c r="H46" s="3">
-        <v>630400</v>
+        <v>1466500</v>
       </c>
       <c r="I46" s="3">
+        <v>1027600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>615000</v>
+      </c>
+      <c r="K46" s="3">
         <v>440500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2022,23 +2225,29 @@
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4300</v>
+        <v>48900</v>
       </c>
       <c r="E47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2048,11 +2257,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2060,34 +2269,40 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
+      <c r="J48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1000</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2107,13 +2328,13 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
+        <v>500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>500</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2121,11 +2342,11 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,35 +2445,41 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>89000</v>
+        <v>196100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K52" s="3">
         <v>67400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,35 +2533,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2679900</v>
+        <v>3194800</v>
       </c>
       <c r="E54" s="3">
-        <v>2187000</v>
+        <v>2849000</v>
       </c>
       <c r="F54" s="3">
-        <v>1504400</v>
+        <v>2614100</v>
       </c>
       <c r="G54" s="3">
-        <v>1054500</v>
+        <v>2133400</v>
       </c>
       <c r="H54" s="3">
-        <v>720500</v>
+        <v>1467500</v>
       </c>
       <c r="I54" s="3">
+        <v>1028700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>702900</v>
+      </c>
+      <c r="K54" s="3">
         <v>509000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,22 +2657,28 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>220200</v>
+        <v>60900</v>
       </c>
       <c r="E58" s="3">
-        <v>205900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+        <v>28000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>214800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>200800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2422,11 +2689,11 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2434,35 +2701,41 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1177200</v>
+        <v>1849400</v>
       </c>
       <c r="E59" s="3">
-        <v>1020400</v>
+        <v>1325000</v>
       </c>
       <c r="F59" s="3">
-        <v>708800</v>
+        <v>1148300</v>
       </c>
       <c r="G59" s="3">
-        <v>415200</v>
+        <v>995300</v>
       </c>
       <c r="H59" s="3">
-        <v>423500</v>
+        <v>691400</v>
       </c>
       <c r="I59" s="3">
+        <v>405000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>413100</v>
+      </c>
+      <c r="K59" s="3">
         <v>452200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2472,35 +2745,41 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1397400</v>
+        <v>1910300</v>
       </c>
       <c r="E60" s="3">
-        <v>1226300</v>
+        <v>1353000</v>
       </c>
       <c r="F60" s="3">
-        <v>708800</v>
+        <v>1363200</v>
       </c>
       <c r="G60" s="3">
-        <v>415200</v>
+        <v>1196200</v>
       </c>
       <c r="H60" s="3">
-        <v>423500</v>
+        <v>691400</v>
       </c>
       <c r="I60" s="3">
+        <v>405000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>413100</v>
+      </c>
+      <c r="K60" s="3">
         <v>452200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,28 +2833,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>314800</v>
+        <v>435000</v>
       </c>
       <c r="E62" s="3">
-        <v>111600</v>
+        <v>486200</v>
       </c>
       <c r="F62" s="3">
-        <v>51100</v>
+        <v>307100</v>
       </c>
       <c r="G62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>108900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>49800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,35 +3009,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1712500</v>
+        <v>2345500</v>
       </c>
       <c r="E66" s="3">
-        <v>1337900</v>
+        <v>1839400</v>
       </c>
       <c r="F66" s="3">
-        <v>759900</v>
+        <v>1670400</v>
       </c>
       <c r="G66" s="3">
-        <v>417500</v>
+        <v>1305100</v>
       </c>
       <c r="H66" s="3">
-        <v>423500</v>
+        <v>741200</v>
       </c>
       <c r="I66" s="3">
+        <v>407200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>413100</v>
+      </c>
+      <c r="K66" s="3">
         <v>452200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2848,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>644400</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>628600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,35 +3247,41 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>235500</v>
+        <v>115400</v>
       </c>
       <c r="E72" s="3">
-        <v>130300</v>
+        <v>289900</v>
       </c>
       <c r="F72" s="3">
-        <v>41600</v>
+        <v>229700</v>
       </c>
       <c r="G72" s="3">
-        <v>-61700</v>
+        <v>127100</v>
       </c>
       <c r="H72" s="3">
-        <v>-348000</v>
+        <v>40500</v>
       </c>
       <c r="I72" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-339400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-109100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,35 +3423,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>967400</v>
+        <v>849400</v>
       </c>
       <c r="E76" s="3">
-        <v>849100</v>
+        <v>1009600</v>
       </c>
       <c r="F76" s="3">
-        <v>744500</v>
+        <v>943700</v>
       </c>
       <c r="G76" s="3">
-        <v>637100</v>
+        <v>828300</v>
       </c>
       <c r="H76" s="3">
-        <v>-347400</v>
+        <v>726200</v>
       </c>
       <c r="I76" s="3">
+        <v>621400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-338900</v>
+      </c>
+      <c r="K76" s="3">
         <v>56800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105300</v>
+        <v>25700</v>
       </c>
       <c r="E81" s="3">
-        <v>88700</v>
+        <v>60200</v>
       </c>
       <c r="F81" s="3">
-        <v>103300</v>
+        <v>102700</v>
       </c>
       <c r="G81" s="3">
-        <v>238600</v>
+        <v>86500</v>
       </c>
       <c r="H81" s="3">
-        <v>-429700</v>
+        <v>100800</v>
       </c>
       <c r="I81" s="3">
+        <v>232700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-419200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-74200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>23500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>22100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,31 +3626,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,31 +3886,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-18700</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>28700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,31 +3952,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,31 +4080,37 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-21300</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>87800</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,31 +4318,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-36600</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3871,31 +4362,37 @@
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3909,31 +4406,37 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-76800</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>214800</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
@@ -3945,6 +4448,12 @@
         <v>8</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>445500</v>
+        <v>485100</v>
       </c>
       <c r="E8" s="3">
-        <v>336000</v>
+        <v>462300</v>
       </c>
       <c r="F8" s="3">
-        <v>361500</v>
+        <v>348700</v>
       </c>
       <c r="G8" s="3">
-        <v>311700</v>
+        <v>375100</v>
       </c>
       <c r="H8" s="3">
-        <v>281200</v>
+        <v>323400</v>
       </c>
       <c r="I8" s="3">
-        <v>428500</v>
+        <v>291800</v>
       </c>
       <c r="J8" s="3">
+        <v>444600</v>
+      </c>
+      <c r="K8" s="3">
         <v>89900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>62300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>86000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>64400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>52500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48700</v>
+        <v>58100</v>
       </c>
       <c r="E9" s="3">
-        <v>24800</v>
+        <v>50500</v>
       </c>
       <c r="F9" s="3">
-        <v>52400</v>
+        <v>25700</v>
       </c>
       <c r="G9" s="3">
-        <v>42500</v>
+        <v>54400</v>
       </c>
       <c r="H9" s="3">
-        <v>31900</v>
+        <v>44100</v>
       </c>
       <c r="I9" s="3">
-        <v>31600</v>
+        <v>33100</v>
       </c>
       <c r="J9" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K9" s="3">
         <v>24500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>396800</v>
+        <v>427000</v>
       </c>
       <c r="E10" s="3">
-        <v>311300</v>
+        <v>411800</v>
       </c>
       <c r="F10" s="3">
-        <v>309100</v>
+        <v>323000</v>
       </c>
       <c r="G10" s="3">
-        <v>269100</v>
+        <v>320800</v>
       </c>
       <c r="H10" s="3">
-        <v>249300</v>
+        <v>279300</v>
       </c>
       <c r="I10" s="3">
-        <v>396900</v>
+        <v>258600</v>
       </c>
       <c r="J10" s="3">
+        <v>411900</v>
+      </c>
+      <c r="K10" s="3">
         <v>65500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1036,29 +1059,32 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>100</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>100</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>419700</v>
+        <v>340800</v>
       </c>
       <c r="E17" s="3">
-        <v>299300</v>
+        <v>435500</v>
       </c>
       <c r="F17" s="3">
-        <v>229600</v>
+        <v>310600</v>
       </c>
       <c r="G17" s="3">
-        <v>195600</v>
+        <v>238300</v>
       </c>
       <c r="H17" s="3">
-        <v>160900</v>
+        <v>202900</v>
       </c>
       <c r="I17" s="3">
-        <v>134100</v>
+        <v>167000</v>
       </c>
       <c r="J17" s="3">
+        <v>139100</v>
+      </c>
+      <c r="K17" s="3">
         <v>68400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>49600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25800</v>
+        <v>144300</v>
       </c>
       <c r="E18" s="3">
-        <v>36700</v>
+        <v>26700</v>
       </c>
       <c r="F18" s="3">
-        <v>131900</v>
+        <v>38100</v>
       </c>
       <c r="G18" s="3">
-        <v>116100</v>
+        <v>136900</v>
       </c>
       <c r="H18" s="3">
-        <v>120300</v>
+        <v>120500</v>
       </c>
       <c r="I18" s="3">
-        <v>294400</v>
+        <v>124800</v>
       </c>
       <c r="J18" s="3">
+        <v>305500</v>
+      </c>
+      <c r="K18" s="3">
         <v>21500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-79200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6100</v>
+        <v>7200</v>
       </c>
       <c r="E20" s="3">
-        <v>12400</v>
+        <v>6400</v>
       </c>
       <c r="F20" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-4700</v>
-      </c>
       <c r="H20" s="3">
-        <v>8100</v>
+        <v>-4800</v>
       </c>
       <c r="I20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>400</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
       </c>
       <c r="M20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1246,46 +1283,49 @@
         <v>8</v>
       </c>
       <c r="J21" s="3">
+        <v>306600</v>
+      </c>
+      <c r="K21" s="3">
         <v>22700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>2000</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>3600</v>
+        <v>2100</v>
       </c>
       <c r="G22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1298,8 +1338,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>31900</v>
+        <v>151400</v>
       </c>
       <c r="E23" s="3">
-        <v>47100</v>
+        <v>33100</v>
       </c>
       <c r="F23" s="3">
-        <v>129100</v>
+        <v>48900</v>
       </c>
       <c r="G23" s="3">
-        <v>110700</v>
+        <v>134000</v>
       </c>
       <c r="H23" s="3">
-        <v>128400</v>
+        <v>114900</v>
       </c>
       <c r="I23" s="3">
-        <v>295000</v>
+        <v>133200</v>
       </c>
       <c r="J23" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K23" s="3">
         <v>22300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-78800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6300</v>
+        <v>24100</v>
       </c>
       <c r="E24" s="3">
-        <v>-13000</v>
+        <v>6500</v>
       </c>
       <c r="F24" s="3">
-        <v>26400</v>
+        <v>-13500</v>
       </c>
       <c r="G24" s="3">
-        <v>24200</v>
+        <v>27400</v>
       </c>
       <c r="H24" s="3">
-        <v>27600</v>
+        <v>25100</v>
       </c>
       <c r="I24" s="3">
-        <v>62300</v>
+        <v>28600</v>
       </c>
       <c r="J24" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K24" s="3">
         <v>7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25600</v>
+        <v>127300</v>
       </c>
       <c r="E26" s="3">
-        <v>60100</v>
+        <v>26600</v>
       </c>
       <c r="F26" s="3">
-        <v>102700</v>
+        <v>62400</v>
       </c>
       <c r="G26" s="3">
-        <v>86500</v>
+        <v>106500</v>
       </c>
       <c r="H26" s="3">
-        <v>100800</v>
+        <v>89800</v>
       </c>
       <c r="I26" s="3">
-        <v>232700</v>
+        <v>104600</v>
       </c>
       <c r="J26" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K26" s="3">
         <v>14400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-74200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>25700</v>
+        <v>127300</v>
       </c>
       <c r="E27" s="3">
-        <v>60200</v>
+        <v>26600</v>
       </c>
       <c r="F27" s="3">
-        <v>102700</v>
+        <v>62400</v>
       </c>
       <c r="G27" s="3">
-        <v>86500</v>
+        <v>106500</v>
       </c>
       <c r="H27" s="3">
-        <v>100800</v>
+        <v>89800</v>
       </c>
       <c r="I27" s="3">
-        <v>232700</v>
+        <v>104600</v>
       </c>
       <c r="J27" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-419200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-74200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6100</v>
+        <v>-7200</v>
       </c>
       <c r="E32" s="3">
-        <v>-12400</v>
+        <v>-6400</v>
       </c>
       <c r="F32" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>4700</v>
-      </c>
       <c r="H32" s="3">
-        <v>-8100</v>
+        <v>4800</v>
       </c>
       <c r="I32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-400</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
       </c>
       <c r="M32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>25700</v>
+        <v>127300</v>
       </c>
       <c r="E33" s="3">
-        <v>60200</v>
+        <v>26600</v>
       </c>
       <c r="F33" s="3">
-        <v>102700</v>
+        <v>62400</v>
       </c>
       <c r="G33" s="3">
-        <v>86500</v>
+        <v>106500</v>
       </c>
       <c r="H33" s="3">
-        <v>100800</v>
+        <v>89800</v>
       </c>
       <c r="I33" s="3">
-        <v>232700</v>
+        <v>104600</v>
       </c>
       <c r="J33" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-419200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-74200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>25700</v>
+        <v>127300</v>
       </c>
       <c r="E35" s="3">
-        <v>60200</v>
+        <v>26600</v>
       </c>
       <c r="F35" s="3">
-        <v>102700</v>
+        <v>62400</v>
       </c>
       <c r="G35" s="3">
-        <v>86500</v>
+        <v>106500</v>
       </c>
       <c r="H35" s="3">
-        <v>100800</v>
+        <v>89800</v>
       </c>
       <c r="I35" s="3">
-        <v>232700</v>
+        <v>104600</v>
       </c>
       <c r="J35" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-419200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-74200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>506200</v>
+        <v>555200</v>
       </c>
       <c r="E41" s="3">
-        <v>295100</v>
+        <v>525200</v>
       </c>
       <c r="F41" s="3">
-        <v>258100</v>
+        <v>306200</v>
       </c>
       <c r="G41" s="3">
-        <v>255800</v>
+        <v>267900</v>
       </c>
       <c r="H41" s="3">
-        <v>179300</v>
+        <v>265400</v>
       </c>
       <c r="I41" s="3">
-        <v>202400</v>
+        <v>186100</v>
       </c>
       <c r="J41" s="3">
+        <v>210000</v>
+      </c>
+      <c r="K41" s="3">
         <v>281100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,38 +2145,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1910800</v>
+        <v>2066900</v>
       </c>
       <c r="E43" s="3">
-        <v>1970900</v>
+        <v>1982700</v>
       </c>
       <c r="F43" s="3">
-        <v>1879100</v>
+        <v>2045100</v>
       </c>
       <c r="G43" s="3">
-        <v>1492100</v>
+        <v>1949900</v>
       </c>
       <c r="H43" s="3">
-        <v>962100</v>
+        <v>1548300</v>
       </c>
       <c r="I43" s="3">
-        <v>619100</v>
+        <v>998300</v>
       </c>
       <c r="J43" s="3">
+        <v>642500</v>
+      </c>
+      <c r="K43" s="3">
         <v>177700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>272300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2239,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>530200</v>
+        <v>598000</v>
       </c>
       <c r="E45" s="3">
-        <v>463700</v>
+        <v>550200</v>
       </c>
       <c r="F45" s="3">
-        <v>446900</v>
+        <v>481200</v>
       </c>
       <c r="G45" s="3">
-        <v>383200</v>
+        <v>463800</v>
       </c>
       <c r="H45" s="3">
-        <v>325100</v>
+        <v>397600</v>
       </c>
       <c r="I45" s="3">
-        <v>206100</v>
+        <v>337400</v>
       </c>
       <c r="J45" s="3">
+        <v>213900</v>
+      </c>
+      <c r="K45" s="3">
         <v>156100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>102600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2947200</v>
+        <v>3220200</v>
       </c>
       <c r="E46" s="3">
-        <v>2729700</v>
+        <v>3058100</v>
       </c>
       <c r="F46" s="3">
-        <v>2584200</v>
+        <v>2832500</v>
       </c>
       <c r="G46" s="3">
-        <v>2131100</v>
+        <v>2681500</v>
       </c>
       <c r="H46" s="3">
-        <v>1466500</v>
+        <v>2211300</v>
       </c>
       <c r="I46" s="3">
-        <v>1027600</v>
+        <v>1521700</v>
       </c>
       <c r="J46" s="3">
+        <v>1066300</v>
+      </c>
+      <c r="K46" s="3">
         <v>615000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>440500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2231,26 +2333,29 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48900</v>
+        <v>97800</v>
       </c>
       <c r="E47" s="3">
-        <v>11000</v>
+        <v>50700</v>
       </c>
       <c r="F47" s="3">
-        <v>4200</v>
+        <v>11400</v>
       </c>
       <c r="G47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2263,8 +2368,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2275,28 +2380,31 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
@@ -2304,8 +2412,8 @@
       <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
+      <c r="L48" s="3">
+        <v>1000</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
@@ -2319,13 +2427,16 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
@@ -2334,10 +2445,10 @@
         <v>500</v>
       </c>
       <c r="G49" s="3">
+        <v>600</v>
+      </c>
+      <c r="H49" s="3">
         <v>200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2348,8 +2459,8 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>196100</v>
+        <v>161200</v>
       </c>
       <c r="E52" s="3">
-        <v>105300</v>
+        <v>203500</v>
       </c>
       <c r="F52" s="3">
-        <v>22800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+        <v>109300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>23700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>86800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3194800</v>
+        <v>3482700</v>
       </c>
       <c r="E54" s="3">
-        <v>2849000</v>
+        <v>3315100</v>
       </c>
       <c r="F54" s="3">
-        <v>2614100</v>
+        <v>2956200</v>
       </c>
       <c r="G54" s="3">
-        <v>2133400</v>
+        <v>2712600</v>
       </c>
       <c r="H54" s="3">
-        <v>1467500</v>
+        <v>2213700</v>
       </c>
       <c r="I54" s="3">
-        <v>1028700</v>
+        <v>1522700</v>
       </c>
       <c r="J54" s="3">
+        <v>1067400</v>
+      </c>
+      <c r="K54" s="3">
         <v>702900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>509000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,25 +2794,28 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>60900</v>
+        <v>27300</v>
       </c>
       <c r="E58" s="3">
-        <v>28000</v>
+        <v>63200</v>
       </c>
       <c r="F58" s="3">
-        <v>214800</v>
+        <v>29000</v>
       </c>
       <c r="G58" s="3">
-        <v>200800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+        <v>222900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>208400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2695,8 +2829,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1849400</v>
+        <v>1902900</v>
       </c>
       <c r="E59" s="3">
-        <v>1325000</v>
+        <v>1919100</v>
       </c>
       <c r="F59" s="3">
-        <v>1148300</v>
+        <v>1374900</v>
       </c>
       <c r="G59" s="3">
-        <v>995300</v>
+        <v>1191600</v>
       </c>
       <c r="H59" s="3">
-        <v>691400</v>
+        <v>1032800</v>
       </c>
       <c r="I59" s="3">
-        <v>405000</v>
+        <v>717400</v>
       </c>
       <c r="J59" s="3">
+        <v>420300</v>
+      </c>
+      <c r="K59" s="3">
         <v>413100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>452200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1910300</v>
+        <v>1930300</v>
       </c>
       <c r="E60" s="3">
-        <v>1353000</v>
+        <v>1982200</v>
       </c>
       <c r="F60" s="3">
-        <v>1363200</v>
+        <v>1404000</v>
       </c>
       <c r="G60" s="3">
-        <v>1196200</v>
+        <v>1414500</v>
       </c>
       <c r="H60" s="3">
-        <v>691400</v>
+        <v>1241200</v>
       </c>
       <c r="I60" s="3">
-        <v>405000</v>
+        <v>717400</v>
       </c>
       <c r="J60" s="3">
+        <v>420300</v>
+      </c>
+      <c r="K60" s="3">
         <v>413100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>452200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,31 +2982,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>435000</v>
+        <v>534600</v>
       </c>
       <c r="E62" s="3">
-        <v>486200</v>
+        <v>451400</v>
       </c>
       <c r="F62" s="3">
-        <v>307100</v>
+        <v>504500</v>
       </c>
       <c r="G62" s="3">
-        <v>108900</v>
+        <v>318600</v>
       </c>
       <c r="H62" s="3">
-        <v>49800</v>
+        <v>113000</v>
       </c>
       <c r="I62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>51700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2345500</v>
+        <v>2465000</v>
       </c>
       <c r="E66" s="3">
-        <v>1839400</v>
+        <v>2433800</v>
       </c>
       <c r="F66" s="3">
-        <v>1670400</v>
+        <v>1908600</v>
       </c>
       <c r="G66" s="3">
-        <v>1305100</v>
+        <v>1733300</v>
       </c>
       <c r="H66" s="3">
-        <v>741200</v>
+        <v>1354200</v>
       </c>
       <c r="I66" s="3">
-        <v>407200</v>
+        <v>769100</v>
       </c>
       <c r="J66" s="3">
+        <v>422600</v>
+      </c>
+      <c r="K66" s="3">
         <v>413100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>452200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,11 +3357,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>628600</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>115400</v>
+        <v>247000</v>
       </c>
       <c r="E72" s="3">
-        <v>289900</v>
+        <v>119700</v>
       </c>
       <c r="F72" s="3">
-        <v>229700</v>
+        <v>300800</v>
       </c>
       <c r="G72" s="3">
-        <v>127100</v>
+        <v>238400</v>
       </c>
       <c r="H72" s="3">
-        <v>40500</v>
+        <v>131800</v>
       </c>
       <c r="I72" s="3">
-        <v>-60200</v>
+        <v>42100</v>
       </c>
       <c r="J72" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-339400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>849400</v>
+        <v>1017700</v>
       </c>
       <c r="E76" s="3">
-        <v>1009600</v>
+        <v>881400</v>
       </c>
       <c r="F76" s="3">
-        <v>943700</v>
+        <v>1047600</v>
       </c>
       <c r="G76" s="3">
-        <v>828300</v>
+        <v>979200</v>
       </c>
       <c r="H76" s="3">
-        <v>726200</v>
+        <v>859500</v>
       </c>
       <c r="I76" s="3">
-        <v>621400</v>
+        <v>753600</v>
       </c>
       <c r="J76" s="3">
+        <v>644800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-338900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>25700</v>
+        <v>127300</v>
       </c>
       <c r="E81" s="3">
-        <v>60200</v>
+        <v>26600</v>
       </c>
       <c r="F81" s="3">
-        <v>102700</v>
+        <v>62400</v>
       </c>
       <c r="G81" s="3">
-        <v>86500</v>
+        <v>106500</v>
       </c>
       <c r="H81" s="3">
-        <v>100800</v>
+        <v>89800</v>
       </c>
       <c r="I81" s="3">
-        <v>232700</v>
+        <v>104600</v>
       </c>
       <c r="J81" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-419200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-74200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3654,8 +3853,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3918,8 +4135,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3980,8 +4201,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4112,8 +4342,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4350,8 +4596,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4394,8 +4643,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4438,8 +4690,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
@@ -4454,6 +4706,9 @@
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>485100</v>
+        <v>563400</v>
       </c>
       <c r="E8" s="3">
-        <v>462300</v>
+        <v>508100</v>
       </c>
       <c r="F8" s="3">
-        <v>348700</v>
+        <v>484200</v>
       </c>
       <c r="G8" s="3">
-        <v>375100</v>
+        <v>365200</v>
       </c>
       <c r="H8" s="3">
-        <v>323400</v>
+        <v>392900</v>
       </c>
       <c r="I8" s="3">
-        <v>291800</v>
+        <v>338800</v>
       </c>
       <c r="J8" s="3">
+        <v>305600</v>
+      </c>
+      <c r="K8" s="3">
         <v>444600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>62300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>86000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>64400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>52500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>58100</v>
+        <v>62200</v>
       </c>
       <c r="E9" s="3">
-        <v>50500</v>
+        <v>60800</v>
       </c>
       <c r="F9" s="3">
-        <v>25700</v>
+        <v>52900</v>
       </c>
       <c r="G9" s="3">
-        <v>54400</v>
+        <v>26900</v>
       </c>
       <c r="H9" s="3">
-        <v>44100</v>
+        <v>56900</v>
       </c>
       <c r="I9" s="3">
-        <v>33100</v>
+        <v>46200</v>
       </c>
       <c r="J9" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K9" s="3">
         <v>32800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>427000</v>
+        <v>501200</v>
       </c>
       <c r="E10" s="3">
-        <v>411800</v>
+        <v>447300</v>
       </c>
       <c r="F10" s="3">
-        <v>323000</v>
+        <v>431300</v>
       </c>
       <c r="G10" s="3">
-        <v>320800</v>
+        <v>338300</v>
       </c>
       <c r="H10" s="3">
-        <v>279300</v>
+        <v>336000</v>
       </c>
       <c r="I10" s="3">
-        <v>258600</v>
+        <v>292500</v>
       </c>
       <c r="J10" s="3">
+        <v>270900</v>
+      </c>
+      <c r="K10" s="3">
         <v>411900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>65500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>71700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>41100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,29 +1085,32 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>100</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>340800</v>
+        <v>354800</v>
       </c>
       <c r="E17" s="3">
-        <v>435500</v>
+        <v>357000</v>
       </c>
       <c r="F17" s="3">
-        <v>310600</v>
+        <v>456200</v>
       </c>
       <c r="G17" s="3">
-        <v>238300</v>
+        <v>325300</v>
       </c>
       <c r="H17" s="3">
-        <v>202900</v>
+        <v>249600</v>
       </c>
       <c r="I17" s="3">
-        <v>167000</v>
+        <v>212600</v>
       </c>
       <c r="J17" s="3">
+        <v>174900</v>
+      </c>
+      <c r="K17" s="3">
         <v>139100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>49600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>144300</v>
+        <v>208600</v>
       </c>
       <c r="E18" s="3">
-        <v>26700</v>
+        <v>151100</v>
       </c>
       <c r="F18" s="3">
-        <v>38100</v>
+        <v>28000</v>
       </c>
       <c r="G18" s="3">
-        <v>136900</v>
+        <v>39900</v>
       </c>
       <c r="H18" s="3">
-        <v>120500</v>
+        <v>143300</v>
       </c>
       <c r="I18" s="3">
-        <v>124800</v>
+        <v>126200</v>
       </c>
       <c r="J18" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K18" s="3">
         <v>305500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-79200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1245,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7200</v>
+        <v>13300</v>
       </c>
       <c r="E20" s="3">
-        <v>6400</v>
+        <v>7500</v>
       </c>
       <c r="F20" s="3">
-        <v>12900</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
+        <v>13500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>600</v>
+      </c>
+      <c r="L20" s="3">
         <v>800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
       </c>
       <c r="M20" s="3">
         <v>400</v>
       </c>
       <c r="N20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1282,32 +1319,35 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>306600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,17 +1357,17 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>2100</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="H22" s="3">
-        <v>700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>3900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>800</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1341,8 +1381,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>151400</v>
+        <v>221900</v>
       </c>
       <c r="E23" s="3">
-        <v>33100</v>
+        <v>158600</v>
       </c>
       <c r="F23" s="3">
-        <v>48900</v>
+        <v>34700</v>
       </c>
       <c r="G23" s="3">
-        <v>134000</v>
+        <v>51200</v>
       </c>
       <c r="H23" s="3">
-        <v>114900</v>
+        <v>140300</v>
       </c>
       <c r="I23" s="3">
-        <v>133200</v>
+        <v>120300</v>
       </c>
       <c r="J23" s="3">
+        <v>139500</v>
+      </c>
+      <c r="K23" s="3">
         <v>306100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-78800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24100</v>
+        <v>34600</v>
       </c>
       <c r="E24" s="3">
-        <v>6500</v>
+        <v>25300</v>
       </c>
       <c r="F24" s="3">
-        <v>-13500</v>
+        <v>6800</v>
       </c>
       <c r="G24" s="3">
-        <v>27400</v>
+        <v>-14200</v>
       </c>
       <c r="H24" s="3">
-        <v>25100</v>
+        <v>28700</v>
       </c>
       <c r="I24" s="3">
-        <v>28600</v>
+        <v>26300</v>
       </c>
       <c r="J24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K24" s="3">
         <v>64600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>127300</v>
+        <v>187400</v>
       </c>
       <c r="E26" s="3">
-        <v>26600</v>
+        <v>133300</v>
       </c>
       <c r="F26" s="3">
-        <v>62400</v>
+        <v>27900</v>
       </c>
       <c r="G26" s="3">
-        <v>106500</v>
+        <v>65400</v>
       </c>
       <c r="H26" s="3">
-        <v>89800</v>
+        <v>111600</v>
       </c>
       <c r="I26" s="3">
-        <v>104600</v>
+        <v>94000</v>
       </c>
       <c r="J26" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K26" s="3">
         <v>241500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-74200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>127300</v>
+        <v>187400</v>
       </c>
       <c r="E27" s="3">
-        <v>26600</v>
+        <v>133300</v>
       </c>
       <c r="F27" s="3">
-        <v>62400</v>
+        <v>27900</v>
       </c>
       <c r="G27" s="3">
-        <v>106500</v>
+        <v>65400</v>
       </c>
       <c r="H27" s="3">
-        <v>89800</v>
+        <v>111600</v>
       </c>
       <c r="I27" s="3">
-        <v>104600</v>
+        <v>94000</v>
       </c>
       <c r="J27" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K27" s="3">
         <v>241500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-419200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-74200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7200</v>
+        <v>-13300</v>
       </c>
       <c r="E32" s="3">
-        <v>-6400</v>
+        <v>-7500</v>
       </c>
       <c r="F32" s="3">
-        <v>-12900</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-400</v>
       </c>
       <c r="M32" s="3">
         <v>-400</v>
       </c>
       <c r="N32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>127300</v>
+        <v>187400</v>
       </c>
       <c r="E33" s="3">
-        <v>26600</v>
+        <v>133300</v>
       </c>
       <c r="F33" s="3">
-        <v>62400</v>
+        <v>27900</v>
       </c>
       <c r="G33" s="3">
-        <v>106500</v>
+        <v>65400</v>
       </c>
       <c r="H33" s="3">
-        <v>89800</v>
+        <v>111600</v>
       </c>
       <c r="I33" s="3">
-        <v>104600</v>
+        <v>94000</v>
       </c>
       <c r="J33" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K33" s="3">
         <v>241500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-419200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-74200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>127300</v>
+        <v>187400</v>
       </c>
       <c r="E35" s="3">
-        <v>26600</v>
+        <v>133300</v>
       </c>
       <c r="F35" s="3">
-        <v>62400</v>
+        <v>27900</v>
       </c>
       <c r="G35" s="3">
-        <v>106500</v>
+        <v>65400</v>
       </c>
       <c r="H35" s="3">
-        <v>89800</v>
+        <v>111600</v>
       </c>
       <c r="I35" s="3">
-        <v>104600</v>
+        <v>94000</v>
       </c>
       <c r="J35" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K35" s="3">
         <v>241500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-419200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-74200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>555200</v>
+        <v>733400</v>
       </c>
       <c r="E41" s="3">
-        <v>525200</v>
+        <v>581600</v>
       </c>
       <c r="F41" s="3">
-        <v>306200</v>
+        <v>550200</v>
       </c>
       <c r="G41" s="3">
-        <v>267900</v>
+        <v>320700</v>
       </c>
       <c r="H41" s="3">
-        <v>265400</v>
+        <v>280600</v>
       </c>
       <c r="I41" s="3">
-        <v>186100</v>
+        <v>278000</v>
       </c>
       <c r="J41" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K41" s="3">
         <v>210000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>281100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,41 +2238,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2066900</v>
+        <v>2100400</v>
       </c>
       <c r="E43" s="3">
-        <v>1982700</v>
+        <v>2165000</v>
       </c>
       <c r="F43" s="3">
-        <v>2045100</v>
+        <v>2076800</v>
       </c>
       <c r="G43" s="3">
-        <v>1949900</v>
+        <v>2142200</v>
       </c>
       <c r="H43" s="3">
-        <v>1548300</v>
+        <v>2042400</v>
       </c>
       <c r="I43" s="3">
-        <v>998300</v>
+        <v>1621800</v>
       </c>
       <c r="J43" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="K43" s="3">
         <v>642500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>177700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>272300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,41 +2338,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>598000</v>
+        <v>534400</v>
       </c>
       <c r="E45" s="3">
-        <v>550200</v>
+        <v>626400</v>
       </c>
       <c r="F45" s="3">
-        <v>481200</v>
+        <v>576300</v>
       </c>
       <c r="G45" s="3">
-        <v>463800</v>
+        <v>504000</v>
       </c>
       <c r="H45" s="3">
-        <v>397600</v>
+        <v>485800</v>
       </c>
       <c r="I45" s="3">
-        <v>337400</v>
+        <v>416500</v>
       </c>
       <c r="J45" s="3">
+        <v>353400</v>
+      </c>
+      <c r="K45" s="3">
         <v>213900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>156100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>102600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3220200</v>
+        <v>3368100</v>
       </c>
       <c r="E46" s="3">
-        <v>3058100</v>
+        <v>3373000</v>
       </c>
       <c r="F46" s="3">
-        <v>2832500</v>
+        <v>3203200</v>
       </c>
       <c r="G46" s="3">
-        <v>2681500</v>
+        <v>2966900</v>
       </c>
       <c r="H46" s="3">
-        <v>2211300</v>
+        <v>2808700</v>
       </c>
       <c r="I46" s="3">
-        <v>1521700</v>
+        <v>2316200</v>
       </c>
       <c r="J46" s="3">
+        <v>1593900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1066300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>615000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>440500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2336,29 +2438,32 @@
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>97800</v>
+        <v>131800</v>
       </c>
       <c r="E47" s="3">
-        <v>50700</v>
+        <v>102500</v>
       </c>
       <c r="F47" s="3">
-        <v>11400</v>
+        <v>53100</v>
       </c>
       <c r="G47" s="3">
-        <v>4400</v>
+        <v>12000</v>
       </c>
       <c r="H47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2371,8 +2476,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2383,28 +2488,31 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E48" s="3">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="F48" s="3">
         <v>2500</v>
       </c>
       <c r="G48" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="H48" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="I48" s="3">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
@@ -2415,8 +2523,8 @@
       <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
+      <c r="M48" s="3">
+        <v>1000</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
@@ -2430,13 +2538,16 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
@@ -2445,13 +2556,13 @@
         <v>500</v>
       </c>
       <c r="G49" s="3">
+        <v>500</v>
+      </c>
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
-        <v>200</v>
-      </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2462,8 +2573,8 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2688,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>161200</v>
+        <v>183400</v>
       </c>
       <c r="E52" s="3">
-        <v>203500</v>
+        <v>168900</v>
       </c>
       <c r="F52" s="3">
-        <v>109300</v>
+        <v>213100</v>
       </c>
       <c r="G52" s="3">
-        <v>23700</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+        <v>114500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>24800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>86800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3482700</v>
+        <v>3687000</v>
       </c>
       <c r="E54" s="3">
-        <v>3315100</v>
+        <v>3648000</v>
       </c>
       <c r="F54" s="3">
-        <v>2956200</v>
+        <v>3472400</v>
       </c>
       <c r="G54" s="3">
-        <v>2712600</v>
+        <v>3096500</v>
       </c>
       <c r="H54" s="3">
-        <v>2213700</v>
+        <v>2841200</v>
       </c>
       <c r="I54" s="3">
-        <v>1522700</v>
+        <v>2318700</v>
       </c>
       <c r="J54" s="3">
+        <v>1595000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1067400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>702900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>509000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,28 +2928,31 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27300</v>
+        <v>28100</v>
       </c>
       <c r="E58" s="3">
-        <v>63200</v>
+        <v>28600</v>
       </c>
       <c r="F58" s="3">
-        <v>29000</v>
+        <v>66200</v>
       </c>
       <c r="G58" s="3">
-        <v>222900</v>
+        <v>30400</v>
       </c>
       <c r="H58" s="3">
-        <v>208400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>233500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>218300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2832,8 +2966,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1902900</v>
+        <v>1924000</v>
       </c>
       <c r="E59" s="3">
-        <v>1919100</v>
+        <v>1993200</v>
       </c>
       <c r="F59" s="3">
-        <v>1374900</v>
+        <v>2010100</v>
       </c>
       <c r="G59" s="3">
-        <v>1191600</v>
+        <v>1440100</v>
       </c>
       <c r="H59" s="3">
-        <v>1032800</v>
+        <v>1248100</v>
       </c>
       <c r="I59" s="3">
-        <v>717400</v>
+        <v>1081800</v>
       </c>
       <c r="J59" s="3">
+        <v>751500</v>
+      </c>
+      <c r="K59" s="3">
         <v>420300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>413100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>452200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1930300</v>
+        <v>1952100</v>
       </c>
       <c r="E60" s="3">
-        <v>1982200</v>
+        <v>2021900</v>
       </c>
       <c r="F60" s="3">
-        <v>1404000</v>
+        <v>2076300</v>
       </c>
       <c r="G60" s="3">
-        <v>1414500</v>
+        <v>1470600</v>
       </c>
       <c r="H60" s="3">
-        <v>1241200</v>
+        <v>1481600</v>
       </c>
       <c r="I60" s="3">
-        <v>717400</v>
+        <v>1300100</v>
       </c>
       <c r="J60" s="3">
+        <v>751500</v>
+      </c>
+      <c r="K60" s="3">
         <v>420300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>413100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>452200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,35 +3128,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>534600</v>
+        <v>482800</v>
       </c>
       <c r="E62" s="3">
-        <v>451400</v>
+        <v>560000</v>
       </c>
       <c r="F62" s="3">
-        <v>504500</v>
+        <v>472800</v>
       </c>
       <c r="G62" s="3">
-        <v>318600</v>
+        <v>528400</v>
       </c>
       <c r="H62" s="3">
-        <v>113000</v>
+        <v>333800</v>
       </c>
       <c r="I62" s="3">
-        <v>51700</v>
+        <v>118400</v>
       </c>
       <c r="J62" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2465000</v>
+        <v>2435100</v>
       </c>
       <c r="E66" s="3">
-        <v>2433800</v>
+        <v>2582000</v>
       </c>
       <c r="F66" s="3">
-        <v>1908600</v>
+        <v>2549200</v>
       </c>
       <c r="G66" s="3">
-        <v>1733300</v>
+        <v>1999200</v>
       </c>
       <c r="H66" s="3">
-        <v>1354200</v>
+        <v>1815600</v>
       </c>
       <c r="I66" s="3">
-        <v>769100</v>
+        <v>1418500</v>
       </c>
       <c r="J66" s="3">
+        <v>805600</v>
+      </c>
+      <c r="K66" s="3">
         <v>422600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>413100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>452200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3360,11 +3528,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>628600</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>247000</v>
+        <v>446100</v>
       </c>
       <c r="E72" s="3">
-        <v>119700</v>
+        <v>258700</v>
       </c>
       <c r="F72" s="3">
-        <v>300800</v>
+        <v>125400</v>
       </c>
       <c r="G72" s="3">
-        <v>238400</v>
+        <v>315100</v>
       </c>
       <c r="H72" s="3">
-        <v>131800</v>
+        <v>249700</v>
       </c>
       <c r="I72" s="3">
-        <v>42100</v>
+        <v>138100</v>
       </c>
       <c r="J72" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-62500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-339400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1017700</v>
+        <v>1251900</v>
       </c>
       <c r="E76" s="3">
-        <v>881400</v>
+        <v>1066000</v>
       </c>
       <c r="F76" s="3">
-        <v>1047600</v>
+        <v>923200</v>
       </c>
       <c r="G76" s="3">
-        <v>979200</v>
+        <v>1097300</v>
       </c>
       <c r="H76" s="3">
-        <v>859500</v>
+        <v>1025700</v>
       </c>
       <c r="I76" s="3">
-        <v>753600</v>
+        <v>900300</v>
       </c>
       <c r="J76" s="3">
+        <v>789300</v>
+      </c>
+      <c r="K76" s="3">
         <v>644800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-338900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>127300</v>
+        <v>187400</v>
       </c>
       <c r="E81" s="3">
-        <v>26600</v>
+        <v>133300</v>
       </c>
       <c r="F81" s="3">
-        <v>62400</v>
+        <v>27900</v>
       </c>
       <c r="G81" s="3">
-        <v>106500</v>
+        <v>65400</v>
       </c>
       <c r="H81" s="3">
-        <v>89800</v>
+        <v>111600</v>
       </c>
       <c r="I81" s="3">
-        <v>104600</v>
+        <v>94000</v>
       </c>
       <c r="J81" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K81" s="3">
         <v>241500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-419200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-74200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,8 +4055,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4138,8 +4355,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4204,8 +4425,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4345,8 +4575,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4599,8 +4845,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4646,8 +4895,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4693,8 +4945,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
@@ -4709,6 +4961,9 @@
         <v>8</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -745,25 +745,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>563400</v>
+        <v>565800</v>
       </c>
       <c r="E8" s="3">
-        <v>508100</v>
+        <v>510300</v>
       </c>
       <c r="F8" s="3">
-        <v>484200</v>
+        <v>486300</v>
       </c>
       <c r="G8" s="3">
-        <v>365200</v>
+        <v>366800</v>
       </c>
       <c r="H8" s="3">
-        <v>392900</v>
+        <v>394600</v>
       </c>
       <c r="I8" s="3">
-        <v>338800</v>
+        <v>340200</v>
       </c>
       <c r="J8" s="3">
-        <v>305600</v>
+        <v>306900</v>
       </c>
       <c r="K8" s="3">
         <v>444600</v>
@@ -795,25 +795,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>62200</v>
+        <v>62400</v>
       </c>
       <c r="E9" s="3">
-        <v>60800</v>
+        <v>61100</v>
       </c>
       <c r="F9" s="3">
-        <v>52900</v>
+        <v>53100</v>
       </c>
       <c r="G9" s="3">
-        <v>26900</v>
+        <v>27000</v>
       </c>
       <c r="H9" s="3">
-        <v>56900</v>
+        <v>57200</v>
       </c>
       <c r="I9" s="3">
-        <v>46200</v>
+        <v>46400</v>
       </c>
       <c r="J9" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="K9" s="3">
         <v>32800</v>
@@ -845,25 +845,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>501200</v>
+        <v>503400</v>
       </c>
       <c r="E10" s="3">
-        <v>447300</v>
+        <v>449200</v>
       </c>
       <c r="F10" s="3">
-        <v>431300</v>
+        <v>433200</v>
       </c>
       <c r="G10" s="3">
-        <v>338300</v>
+        <v>339800</v>
       </c>
       <c r="H10" s="3">
-        <v>336000</v>
+        <v>337400</v>
       </c>
       <c r="I10" s="3">
-        <v>292500</v>
+        <v>293800</v>
       </c>
       <c r="J10" s="3">
-        <v>270900</v>
+        <v>272100</v>
       </c>
       <c r="K10" s="3">
         <v>411900</v>
@@ -1132,25 +1132,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>354800</v>
+        <v>356300</v>
       </c>
       <c r="E17" s="3">
-        <v>357000</v>
+        <v>358500</v>
       </c>
       <c r="F17" s="3">
-        <v>456200</v>
+        <v>458100</v>
       </c>
       <c r="G17" s="3">
-        <v>325300</v>
+        <v>326700</v>
       </c>
       <c r="H17" s="3">
-        <v>249600</v>
+        <v>250700</v>
       </c>
       <c r="I17" s="3">
-        <v>212600</v>
+        <v>213500</v>
       </c>
       <c r="J17" s="3">
-        <v>174900</v>
+        <v>175600</v>
       </c>
       <c r="K17" s="3">
         <v>139100</v>
@@ -1182,25 +1182,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>208600</v>
+        <v>209500</v>
       </c>
       <c r="E18" s="3">
-        <v>151100</v>
+        <v>151800</v>
       </c>
       <c r="F18" s="3">
-        <v>28000</v>
+        <v>28100</v>
       </c>
       <c r="G18" s="3">
-        <v>39900</v>
+        <v>40100</v>
       </c>
       <c r="H18" s="3">
-        <v>143300</v>
+        <v>144000</v>
       </c>
       <c r="I18" s="3">
-        <v>126200</v>
+        <v>126700</v>
       </c>
       <c r="J18" s="3">
-        <v>130700</v>
+        <v>131300</v>
       </c>
       <c r="K18" s="3">
         <v>305500</v>
@@ -1252,10 +1252,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="E20" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F20" s="3">
         <v>6700</v>
@@ -1402,25 +1402,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>221900</v>
+        <v>222900</v>
       </c>
       <c r="E23" s="3">
-        <v>158600</v>
+        <v>159300</v>
       </c>
       <c r="F23" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="G23" s="3">
-        <v>51200</v>
+        <v>51400</v>
       </c>
       <c r="H23" s="3">
-        <v>140300</v>
+        <v>140900</v>
       </c>
       <c r="I23" s="3">
-        <v>120300</v>
+        <v>120900</v>
       </c>
       <c r="J23" s="3">
-        <v>139500</v>
+        <v>140100</v>
       </c>
       <c r="K23" s="3">
         <v>306100</v>
@@ -1452,25 +1452,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="E24" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="F24" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
         <v>-14200</v>
       </c>
       <c r="H24" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="I24" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="J24" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="K24" s="3">
         <v>64600</v>
@@ -1552,25 +1552,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187400</v>
+        <v>188200</v>
       </c>
       <c r="E26" s="3">
-        <v>133300</v>
+        <v>133900</v>
       </c>
       <c r="F26" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="G26" s="3">
-        <v>65400</v>
+        <v>65600</v>
       </c>
       <c r="H26" s="3">
-        <v>111600</v>
+        <v>112100</v>
       </c>
       <c r="I26" s="3">
-        <v>94000</v>
+        <v>94400</v>
       </c>
       <c r="J26" s="3">
-        <v>109500</v>
+        <v>110000</v>
       </c>
       <c r="K26" s="3">
         <v>241500</v>
@@ -1602,25 +1602,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>187400</v>
+        <v>188200</v>
       </c>
       <c r="E27" s="3">
-        <v>133300</v>
+        <v>133900</v>
       </c>
       <c r="F27" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="G27" s="3">
-        <v>65400</v>
+        <v>65700</v>
       </c>
       <c r="H27" s="3">
-        <v>111600</v>
+        <v>112100</v>
       </c>
       <c r="I27" s="3">
-        <v>94000</v>
+        <v>94400</v>
       </c>
       <c r="J27" s="3">
-        <v>109500</v>
+        <v>110000</v>
       </c>
       <c r="K27" s="3">
         <v>241500</v>
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13300</v>
+        <v>-13400</v>
       </c>
       <c r="E32" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F32" s="3">
         <v>-6700</v>
@@ -1902,25 +1902,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>187400</v>
+        <v>188200</v>
       </c>
       <c r="E33" s="3">
-        <v>133300</v>
+        <v>133900</v>
       </c>
       <c r="F33" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="G33" s="3">
-        <v>65400</v>
+        <v>65700</v>
       </c>
       <c r="H33" s="3">
-        <v>111600</v>
+        <v>112100</v>
       </c>
       <c r="I33" s="3">
-        <v>94000</v>
+        <v>94400</v>
       </c>
       <c r="J33" s="3">
-        <v>109500</v>
+        <v>110000</v>
       </c>
       <c r="K33" s="3">
         <v>241500</v>
@@ -2002,25 +2002,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>187400</v>
+        <v>188200</v>
       </c>
       <c r="E35" s="3">
-        <v>133300</v>
+        <v>133900</v>
       </c>
       <c r="F35" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="G35" s="3">
-        <v>65400</v>
+        <v>65700</v>
       </c>
       <c r="H35" s="3">
-        <v>111600</v>
+        <v>112100</v>
       </c>
       <c r="I35" s="3">
-        <v>94000</v>
+        <v>94400</v>
       </c>
       <c r="J35" s="3">
-        <v>109500</v>
+        <v>110000</v>
       </c>
       <c r="K35" s="3">
         <v>241500</v>
@@ -2147,25 +2147,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>733400</v>
+        <v>736600</v>
       </c>
       <c r="E41" s="3">
-        <v>581600</v>
+        <v>584100</v>
       </c>
       <c r="F41" s="3">
-        <v>550200</v>
+        <v>552500</v>
       </c>
       <c r="G41" s="3">
-        <v>320700</v>
+        <v>322100</v>
       </c>
       <c r="H41" s="3">
-        <v>280600</v>
+        <v>281800</v>
       </c>
       <c r="I41" s="3">
-        <v>278000</v>
+        <v>279200</v>
       </c>
       <c r="J41" s="3">
-        <v>194900</v>
+        <v>195700</v>
       </c>
       <c r="K41" s="3">
         <v>210000</v>
@@ -2247,25 +2247,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2100400</v>
+        <v>2109500</v>
       </c>
       <c r="E43" s="3">
-        <v>2165000</v>
+        <v>2174400</v>
       </c>
       <c r="F43" s="3">
-        <v>2076800</v>
+        <v>2085800</v>
       </c>
       <c r="G43" s="3">
-        <v>2142200</v>
+        <v>2151500</v>
       </c>
       <c r="H43" s="3">
-        <v>2042400</v>
+        <v>2051200</v>
       </c>
       <c r="I43" s="3">
-        <v>1621800</v>
+        <v>1628800</v>
       </c>
       <c r="J43" s="3">
-        <v>1045700</v>
+        <v>1050200</v>
       </c>
       <c r="K43" s="3">
         <v>642500</v>
@@ -2347,25 +2347,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>534400</v>
+        <v>536700</v>
       </c>
       <c r="E45" s="3">
-        <v>626400</v>
+        <v>629100</v>
       </c>
       <c r="F45" s="3">
-        <v>576300</v>
+        <v>578800</v>
       </c>
       <c r="G45" s="3">
-        <v>504000</v>
+        <v>506200</v>
       </c>
       <c r="H45" s="3">
-        <v>485800</v>
+        <v>487900</v>
       </c>
       <c r="I45" s="3">
-        <v>416500</v>
+        <v>418300</v>
       </c>
       <c r="J45" s="3">
-        <v>353400</v>
+        <v>354900</v>
       </c>
       <c r="K45" s="3">
         <v>213900</v>
@@ -2397,25 +2397,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3368100</v>
+        <v>3382700</v>
       </c>
       <c r="E46" s="3">
-        <v>3373000</v>
+        <v>3387600</v>
       </c>
       <c r="F46" s="3">
-        <v>3203200</v>
+        <v>3217100</v>
       </c>
       <c r="G46" s="3">
-        <v>2966900</v>
+        <v>2979700</v>
       </c>
       <c r="H46" s="3">
-        <v>2808700</v>
+        <v>2820900</v>
       </c>
       <c r="I46" s="3">
-        <v>2316200</v>
+        <v>2326300</v>
       </c>
       <c r="J46" s="3">
-        <v>1593900</v>
+        <v>1600800</v>
       </c>
       <c r="K46" s="3">
         <v>1066300</v>
@@ -2447,13 +2447,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>131800</v>
+        <v>132400</v>
       </c>
       <c r="E47" s="3">
-        <v>102500</v>
+        <v>102900</v>
       </c>
       <c r="F47" s="3">
-        <v>53100</v>
+        <v>53300</v>
       </c>
       <c r="G47" s="3">
         <v>12000</v>
@@ -2497,7 +2497,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E48" s="3">
         <v>3200</v>
@@ -2697,19 +2697,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>183400</v>
+        <v>184200</v>
       </c>
       <c r="E52" s="3">
-        <v>168900</v>
+        <v>169600</v>
       </c>
       <c r="F52" s="3">
-        <v>213100</v>
+        <v>214100</v>
       </c>
       <c r="G52" s="3">
-        <v>114500</v>
+        <v>115000</v>
       </c>
       <c r="H52" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -2797,25 +2797,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3687000</v>
+        <v>3703000</v>
       </c>
       <c r="E54" s="3">
-        <v>3648000</v>
+        <v>3663800</v>
       </c>
       <c r="F54" s="3">
-        <v>3472400</v>
+        <v>3487500</v>
       </c>
       <c r="G54" s="3">
-        <v>3096500</v>
+        <v>3109900</v>
       </c>
       <c r="H54" s="3">
-        <v>2841200</v>
+        <v>2853600</v>
       </c>
       <c r="I54" s="3">
-        <v>2318700</v>
+        <v>2328800</v>
       </c>
       <c r="J54" s="3">
-        <v>1595000</v>
+        <v>1601900</v>
       </c>
       <c r="K54" s="3">
         <v>1067400</v>
@@ -2937,22 +2937,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28100</v>
+        <v>28200</v>
       </c>
       <c r="E58" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="F58" s="3">
-        <v>66200</v>
+        <v>66500</v>
       </c>
       <c r="G58" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="H58" s="3">
-        <v>233500</v>
+        <v>234500</v>
       </c>
       <c r="I58" s="3">
-        <v>218300</v>
+        <v>219200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2987,25 +2987,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1924000</v>
+        <v>1932300</v>
       </c>
       <c r="E59" s="3">
-        <v>1993200</v>
+        <v>2001900</v>
       </c>
       <c r="F59" s="3">
-        <v>2010100</v>
+        <v>2018800</v>
       </c>
       <c r="G59" s="3">
-        <v>1440100</v>
+        <v>1446400</v>
       </c>
       <c r="H59" s="3">
-        <v>1248100</v>
+        <v>1253500</v>
       </c>
       <c r="I59" s="3">
-        <v>1081800</v>
+        <v>1086500</v>
       </c>
       <c r="J59" s="3">
-        <v>751500</v>
+        <v>754700</v>
       </c>
       <c r="K59" s="3">
         <v>420300</v>
@@ -3037,25 +3037,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1952100</v>
+        <v>1960600</v>
       </c>
       <c r="E60" s="3">
-        <v>2021900</v>
+        <v>2030600</v>
       </c>
       <c r="F60" s="3">
-        <v>2076300</v>
+        <v>2085300</v>
       </c>
       <c r="G60" s="3">
-        <v>1470600</v>
+        <v>1477000</v>
       </c>
       <c r="H60" s="3">
-        <v>1481600</v>
+        <v>1488000</v>
       </c>
       <c r="I60" s="3">
-        <v>1300100</v>
+        <v>1305700</v>
       </c>
       <c r="J60" s="3">
-        <v>751500</v>
+        <v>754700</v>
       </c>
       <c r="K60" s="3">
         <v>420300</v>
@@ -3137,25 +3137,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>482800</v>
+        <v>484900</v>
       </c>
       <c r="E62" s="3">
-        <v>560000</v>
+        <v>562400</v>
       </c>
       <c r="F62" s="3">
-        <v>472800</v>
+        <v>474800</v>
       </c>
       <c r="G62" s="3">
-        <v>528400</v>
+        <v>530700</v>
       </c>
       <c r="H62" s="3">
-        <v>333800</v>
+        <v>335200</v>
       </c>
       <c r="I62" s="3">
-        <v>118400</v>
+        <v>118900</v>
       </c>
       <c r="J62" s="3">
-        <v>54200</v>
+        <v>54400</v>
       </c>
       <c r="K62" s="3">
         <v>2300</v>
@@ -3337,25 +3337,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2435100</v>
+        <v>2445600</v>
       </c>
       <c r="E66" s="3">
-        <v>2582000</v>
+        <v>2593200</v>
       </c>
       <c r="F66" s="3">
-        <v>2549200</v>
+        <v>2560300</v>
       </c>
       <c r="G66" s="3">
-        <v>1999200</v>
+        <v>2007900</v>
       </c>
       <c r="H66" s="3">
-        <v>1815600</v>
+        <v>1823500</v>
       </c>
       <c r="I66" s="3">
-        <v>1418500</v>
+        <v>1424600</v>
       </c>
       <c r="J66" s="3">
-        <v>805600</v>
+        <v>809100</v>
       </c>
       <c r="K66" s="3">
         <v>422600</v>
@@ -3607,25 +3607,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>446100</v>
+        <v>448100</v>
       </c>
       <c r="E72" s="3">
-        <v>258700</v>
+        <v>259900</v>
       </c>
       <c r="F72" s="3">
-        <v>125400</v>
+        <v>125900</v>
       </c>
       <c r="G72" s="3">
-        <v>315100</v>
+        <v>316500</v>
       </c>
       <c r="H72" s="3">
-        <v>249700</v>
+        <v>250800</v>
       </c>
       <c r="I72" s="3">
-        <v>138100</v>
+        <v>138700</v>
       </c>
       <c r="J72" s="3">
-        <v>44100</v>
+        <v>44300</v>
       </c>
       <c r="K72" s="3">
         <v>-62500</v>
@@ -3807,25 +3807,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1251900</v>
+        <v>1257400</v>
       </c>
       <c r="E76" s="3">
-        <v>1066000</v>
+        <v>1070600</v>
       </c>
       <c r="F76" s="3">
-        <v>923200</v>
+        <v>927200</v>
       </c>
       <c r="G76" s="3">
-        <v>1097300</v>
+        <v>1102100</v>
       </c>
       <c r="H76" s="3">
-        <v>1025700</v>
+        <v>1030100</v>
       </c>
       <c r="I76" s="3">
-        <v>900300</v>
+        <v>904200</v>
       </c>
       <c r="J76" s="3">
-        <v>789300</v>
+        <v>792800</v>
       </c>
       <c r="K76" s="3">
         <v>644800</v>
@@ -3962,25 +3962,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>187400</v>
+        <v>188200</v>
       </c>
       <c r="E81" s="3">
-        <v>133300</v>
+        <v>133900</v>
       </c>
       <c r="F81" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="G81" s="3">
-        <v>65400</v>
+        <v>65700</v>
       </c>
       <c r="H81" s="3">
-        <v>111600</v>
+        <v>112100</v>
       </c>
       <c r="I81" s="3">
-        <v>94000</v>
+        <v>94400</v>
       </c>
       <c r="J81" s="3">
-        <v>109500</v>
+        <v>110000</v>
       </c>
       <c r="K81" s="3">
         <v>241500</v>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>565800</v>
+        <v>520700</v>
       </c>
       <c r="E8" s="3">
-        <v>510300</v>
+        <v>577800</v>
       </c>
       <c r="F8" s="3">
-        <v>486300</v>
+        <v>521100</v>
       </c>
       <c r="G8" s="3">
-        <v>366800</v>
+        <v>496600</v>
       </c>
       <c r="H8" s="3">
-        <v>394600</v>
+        <v>374600</v>
       </c>
       <c r="I8" s="3">
-        <v>340200</v>
+        <v>403000</v>
       </c>
       <c r="J8" s="3">
+        <v>347400</v>
+      </c>
+      <c r="K8" s="3">
         <v>306900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>444600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>89900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>86000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>64400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>52500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>63800</v>
+      </c>
+      <c r="F9" s="3">
         <v>62400</v>
       </c>
-      <c r="E9" s="3">
-        <v>61100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>53100</v>
-      </c>
       <c r="G9" s="3">
-        <v>27000</v>
+        <v>54200</v>
       </c>
       <c r="H9" s="3">
-        <v>57200</v>
+        <v>27600</v>
       </c>
       <c r="I9" s="3">
-        <v>46400</v>
+        <v>58400</v>
       </c>
       <c r="J9" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K9" s="3">
         <v>34800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>503400</v>
+        <v>451300</v>
       </c>
       <c r="E10" s="3">
-        <v>449200</v>
+        <v>514000</v>
       </c>
       <c r="F10" s="3">
-        <v>433200</v>
+        <v>458700</v>
       </c>
       <c r="G10" s="3">
-        <v>339800</v>
+        <v>442300</v>
       </c>
       <c r="H10" s="3">
-        <v>337400</v>
+        <v>347000</v>
       </c>
       <c r="I10" s="3">
-        <v>293800</v>
+        <v>344600</v>
       </c>
       <c r="J10" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K10" s="3">
         <v>272100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>411900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>65500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>71700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1088,29 +1110,32 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>100</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>100</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>356300</v>
+        <v>327000</v>
       </c>
       <c r="E17" s="3">
-        <v>358500</v>
+        <v>363800</v>
       </c>
       <c r="F17" s="3">
-        <v>458100</v>
+        <v>366100</v>
       </c>
       <c r="G17" s="3">
-        <v>326700</v>
+        <v>467800</v>
       </c>
       <c r="H17" s="3">
-        <v>250700</v>
+        <v>333700</v>
       </c>
       <c r="I17" s="3">
-        <v>213500</v>
+        <v>256000</v>
       </c>
       <c r="J17" s="3">
+        <v>218000</v>
+      </c>
+      <c r="K17" s="3">
         <v>175600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>141500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>49600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>209500</v>
+        <v>193700</v>
       </c>
       <c r="E18" s="3">
-        <v>151800</v>
+        <v>213900</v>
       </c>
       <c r="F18" s="3">
-        <v>28100</v>
+        <v>155000</v>
       </c>
       <c r="G18" s="3">
-        <v>40100</v>
+        <v>28700</v>
       </c>
       <c r="H18" s="3">
-        <v>144000</v>
+        <v>40900</v>
       </c>
       <c r="I18" s="3">
-        <v>126700</v>
+        <v>147000</v>
       </c>
       <c r="J18" s="3">
+        <v>129400</v>
+      </c>
+      <c r="K18" s="3">
         <v>131300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>305500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-79200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>30600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13400</v>
+        <v>17200</v>
       </c>
       <c r="E20" s="3">
-        <v>7600</v>
+        <v>13700</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>7700</v>
       </c>
       <c r="G20" s="3">
-        <v>13500</v>
+        <v>6800</v>
       </c>
       <c r="H20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>-5100</v>
-      </c>
       <c r="J20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K20" s="3">
         <v>8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
       </c>
       <c r="O20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1322,32 +1358,35 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>306600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,18 +1399,18 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
-        <v>3900</v>
-      </c>
       <c r="I22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1384,8 +1423,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>222900</v>
+        <v>210900</v>
       </c>
       <c r="E23" s="3">
-        <v>159300</v>
+        <v>227600</v>
       </c>
       <c r="F23" s="3">
-        <v>34800</v>
+        <v>162700</v>
       </c>
       <c r="G23" s="3">
-        <v>51400</v>
+        <v>35600</v>
       </c>
       <c r="H23" s="3">
-        <v>140900</v>
+        <v>52500</v>
       </c>
       <c r="I23" s="3">
-        <v>120900</v>
+        <v>143900</v>
       </c>
       <c r="J23" s="3">
+        <v>123400</v>
+      </c>
+      <c r="K23" s="3">
         <v>140100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>306100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-78800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34700</v>
+        <v>23000</v>
       </c>
       <c r="E24" s="3">
-        <v>25400</v>
+        <v>35500</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>25900</v>
       </c>
       <c r="G24" s="3">
-        <v>-14200</v>
+        <v>7000</v>
       </c>
       <c r="H24" s="3">
-        <v>28900</v>
+        <v>-14500</v>
       </c>
       <c r="I24" s="3">
-        <v>26400</v>
+        <v>29500</v>
       </c>
       <c r="J24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K24" s="3">
         <v>30100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>188200</v>
+        <v>187900</v>
       </c>
       <c r="E26" s="3">
-        <v>133900</v>
+        <v>192200</v>
       </c>
       <c r="F26" s="3">
-        <v>28000</v>
+        <v>136700</v>
       </c>
       <c r="G26" s="3">
-        <v>65600</v>
+        <v>28600</v>
       </c>
       <c r="H26" s="3">
-        <v>112100</v>
+        <v>67000</v>
       </c>
       <c r="I26" s="3">
-        <v>94400</v>
+        <v>114400</v>
       </c>
       <c r="J26" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K26" s="3">
         <v>110000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>241500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-74200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>188200</v>
+        <v>188000</v>
       </c>
       <c r="E27" s="3">
-        <v>133900</v>
+        <v>192200</v>
       </c>
       <c r="F27" s="3">
-        <v>28000</v>
+        <v>136700</v>
       </c>
       <c r="G27" s="3">
-        <v>65700</v>
+        <v>28600</v>
       </c>
       <c r="H27" s="3">
-        <v>112100</v>
+        <v>67100</v>
       </c>
       <c r="I27" s="3">
-        <v>94400</v>
+        <v>114400</v>
       </c>
       <c r="J27" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K27" s="3">
         <v>110000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>241500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-419200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-74200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13400</v>
+        <v>-17200</v>
       </c>
       <c r="E32" s="3">
-        <v>-7600</v>
+        <v>-13700</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-7700</v>
       </c>
       <c r="G32" s="3">
-        <v>-13500</v>
+        <v>-6800</v>
       </c>
       <c r="H32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>5100</v>
-      </c>
       <c r="J32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
       </c>
       <c r="O32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>188200</v>
+        <v>188000</v>
       </c>
       <c r="E33" s="3">
-        <v>133900</v>
+        <v>192200</v>
       </c>
       <c r="F33" s="3">
-        <v>28000</v>
+        <v>136700</v>
       </c>
       <c r="G33" s="3">
-        <v>65700</v>
+        <v>28600</v>
       </c>
       <c r="H33" s="3">
-        <v>112100</v>
+        <v>67100</v>
       </c>
       <c r="I33" s="3">
-        <v>94400</v>
+        <v>114400</v>
       </c>
       <c r="J33" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K33" s="3">
         <v>110000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>241500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-419200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-74200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>188200</v>
+        <v>188000</v>
       </c>
       <c r="E35" s="3">
-        <v>133900</v>
+        <v>192200</v>
       </c>
       <c r="F35" s="3">
-        <v>28000</v>
+        <v>136700</v>
       </c>
       <c r="G35" s="3">
-        <v>65700</v>
+        <v>28600</v>
       </c>
       <c r="H35" s="3">
-        <v>112100</v>
+        <v>67100</v>
       </c>
       <c r="I35" s="3">
-        <v>94400</v>
+        <v>114400</v>
       </c>
       <c r="J35" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K35" s="3">
         <v>110000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>241500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-419200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-74200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>736600</v>
+        <v>689300</v>
       </c>
       <c r="E41" s="3">
-        <v>584100</v>
+        <v>752100</v>
       </c>
       <c r="F41" s="3">
-        <v>552500</v>
+        <v>596500</v>
       </c>
       <c r="G41" s="3">
-        <v>322100</v>
+        <v>564200</v>
       </c>
       <c r="H41" s="3">
-        <v>281800</v>
+        <v>328900</v>
       </c>
       <c r="I41" s="3">
-        <v>279200</v>
+        <v>287700</v>
       </c>
       <c r="J41" s="3">
+        <v>285100</v>
+      </c>
+      <c r="K41" s="3">
         <v>195700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>210000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>281100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>65600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,44 +2330,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2109500</v>
+        <v>2150700</v>
       </c>
       <c r="E43" s="3">
-        <v>2174400</v>
+        <v>2154100</v>
       </c>
       <c r="F43" s="3">
-        <v>2085800</v>
+        <v>2220400</v>
       </c>
       <c r="G43" s="3">
-        <v>2151500</v>
+        <v>2129900</v>
       </c>
       <c r="H43" s="3">
-        <v>2051200</v>
+        <v>2196900</v>
       </c>
       <c r="I43" s="3">
-        <v>1628800</v>
+        <v>2094600</v>
       </c>
       <c r="J43" s="3">
+        <v>1663200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1050200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>642500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>177700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>272300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,44 +2436,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>536700</v>
+        <v>572900</v>
       </c>
       <c r="E45" s="3">
-        <v>629100</v>
+        <v>548000</v>
       </c>
       <c r="F45" s="3">
-        <v>578800</v>
+        <v>642400</v>
       </c>
       <c r="G45" s="3">
-        <v>506200</v>
+        <v>591000</v>
       </c>
       <c r="H45" s="3">
-        <v>487900</v>
+        <v>516900</v>
       </c>
       <c r="I45" s="3">
-        <v>418300</v>
+        <v>498200</v>
       </c>
       <c r="J45" s="3">
+        <v>427100</v>
+      </c>
+      <c r="K45" s="3">
         <v>354900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>213900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>156100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>102600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2391,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3382700</v>
+        <v>3412900</v>
       </c>
       <c r="E46" s="3">
-        <v>3387600</v>
+        <v>3454300</v>
       </c>
       <c r="F46" s="3">
-        <v>3217100</v>
+        <v>3459200</v>
       </c>
       <c r="G46" s="3">
-        <v>2979700</v>
+        <v>3285100</v>
       </c>
       <c r="H46" s="3">
-        <v>2820900</v>
+        <v>3042700</v>
       </c>
       <c r="I46" s="3">
-        <v>2326300</v>
+        <v>2880600</v>
       </c>
       <c r="J46" s="3">
+        <v>2375500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1600800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1066300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>615000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>440500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2441,32 +2542,35 @@
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>132400</v>
+        <v>162400</v>
       </c>
       <c r="E47" s="3">
-        <v>102900</v>
+        <v>135200</v>
       </c>
       <c r="F47" s="3">
-        <v>53300</v>
+        <v>105100</v>
       </c>
       <c r="G47" s="3">
-        <v>12000</v>
+        <v>54500</v>
       </c>
       <c r="H47" s="3">
-        <v>4600</v>
+        <v>12300</v>
       </c>
       <c r="I47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2479,8 +2583,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2491,31 +2595,34 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3200</v>
+        <v>10700</v>
       </c>
       <c r="E48" s="3">
-        <v>3200</v>
+        <v>11800</v>
       </c>
       <c r="F48" s="3">
-        <v>2500</v>
+        <v>12900</v>
       </c>
       <c r="G48" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2100</v>
-      </c>
       <c r="J48" s="3">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="K48" s="3">
         <v>1000</v>
@@ -2526,8 +2633,8 @@
       <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
+      <c r="N48" s="3">
+        <v>1000</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2550,7 +2660,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2559,13 +2669,13 @@
         <v>500</v>
       </c>
       <c r="H49" s="3">
+        <v>500</v>
+      </c>
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2576,8 +2686,8 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>100</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,44 +2807,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>184200</v>
+        <v>218200</v>
       </c>
       <c r="E52" s="3">
-        <v>169600</v>
+        <v>179500</v>
       </c>
       <c r="F52" s="3">
-        <v>214100</v>
+        <v>163500</v>
       </c>
       <c r="G52" s="3">
-        <v>115000</v>
+        <v>209600</v>
       </c>
       <c r="H52" s="3">
-        <v>24900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+        <v>108800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>25500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>86800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3703000</v>
+        <v>3804700</v>
       </c>
       <c r="E54" s="3">
-        <v>3663800</v>
+        <v>3781300</v>
       </c>
       <c r="F54" s="3">
-        <v>3487500</v>
+        <v>3741200</v>
       </c>
       <c r="G54" s="3">
-        <v>3109900</v>
+        <v>3561200</v>
       </c>
       <c r="H54" s="3">
-        <v>2853600</v>
+        <v>3175700</v>
       </c>
       <c r="I54" s="3">
-        <v>2328800</v>
+        <v>2913900</v>
       </c>
       <c r="J54" s="3">
+        <v>2378000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1601900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1067400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>702900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>509000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,31 +3061,34 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28200</v>
+        <v>29100</v>
       </c>
       <c r="E58" s="3">
         <v>28800</v>
       </c>
       <c r="F58" s="3">
-        <v>66500</v>
+        <v>29400</v>
       </c>
       <c r="G58" s="3">
-        <v>30600</v>
+        <v>67900</v>
       </c>
       <c r="H58" s="3">
-        <v>234500</v>
+        <v>31200</v>
       </c>
       <c r="I58" s="3">
-        <v>219200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+        <v>239500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>223900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2969,8 +3102,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2981,44 +3114,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1932300</v>
+        <v>2059000</v>
       </c>
       <c r="E59" s="3">
-        <v>2001900</v>
+        <v>1973200</v>
       </c>
       <c r="F59" s="3">
-        <v>2018800</v>
+        <v>2044200</v>
       </c>
       <c r="G59" s="3">
-        <v>1446400</v>
+        <v>2061500</v>
       </c>
       <c r="H59" s="3">
-        <v>1253500</v>
+        <v>1477000</v>
       </c>
       <c r="I59" s="3">
-        <v>1086500</v>
+        <v>1280000</v>
       </c>
       <c r="J59" s="3">
+        <v>1109500</v>
+      </c>
+      <c r="K59" s="3">
         <v>754700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>420300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>413100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>452200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3031,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1960600</v>
+        <v>2088100</v>
       </c>
       <c r="E60" s="3">
-        <v>2030600</v>
+        <v>2002000</v>
       </c>
       <c r="F60" s="3">
-        <v>2085300</v>
+        <v>2073600</v>
       </c>
       <c r="G60" s="3">
-        <v>1477000</v>
+        <v>2129400</v>
       </c>
       <c r="H60" s="3">
-        <v>1488000</v>
+        <v>1508200</v>
       </c>
       <c r="I60" s="3">
-        <v>1305700</v>
+        <v>1519500</v>
       </c>
       <c r="J60" s="3">
+        <v>1333300</v>
+      </c>
+      <c r="K60" s="3">
         <v>754700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>420300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>413100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>452200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,38 +3273,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>237400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>495200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>574300</v>
+      </c>
+      <c r="G62" s="3">
         <v>484900</v>
       </c>
-      <c r="E62" s="3">
-        <v>562400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>474800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>530700</v>
-      </c>
       <c r="H62" s="3">
-        <v>335200</v>
+        <v>541900</v>
       </c>
       <c r="I62" s="3">
-        <v>118900</v>
+        <v>342300</v>
       </c>
       <c r="J62" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K62" s="3">
         <v>54400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2445600</v>
+        <v>2325600</v>
       </c>
       <c r="E66" s="3">
-        <v>2593200</v>
+        <v>2497300</v>
       </c>
       <c r="F66" s="3">
-        <v>2560300</v>
+        <v>2648000</v>
       </c>
       <c r="G66" s="3">
-        <v>2007900</v>
+        <v>2614400</v>
       </c>
       <c r="H66" s="3">
-        <v>1823500</v>
+        <v>2050300</v>
       </c>
       <c r="I66" s="3">
-        <v>1424600</v>
+        <v>1862000</v>
       </c>
       <c r="J66" s="3">
+        <v>1454700</v>
+      </c>
+      <c r="K66" s="3">
         <v>809100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>422600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>413100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>452200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3531,11 +3698,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>628600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>448100</v>
+        <v>645500</v>
       </c>
       <c r="E72" s="3">
-        <v>259900</v>
+        <v>457500</v>
       </c>
       <c r="F72" s="3">
-        <v>125900</v>
+        <v>265400</v>
       </c>
       <c r="G72" s="3">
-        <v>316500</v>
+        <v>128600</v>
       </c>
       <c r="H72" s="3">
-        <v>250800</v>
+        <v>323100</v>
       </c>
       <c r="I72" s="3">
-        <v>138700</v>
+        <v>256100</v>
       </c>
       <c r="J72" s="3">
+        <v>141600</v>
+      </c>
+      <c r="K72" s="3">
         <v>44300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-339400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-109100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1257400</v>
+        <v>1479100</v>
       </c>
       <c r="E76" s="3">
-        <v>1070600</v>
+        <v>1283900</v>
       </c>
       <c r="F76" s="3">
-        <v>927200</v>
+        <v>1093200</v>
       </c>
       <c r="G76" s="3">
-        <v>1102100</v>
+        <v>946800</v>
       </c>
       <c r="H76" s="3">
-        <v>1030100</v>
+        <v>1125400</v>
       </c>
       <c r="I76" s="3">
-        <v>904200</v>
+        <v>1051900</v>
       </c>
       <c r="J76" s="3">
+        <v>923300</v>
+      </c>
+      <c r="K76" s="3">
         <v>792800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>644800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-338900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>188200</v>
+        <v>188000</v>
       </c>
       <c r="E81" s="3">
-        <v>133900</v>
+        <v>192200</v>
       </c>
       <c r="F81" s="3">
-        <v>28000</v>
+        <v>136700</v>
       </c>
       <c r="G81" s="3">
-        <v>65700</v>
+        <v>28600</v>
       </c>
       <c r="H81" s="3">
-        <v>112100</v>
+        <v>67100</v>
       </c>
       <c r="I81" s="3">
-        <v>94400</v>
+        <v>114400</v>
       </c>
       <c r="J81" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K81" s="3">
         <v>110000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>241500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-419200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-74200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4058,8 +4256,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4358,8 +4574,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4428,8 +4648,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4578,8 +4807,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4848,8 +5093,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4898,8 +5146,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4948,8 +5199,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
@@ -4964,6 +5215,9 @@
         <v>8</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>520700</v>
+        <v>616200</v>
       </c>
       <c r="E8" s="3">
-        <v>577800</v>
+        <v>554200</v>
       </c>
       <c r="F8" s="3">
-        <v>521100</v>
+        <v>513900</v>
       </c>
       <c r="G8" s="3">
-        <v>496600</v>
+        <v>570300</v>
       </c>
       <c r="H8" s="3">
-        <v>374600</v>
+        <v>514300</v>
       </c>
       <c r="I8" s="3">
+        <v>490100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>369700</v>
+      </c>
+      <c r="K8" s="3">
         <v>403000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>347400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>306900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>444600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>89900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>62300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>86000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>64400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>52500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>69300</v>
+        <v>85900</v>
       </c>
       <c r="E9" s="3">
-        <v>63800</v>
+        <v>73600</v>
       </c>
       <c r="F9" s="3">
-        <v>62400</v>
+        <v>68400</v>
       </c>
       <c r="G9" s="3">
-        <v>54200</v>
+        <v>62900</v>
       </c>
       <c r="H9" s="3">
-        <v>27600</v>
+        <v>61600</v>
       </c>
       <c r="I9" s="3">
+        <v>53500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K9" s="3">
         <v>58400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>47400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>34800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>32800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>24500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>32900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>451300</v>
+        <v>530200</v>
       </c>
       <c r="E10" s="3">
-        <v>514000</v>
+        <v>480600</v>
       </c>
       <c r="F10" s="3">
-        <v>458700</v>
+        <v>445500</v>
       </c>
       <c r="G10" s="3">
-        <v>442300</v>
+        <v>507300</v>
       </c>
       <c r="H10" s="3">
-        <v>347000</v>
+        <v>452800</v>
       </c>
       <c r="I10" s="3">
+        <v>436600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>342400</v>
+      </c>
+      <c r="K10" s="3">
         <v>344600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>272100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>411900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>65500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>29500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>71700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>55600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>41100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-1100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,29 +1159,35 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>327000</v>
+        <v>330800</v>
       </c>
       <c r="E17" s="3">
-        <v>363800</v>
+        <v>314300</v>
       </c>
       <c r="F17" s="3">
-        <v>366100</v>
+        <v>322800</v>
       </c>
       <c r="G17" s="3">
-        <v>467800</v>
+        <v>359100</v>
       </c>
       <c r="H17" s="3">
-        <v>333700</v>
+        <v>361400</v>
       </c>
       <c r="I17" s="3">
+        <v>461700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>329300</v>
+      </c>
+      <c r="K17" s="3">
         <v>256000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>218000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>175600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>139100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>68400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>141500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>55400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>36100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>49600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>193700</v>
+        <v>285300</v>
       </c>
       <c r="E18" s="3">
-        <v>213900</v>
+        <v>239900</v>
       </c>
       <c r="F18" s="3">
-        <v>155000</v>
+        <v>191100</v>
       </c>
       <c r="G18" s="3">
-        <v>28700</v>
+        <v>211200</v>
       </c>
       <c r="H18" s="3">
-        <v>40900</v>
+        <v>152900</v>
       </c>
       <c r="I18" s="3">
+        <v>28400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K18" s="3">
         <v>147000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>129400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>131300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>305500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>21500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-79200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>30600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>28400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-8200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1345,69 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17200</v>
+        <v>15400</v>
       </c>
       <c r="E20" s="3">
-        <v>13700</v>
+        <v>7300</v>
       </c>
       <c r="F20" s="3">
-        <v>7700</v>
+        <v>17000</v>
       </c>
       <c r="G20" s="3">
+        <v>13500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I20" s="3">
         <v>6800</v>
       </c>
-      <c r="H20" s="3">
-        <v>13800</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1361,32 +1435,38 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>306600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>22700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-8000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1402,21 +1482,21 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1426,11 +1506,11 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1438,114 +1518,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>210900</v>
+        <v>300800</v>
       </c>
       <c r="E23" s="3">
-        <v>227600</v>
+        <v>247200</v>
       </c>
       <c r="F23" s="3">
-        <v>162700</v>
+        <v>208200</v>
       </c>
       <c r="G23" s="3">
-        <v>35600</v>
+        <v>224700</v>
       </c>
       <c r="H23" s="3">
-        <v>52500</v>
+        <v>160600</v>
       </c>
       <c r="I23" s="3">
+        <v>35100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K23" s="3">
         <v>143900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>123400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>140100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>306100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>22300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-78800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>31000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>28500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-8000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23000</v>
+        <v>62400</v>
       </c>
       <c r="E24" s="3">
-        <v>35500</v>
+        <v>39700</v>
       </c>
       <c r="F24" s="3">
-        <v>25900</v>
+        <v>22700</v>
       </c>
       <c r="G24" s="3">
-        <v>7000</v>
+        <v>35000</v>
       </c>
       <c r="H24" s="3">
-        <v>-14500</v>
+        <v>25600</v>
       </c>
       <c r="I24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K24" s="3">
         <v>29500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>30100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>64600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187900</v>
+        <v>238300</v>
       </c>
       <c r="E26" s="3">
-        <v>192200</v>
+        <v>207400</v>
       </c>
       <c r="F26" s="3">
-        <v>136700</v>
+        <v>185400</v>
       </c>
       <c r="G26" s="3">
-        <v>28600</v>
+        <v>189700</v>
       </c>
       <c r="H26" s="3">
-        <v>67000</v>
+        <v>135000</v>
       </c>
       <c r="I26" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K26" s="3">
         <v>114400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>96400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>110000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>241500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>14400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-74200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>23500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>22100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>188000</v>
+        <v>238300</v>
       </c>
       <c r="E27" s="3">
-        <v>192200</v>
+        <v>207500</v>
       </c>
       <c r="F27" s="3">
-        <v>136700</v>
+        <v>185500</v>
       </c>
       <c r="G27" s="3">
-        <v>28600</v>
+        <v>189700</v>
       </c>
       <c r="H27" s="3">
-        <v>67100</v>
+        <v>135000</v>
       </c>
       <c r="I27" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K27" s="3">
         <v>114400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>96400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>110000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>241500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-419200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-74200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>23500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>22100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17200</v>
+        <v>-15400</v>
       </c>
       <c r="E32" s="3">
-        <v>-13700</v>
+        <v>-7300</v>
       </c>
       <c r="F32" s="3">
-        <v>-7700</v>
+        <v>-17000</v>
       </c>
       <c r="G32" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>188000</v>
+        <v>238300</v>
       </c>
       <c r="E33" s="3">
-        <v>192200</v>
+        <v>207500</v>
       </c>
       <c r="F33" s="3">
-        <v>136700</v>
+        <v>185500</v>
       </c>
       <c r="G33" s="3">
-        <v>28600</v>
+        <v>189700</v>
       </c>
       <c r="H33" s="3">
-        <v>67100</v>
+        <v>135000</v>
       </c>
       <c r="I33" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K33" s="3">
         <v>114400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>96400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>110000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>241500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-419200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-74200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>23500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>22100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>188000</v>
+        <v>238300</v>
       </c>
       <c r="E35" s="3">
-        <v>192200</v>
+        <v>207500</v>
       </c>
       <c r="F35" s="3">
-        <v>136700</v>
+        <v>185500</v>
       </c>
       <c r="G35" s="3">
-        <v>28600</v>
+        <v>189700</v>
       </c>
       <c r="H35" s="3">
-        <v>67100</v>
+        <v>135000</v>
       </c>
       <c r="I35" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K35" s="3">
         <v>114400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>96400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>110000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>241500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-419200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-74200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>23500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>22100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2399,52 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>689300</v>
+        <v>799500</v>
       </c>
       <c r="E41" s="3">
-        <v>752100</v>
+        <v>919900</v>
       </c>
       <c r="F41" s="3">
-        <v>596500</v>
+        <v>680300</v>
       </c>
       <c r="G41" s="3">
-        <v>564200</v>
+        <v>742300</v>
       </c>
       <c r="H41" s="3">
-        <v>328900</v>
+        <v>588700</v>
       </c>
       <c r="I41" s="3">
+        <v>556900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>324600</v>
+      </c>
+      <c r="K41" s="3">
         <v>287700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>285100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>195700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>210000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>281100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>65600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2280,8 +2454,14 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,50 +2513,56 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2150700</v>
+        <v>2393900</v>
       </c>
       <c r="E43" s="3">
-        <v>2154100</v>
+        <v>2154400</v>
       </c>
       <c r="F43" s="3">
-        <v>2220400</v>
+        <v>2122700</v>
       </c>
       <c r="G43" s="3">
-        <v>2129900</v>
+        <v>2126100</v>
       </c>
       <c r="H43" s="3">
-        <v>2196900</v>
+        <v>2191500</v>
       </c>
       <c r="I43" s="3">
+        <v>2102200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2168400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2094600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1663200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1050200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>642500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>177700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>272300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2386,8 +2572,14 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,50 +2631,56 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>572900</v>
+        <v>604000</v>
       </c>
       <c r="E45" s="3">
-        <v>548000</v>
+        <v>565300</v>
       </c>
       <c r="F45" s="3">
-        <v>642400</v>
+        <v>565400</v>
       </c>
       <c r="G45" s="3">
-        <v>591000</v>
+        <v>540900</v>
       </c>
       <c r="H45" s="3">
-        <v>516900</v>
+        <v>634100</v>
       </c>
       <c r="I45" s="3">
+        <v>583300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>510200</v>
+      </c>
+      <c r="K45" s="3">
         <v>498200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>427100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>354900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>213900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>156100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>102600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2492,50 +2690,56 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3412900</v>
+        <v>3797400</v>
       </c>
       <c r="E46" s="3">
-        <v>3454300</v>
+        <v>3639600</v>
       </c>
       <c r="F46" s="3">
-        <v>3459200</v>
+        <v>3368500</v>
       </c>
       <c r="G46" s="3">
-        <v>3285100</v>
+        <v>3409300</v>
       </c>
       <c r="H46" s="3">
-        <v>3042700</v>
+        <v>3414200</v>
       </c>
       <c r="I46" s="3">
+        <v>3242400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3003100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2880600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2375500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1600800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1066300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>615000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>440500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2545,38 +2749,44 @@
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>162400</v>
+        <v>383800</v>
       </c>
       <c r="E47" s="3">
-        <v>135200</v>
+        <v>223000</v>
       </c>
       <c r="F47" s="3">
-        <v>105100</v>
+        <v>160300</v>
       </c>
       <c r="G47" s="3">
-        <v>54500</v>
+        <v>133400</v>
       </c>
       <c r="H47" s="3">
-        <v>12300</v>
+        <v>103700</v>
       </c>
       <c r="I47" s="3">
+        <v>53800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2586,11 +2796,11 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2598,37 +2808,43 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10700</v>
+        <v>9200</v>
       </c>
       <c r="E48" s="3">
-        <v>11800</v>
+        <v>9100</v>
       </c>
       <c r="F48" s="3">
-        <v>12900</v>
+        <v>10500</v>
       </c>
       <c r="G48" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="H48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I48" s="3">
         <v>11300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1000</v>
       </c>
       <c r="M48" s="3">
         <v>1000</v>
@@ -2636,11 +2852,11 @@
       <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
+      <c r="O48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1000</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
@@ -2651,13 +2867,19 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
@@ -2672,16 +2894,16 @@
         <v>500</v>
       </c>
       <c r="I49" s="3">
+        <v>500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>500</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2689,11 +2911,11 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3">
+        <v>100</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +3044,56 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>218200</v>
+        <v>158100</v>
       </c>
       <c r="E52" s="3">
-        <v>179500</v>
+        <v>229000</v>
       </c>
       <c r="F52" s="3">
-        <v>163500</v>
+        <v>215400</v>
       </c>
       <c r="G52" s="3">
-        <v>209600</v>
+        <v>177200</v>
       </c>
       <c r="H52" s="3">
-        <v>108800</v>
+        <v>161400</v>
       </c>
       <c r="I52" s="3">
+        <v>206900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K52" s="3">
         <v>25500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>86800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>67400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3162,56 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3804700</v>
+        <v>4349300</v>
       </c>
       <c r="E54" s="3">
-        <v>3781300</v>
+        <v>4101300</v>
       </c>
       <c r="F54" s="3">
-        <v>3741200</v>
+        <v>3755200</v>
       </c>
       <c r="G54" s="3">
-        <v>3561200</v>
+        <v>3732100</v>
       </c>
       <c r="H54" s="3">
-        <v>3175700</v>
+        <v>3692600</v>
       </c>
       <c r="I54" s="3">
+        <v>3514900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3134400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2913900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2378000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1601900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1067400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>702900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>509000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3221,14 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,38 +3326,44 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29100</v>
+        <v>51800</v>
       </c>
       <c r="E58" s="3">
+        <v>35700</v>
+      </c>
+      <c r="F58" s="3">
         <v>28800</v>
       </c>
-      <c r="F58" s="3">
-        <v>29400</v>
-      </c>
       <c r="G58" s="3">
-        <v>67900</v>
+        <v>28500</v>
       </c>
       <c r="H58" s="3">
-        <v>31200</v>
+        <v>29000</v>
       </c>
       <c r="I58" s="3">
+        <v>67000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K58" s="3">
         <v>239500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>223900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3105,11 +3373,11 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3117,50 +3385,56 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2059000</v>
+        <v>2012700</v>
       </c>
       <c r="E59" s="3">
-        <v>1973200</v>
+        <v>2037100</v>
       </c>
       <c r="F59" s="3">
-        <v>2044200</v>
+        <v>2032200</v>
       </c>
       <c r="G59" s="3">
-        <v>2061500</v>
+        <v>1947500</v>
       </c>
       <c r="H59" s="3">
-        <v>1477000</v>
+        <v>2017600</v>
       </c>
       <c r="I59" s="3">
+        <v>2034700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1457800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1280000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1109500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>754700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>420300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>413100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>452200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,50 +3444,56 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2088100</v>
+        <v>2064500</v>
       </c>
       <c r="E60" s="3">
-        <v>2002000</v>
+        <v>2072800</v>
       </c>
       <c r="F60" s="3">
-        <v>2073600</v>
+        <v>2060900</v>
       </c>
       <c r="G60" s="3">
-        <v>2129400</v>
+        <v>1976000</v>
       </c>
       <c r="H60" s="3">
-        <v>1508200</v>
+        <v>2046600</v>
       </c>
       <c r="I60" s="3">
+        <v>2101700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1488600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1519500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1333300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>754700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>420300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>413100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>452200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,44 +3562,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>237400</v>
+        <v>362000</v>
       </c>
       <c r="E62" s="3">
-        <v>495200</v>
+        <v>351000</v>
       </c>
       <c r="F62" s="3">
-        <v>574300</v>
+        <v>234300</v>
       </c>
       <c r="G62" s="3">
-        <v>484900</v>
+        <v>488700</v>
       </c>
       <c r="H62" s="3">
-        <v>541900</v>
+        <v>566800</v>
       </c>
       <c r="I62" s="3">
+        <v>478500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>534900</v>
+      </c>
+      <c r="K62" s="3">
         <v>342300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>121400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>54400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3798,56 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2325600</v>
+        <v>2426600</v>
       </c>
       <c r="E66" s="3">
-        <v>2497300</v>
+        <v>2423800</v>
       </c>
       <c r="F66" s="3">
-        <v>2648000</v>
+        <v>2295300</v>
       </c>
       <c r="G66" s="3">
-        <v>2614400</v>
+        <v>2464800</v>
       </c>
       <c r="H66" s="3">
-        <v>2050300</v>
+        <v>2613600</v>
       </c>
       <c r="I66" s="3">
+        <v>2580400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2023600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1862000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1454700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>809100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>422600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>413100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>452200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3541,8 +3857,14 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3701,14 +4037,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>628600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +4116,56 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>645500</v>
+        <v>1082900</v>
       </c>
       <c r="E72" s="3">
-        <v>457500</v>
+        <v>844600</v>
       </c>
       <c r="F72" s="3">
-        <v>265400</v>
+        <v>637100</v>
       </c>
       <c r="G72" s="3">
-        <v>128600</v>
+        <v>451600</v>
       </c>
       <c r="H72" s="3">
-        <v>323100</v>
+        <v>261900</v>
       </c>
       <c r="I72" s="3">
+        <v>126900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>318900</v>
+      </c>
+      <c r="K72" s="3">
         <v>256100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>141600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>44300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-62500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-339400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-109100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,8 +4175,14 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4352,56 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1479100</v>
+        <v>1922700</v>
       </c>
       <c r="E76" s="3">
-        <v>1283900</v>
+        <v>1677400</v>
       </c>
       <c r="F76" s="3">
-        <v>1093200</v>
+        <v>1459800</v>
       </c>
       <c r="G76" s="3">
-        <v>946800</v>
+        <v>1267200</v>
       </c>
       <c r="H76" s="3">
-        <v>1125400</v>
+        <v>1079000</v>
       </c>
       <c r="I76" s="3">
+        <v>934500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1110700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1051900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>923300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>792800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>644800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-338900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>56800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4039,8 +4411,14 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>188000</v>
+        <v>238300</v>
       </c>
       <c r="E81" s="3">
-        <v>192200</v>
+        <v>207500</v>
       </c>
       <c r="F81" s="3">
-        <v>136700</v>
+        <v>185500</v>
       </c>
       <c r="G81" s="3">
-        <v>28600</v>
+        <v>189700</v>
       </c>
       <c r="H81" s="3">
-        <v>67100</v>
+        <v>135000</v>
       </c>
       <c r="I81" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K81" s="3">
         <v>114400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>96400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>110000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>241500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-419200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-74200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>23500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>22100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4259,11 +4657,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,31 +4970,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>199600</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>269900</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4577,11 +5011,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
@@ -4595,8 +5029,14 @@
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4651,11 +5093,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,31 +5229,37 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-346700</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-70100</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4810,11 +5270,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5547,37 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>82900</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>28400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5096,11 +5588,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
@@ -5114,31 +5606,37 @@
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5149,11 +5647,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
@@ -5167,31 +5665,37 @@
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-64400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>228000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5202,11 +5706,11 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
@@ -5218,6 +5722,12 @@
         <v>8</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>616200</v>
+        <v>722200</v>
       </c>
       <c r="E8" s="3">
-        <v>554200</v>
+        <v>626500</v>
       </c>
       <c r="F8" s="3">
-        <v>513900</v>
+        <v>563500</v>
       </c>
       <c r="G8" s="3">
-        <v>570300</v>
+        <v>522500</v>
       </c>
       <c r="H8" s="3">
-        <v>514300</v>
+        <v>579800</v>
       </c>
       <c r="I8" s="3">
-        <v>490100</v>
+        <v>522900</v>
       </c>
       <c r="J8" s="3">
+        <v>498300</v>
+      </c>
+      <c r="K8" s="3">
         <v>369700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>403000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>347400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>306900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>444600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>89900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>62300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>86000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>64400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>52500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>85900</v>
+        <v>98200</v>
       </c>
       <c r="E9" s="3">
-        <v>73600</v>
+        <v>87400</v>
       </c>
       <c r="F9" s="3">
-        <v>68400</v>
+        <v>74800</v>
       </c>
       <c r="G9" s="3">
-        <v>62900</v>
+        <v>69600</v>
       </c>
       <c r="H9" s="3">
-        <v>61600</v>
+        <v>64000</v>
       </c>
       <c r="I9" s="3">
-        <v>53500</v>
+        <v>62600</v>
       </c>
       <c r="J9" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K9" s="3">
         <v>27200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>58400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>530200</v>
+        <v>624000</v>
       </c>
       <c r="E10" s="3">
-        <v>480600</v>
+        <v>539100</v>
       </c>
       <c r="F10" s="3">
-        <v>445500</v>
+        <v>488700</v>
       </c>
       <c r="G10" s="3">
-        <v>507300</v>
+        <v>452900</v>
       </c>
       <c r="H10" s="3">
-        <v>452800</v>
+        <v>515800</v>
       </c>
       <c r="I10" s="3">
-        <v>436600</v>
+        <v>460300</v>
       </c>
       <c r="J10" s="3">
+        <v>443900</v>
+      </c>
+      <c r="K10" s="3">
         <v>342400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>344600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>272100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>411900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>65500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>71700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>55600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>41100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1165,29 +1188,32 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>100</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
+      <c r="T15" s="3">
+        <v>100</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>330800</v>
+        <v>425700</v>
       </c>
       <c r="E17" s="3">
-        <v>314300</v>
+        <v>336400</v>
       </c>
       <c r="F17" s="3">
-        <v>322800</v>
+        <v>319600</v>
       </c>
       <c r="G17" s="3">
-        <v>359100</v>
+        <v>328200</v>
       </c>
       <c r="H17" s="3">
-        <v>361400</v>
+        <v>365100</v>
       </c>
       <c r="I17" s="3">
-        <v>461700</v>
+        <v>367400</v>
       </c>
       <c r="J17" s="3">
+        <v>469500</v>
+      </c>
+      <c r="K17" s="3">
         <v>329300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>256000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>218000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>175600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>68400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>141500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>55400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>49600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>285300</v>
+        <v>296500</v>
       </c>
       <c r="E18" s="3">
-        <v>239900</v>
+        <v>290100</v>
       </c>
       <c r="F18" s="3">
-        <v>191100</v>
+        <v>243900</v>
       </c>
       <c r="G18" s="3">
-        <v>211200</v>
+        <v>194300</v>
       </c>
       <c r="H18" s="3">
-        <v>152900</v>
+        <v>214700</v>
       </c>
       <c r="I18" s="3">
+        <v>155500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>40400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>147000</v>
+      </c>
+      <c r="M18" s="3">
+        <v>129400</v>
+      </c>
+      <c r="N18" s="3">
+        <v>131300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>305500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>21500</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>30600</v>
+      </c>
+      <c r="S18" s="3">
         <v>28400</v>
       </c>
-      <c r="J18" s="3">
-        <v>40400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>147000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>129400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>131300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>305500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>21500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-79200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>30600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>28400</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,67 +1380,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15400</v>
+        <v>4500</v>
       </c>
       <c r="E20" s="3">
-        <v>7300</v>
+        <v>15700</v>
       </c>
       <c r="F20" s="3">
-        <v>17000</v>
+        <v>7400</v>
       </c>
       <c r="G20" s="3">
-        <v>13500</v>
+        <v>17300</v>
       </c>
       <c r="H20" s="3">
-        <v>7600</v>
+        <v>13700</v>
       </c>
       <c r="I20" s="3">
-        <v>6800</v>
+        <v>7700</v>
       </c>
       <c r="J20" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K20" s="3">
         <v>13600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>400</v>
       </c>
       <c r="Q20" s="3">
         <v>400</v>
       </c>
       <c r="R20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
       </c>
       <c r="T20" s="3">
+        <v>200</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1441,32 +1478,35 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>306600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1488,18 +1528,18 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1512,8 +1552,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300800</v>
+        <v>301000</v>
       </c>
       <c r="E23" s="3">
-        <v>247200</v>
+        <v>305800</v>
       </c>
       <c r="F23" s="3">
-        <v>208200</v>
+        <v>251300</v>
       </c>
       <c r="G23" s="3">
-        <v>224700</v>
+        <v>211700</v>
       </c>
       <c r="H23" s="3">
-        <v>160600</v>
+        <v>228400</v>
       </c>
       <c r="I23" s="3">
-        <v>35100</v>
+        <v>163200</v>
       </c>
       <c r="J23" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K23" s="3">
         <v>51800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>143900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>123400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>140100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>306100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-78800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62400</v>
+        <v>56100</v>
       </c>
       <c r="E24" s="3">
-        <v>39700</v>
+        <v>63500</v>
       </c>
       <c r="F24" s="3">
-        <v>22700</v>
+        <v>40400</v>
       </c>
       <c r="G24" s="3">
-        <v>35000</v>
+        <v>23100</v>
       </c>
       <c r="H24" s="3">
-        <v>25600</v>
+        <v>35600</v>
       </c>
       <c r="I24" s="3">
-        <v>6900</v>
+        <v>26000</v>
       </c>
       <c r="J24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-14300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>238300</v>
+        <v>244900</v>
       </c>
       <c r="E26" s="3">
-        <v>207400</v>
+        <v>242300</v>
       </c>
       <c r="F26" s="3">
-        <v>185400</v>
+        <v>210900</v>
       </c>
       <c r="G26" s="3">
-        <v>189700</v>
+        <v>188600</v>
       </c>
       <c r="H26" s="3">
-        <v>135000</v>
+        <v>192800</v>
       </c>
       <c r="I26" s="3">
-        <v>28200</v>
+        <v>137200</v>
       </c>
       <c r="J26" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K26" s="3">
         <v>66200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>114400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>96400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>110000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>241500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>238300</v>
+        <v>244900</v>
       </c>
       <c r="E27" s="3">
-        <v>207500</v>
+        <v>242300</v>
       </c>
       <c r="F27" s="3">
-        <v>185500</v>
+        <v>211000</v>
       </c>
       <c r="G27" s="3">
-        <v>189700</v>
+        <v>188600</v>
       </c>
       <c r="H27" s="3">
-        <v>135000</v>
+        <v>192900</v>
       </c>
       <c r="I27" s="3">
-        <v>28200</v>
+        <v>137200</v>
       </c>
       <c r="J27" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K27" s="3">
         <v>66200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>114400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>96400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>110000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>241500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-419200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15400</v>
+        <v>-4500</v>
       </c>
       <c r="E32" s="3">
-        <v>-7300</v>
+        <v>-15700</v>
       </c>
       <c r="F32" s="3">
-        <v>-17000</v>
+        <v>-7400</v>
       </c>
       <c r="G32" s="3">
-        <v>-13500</v>
+        <v>-17300</v>
       </c>
       <c r="H32" s="3">
-        <v>-7600</v>
+        <v>-13700</v>
       </c>
       <c r="I32" s="3">
-        <v>-6800</v>
+        <v>-7700</v>
       </c>
       <c r="J32" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-400</v>
       </c>
       <c r="Q32" s="3">
         <v>-400</v>
       </c>
       <c r="R32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
       </c>
       <c r="T32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>238300</v>
+        <v>244900</v>
       </c>
       <c r="E33" s="3">
-        <v>207500</v>
+        <v>242300</v>
       </c>
       <c r="F33" s="3">
-        <v>185500</v>
+        <v>211000</v>
       </c>
       <c r="G33" s="3">
-        <v>189700</v>
+        <v>188600</v>
       </c>
       <c r="H33" s="3">
-        <v>135000</v>
+        <v>192900</v>
       </c>
       <c r="I33" s="3">
-        <v>28200</v>
+        <v>137200</v>
       </c>
       <c r="J33" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K33" s="3">
         <v>66200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>96400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>110000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>241500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-419200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>238300</v>
+        <v>244900</v>
       </c>
       <c r="E35" s="3">
-        <v>207500</v>
+        <v>242300</v>
       </c>
       <c r="F35" s="3">
-        <v>185500</v>
+        <v>211000</v>
       </c>
       <c r="G35" s="3">
-        <v>189700</v>
+        <v>188600</v>
       </c>
       <c r="H35" s="3">
-        <v>135000</v>
+        <v>192900</v>
       </c>
       <c r="I35" s="3">
-        <v>28200</v>
+        <v>137200</v>
       </c>
       <c r="J35" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K35" s="3">
         <v>66200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>96400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>110000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>241500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-419200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>799500</v>
+        <v>661400</v>
       </c>
       <c r="E41" s="3">
-        <v>919900</v>
+        <v>812900</v>
       </c>
       <c r="F41" s="3">
-        <v>680300</v>
+        <v>935300</v>
       </c>
       <c r="G41" s="3">
-        <v>742300</v>
+        <v>691700</v>
       </c>
       <c r="H41" s="3">
-        <v>588700</v>
+        <v>754800</v>
       </c>
       <c r="I41" s="3">
-        <v>556900</v>
+        <v>598600</v>
       </c>
       <c r="J41" s="3">
+        <v>566200</v>
+      </c>
+      <c r="K41" s="3">
         <v>324600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>287700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>285100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>195700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>210000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>281100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>65600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,53 +2609,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2393900</v>
+        <v>2771100</v>
       </c>
       <c r="E43" s="3">
-        <v>2154400</v>
+        <v>2434000</v>
       </c>
       <c r="F43" s="3">
-        <v>2122700</v>
+        <v>2190500</v>
       </c>
       <c r="G43" s="3">
-        <v>2126100</v>
+        <v>2158200</v>
       </c>
       <c r="H43" s="3">
-        <v>2191500</v>
+        <v>2161700</v>
       </c>
       <c r="I43" s="3">
-        <v>2102200</v>
+        <v>2228200</v>
       </c>
       <c r="J43" s="3">
+        <v>2137400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2168400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2094600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1663200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1050200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>642500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>177700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>272300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,53 +2733,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>604000</v>
+        <v>574300</v>
       </c>
       <c r="E45" s="3">
-        <v>565300</v>
+        <v>614200</v>
       </c>
       <c r="F45" s="3">
-        <v>565400</v>
+        <v>574800</v>
       </c>
       <c r="G45" s="3">
-        <v>540900</v>
+        <v>574900</v>
       </c>
       <c r="H45" s="3">
-        <v>634100</v>
+        <v>550000</v>
       </c>
       <c r="I45" s="3">
-        <v>583300</v>
+        <v>644700</v>
       </c>
       <c r="J45" s="3">
+        <v>593100</v>
+      </c>
+      <c r="K45" s="3">
         <v>510200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>498200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>427100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>354900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>213900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>156100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>102600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2696,53 +2795,56 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3797400</v>
+        <v>4006800</v>
       </c>
       <c r="E46" s="3">
-        <v>3639600</v>
+        <v>3861000</v>
       </c>
       <c r="F46" s="3">
-        <v>3368500</v>
+        <v>3700600</v>
       </c>
       <c r="G46" s="3">
-        <v>3409300</v>
+        <v>3424900</v>
       </c>
       <c r="H46" s="3">
-        <v>3414200</v>
+        <v>3466400</v>
       </c>
       <c r="I46" s="3">
-        <v>3242400</v>
+        <v>3471400</v>
       </c>
       <c r="J46" s="3">
+        <v>3296700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3003100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2880600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2375500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1066300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>615000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>440500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2755,41 +2857,44 @@
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>383800</v>
+        <v>638300</v>
       </c>
       <c r="E47" s="3">
-        <v>223000</v>
+        <v>390200</v>
       </c>
       <c r="F47" s="3">
-        <v>160300</v>
+        <v>226700</v>
       </c>
       <c r="G47" s="3">
-        <v>133400</v>
+        <v>163000</v>
       </c>
       <c r="H47" s="3">
-        <v>103700</v>
+        <v>135700</v>
       </c>
       <c r="I47" s="3">
-        <v>53800</v>
+        <v>105500</v>
       </c>
       <c r="J47" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K47" s="3">
         <v>12100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2802,8 +2907,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2814,40 +2919,43 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F48" s="3">
         <v>9200</v>
       </c>
-      <c r="E48" s="3">
-        <v>9100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>10500</v>
-      </c>
       <c r="G48" s="3">
-        <v>11600</v>
+        <v>10700</v>
       </c>
       <c r="H48" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="I48" s="3">
-        <v>11300</v>
+        <v>12900</v>
       </c>
       <c r="J48" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K48" s="3">
         <v>11200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1000</v>
       </c>
       <c r="N48" s="3">
         <v>1000</v>
@@ -2858,8 +2966,8 @@
       <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
+      <c r="Q48" s="3">
+        <v>1000</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
@@ -2873,25 +2981,28 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>500</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
       </c>
       <c r="H49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
@@ -2900,13 +3011,13 @@
         <v>500</v>
       </c>
       <c r="K49" s="3">
+        <v>500</v>
+      </c>
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -2917,8 +3028,8 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="Q49" s="3">
+        <v>100</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,53 +3167,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>158100</v>
+        <v>181500</v>
       </c>
       <c r="E52" s="3">
-        <v>229000</v>
+        <v>160700</v>
       </c>
       <c r="F52" s="3">
-        <v>215400</v>
+        <v>232900</v>
       </c>
       <c r="G52" s="3">
-        <v>177200</v>
+        <v>219000</v>
       </c>
       <c r="H52" s="3">
-        <v>161400</v>
+        <v>180100</v>
       </c>
       <c r="I52" s="3">
-        <v>206900</v>
+        <v>164100</v>
       </c>
       <c r="J52" s="3">
+        <v>210400</v>
+      </c>
+      <c r="K52" s="3">
         <v>107400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>86800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4349300</v>
+        <v>4835400</v>
       </c>
       <c r="E54" s="3">
-        <v>4101300</v>
+        <v>4422200</v>
       </c>
       <c r="F54" s="3">
-        <v>3755200</v>
+        <v>4170000</v>
       </c>
       <c r="G54" s="3">
-        <v>3732100</v>
+        <v>3818100</v>
       </c>
       <c r="H54" s="3">
-        <v>3692600</v>
+        <v>3794600</v>
       </c>
       <c r="I54" s="3">
-        <v>3514900</v>
+        <v>3754400</v>
       </c>
       <c r="J54" s="3">
+        <v>3573800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3134400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2913900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2378000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1601900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1067400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>702900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>509000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,41 +3463,44 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51800</v>
+        <v>52600</v>
       </c>
       <c r="E58" s="3">
-        <v>35700</v>
+        <v>52600</v>
       </c>
       <c r="F58" s="3">
-        <v>28800</v>
+        <v>36300</v>
       </c>
       <c r="G58" s="3">
-        <v>28500</v>
+        <v>29200</v>
       </c>
       <c r="H58" s="3">
-        <v>29000</v>
+        <v>28900</v>
       </c>
       <c r="I58" s="3">
-        <v>67000</v>
+        <v>29500</v>
       </c>
       <c r="J58" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K58" s="3">
         <v>30800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>239500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>223900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3379,8 +3513,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,53 +3525,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2012700</v>
+        <v>2060100</v>
       </c>
       <c r="E59" s="3">
-        <v>2037100</v>
+        <v>2046500</v>
       </c>
       <c r="F59" s="3">
-        <v>2032200</v>
+        <v>2071200</v>
       </c>
       <c r="G59" s="3">
-        <v>1947500</v>
+        <v>2066200</v>
       </c>
       <c r="H59" s="3">
-        <v>2017600</v>
+        <v>1980200</v>
       </c>
       <c r="I59" s="3">
-        <v>2034700</v>
+        <v>2051400</v>
       </c>
       <c r="J59" s="3">
+        <v>2068800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1457800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1280000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1109500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>754700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>420300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>413100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>452200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3450,53 +3587,56 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2064500</v>
+        <v>2112700</v>
       </c>
       <c r="E60" s="3">
-        <v>2072800</v>
+        <v>2099100</v>
       </c>
       <c r="F60" s="3">
-        <v>2060900</v>
+        <v>2107500</v>
       </c>
       <c r="G60" s="3">
-        <v>1976000</v>
+        <v>2095500</v>
       </c>
       <c r="H60" s="3">
-        <v>2046600</v>
+        <v>2009100</v>
       </c>
       <c r="I60" s="3">
-        <v>2101700</v>
+        <v>2080900</v>
       </c>
       <c r="J60" s="3">
+        <v>2136900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1488600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1519500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1333300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>754700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>420300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>413100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>452200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,47 +3711,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>362000</v>
+        <v>512500</v>
       </c>
       <c r="E62" s="3">
-        <v>351000</v>
+        <v>368000</v>
       </c>
       <c r="F62" s="3">
-        <v>234300</v>
+        <v>356900</v>
       </c>
       <c r="G62" s="3">
-        <v>488700</v>
+        <v>238200</v>
       </c>
       <c r="H62" s="3">
-        <v>566800</v>
+        <v>496900</v>
       </c>
       <c r="I62" s="3">
-        <v>478500</v>
+        <v>576300</v>
       </c>
       <c r="J62" s="3">
+        <v>486600</v>
+      </c>
+      <c r="K62" s="3">
         <v>534900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>342300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>121400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2426600</v>
+        <v>2625200</v>
       </c>
       <c r="E66" s="3">
-        <v>2423800</v>
+        <v>2467200</v>
       </c>
       <c r="F66" s="3">
-        <v>2295300</v>
+        <v>2464500</v>
       </c>
       <c r="G66" s="3">
-        <v>2464800</v>
+        <v>2333800</v>
       </c>
       <c r="H66" s="3">
-        <v>2613600</v>
+        <v>2506100</v>
       </c>
       <c r="I66" s="3">
-        <v>2580400</v>
+        <v>2657300</v>
       </c>
       <c r="J66" s="3">
+        <v>2623600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2023600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1862000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1454700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>809100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>422600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>413100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>452200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4043,11 +4211,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>628600</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1082900</v>
+        <v>1345900</v>
       </c>
       <c r="E72" s="3">
-        <v>844600</v>
+        <v>1101000</v>
       </c>
       <c r="F72" s="3">
-        <v>637100</v>
+        <v>858700</v>
       </c>
       <c r="G72" s="3">
-        <v>451600</v>
+        <v>647800</v>
       </c>
       <c r="H72" s="3">
-        <v>261900</v>
+        <v>459100</v>
       </c>
       <c r="I72" s="3">
-        <v>126900</v>
+        <v>266300</v>
       </c>
       <c r="J72" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K72" s="3">
         <v>318900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>256100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>141600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-339400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-109100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1922700</v>
+        <v>2210100</v>
       </c>
       <c r="E76" s="3">
-        <v>1677400</v>
+        <v>1954900</v>
       </c>
       <c r="F76" s="3">
-        <v>1459800</v>
+        <v>1705500</v>
       </c>
       <c r="G76" s="3">
-        <v>1267200</v>
+        <v>1484300</v>
       </c>
       <c r="H76" s="3">
-        <v>1079000</v>
+        <v>1288500</v>
       </c>
       <c r="I76" s="3">
-        <v>934500</v>
+        <v>1097100</v>
       </c>
       <c r="J76" s="3">
+        <v>950100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1110700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1051900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>923300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>792800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>644800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-338900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>56800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>238300</v>
+        <v>244900</v>
       </c>
       <c r="E81" s="3">
-        <v>207500</v>
+        <v>242300</v>
       </c>
       <c r="F81" s="3">
-        <v>185500</v>
+        <v>211000</v>
       </c>
       <c r="G81" s="3">
-        <v>189700</v>
+        <v>188600</v>
       </c>
       <c r="H81" s="3">
-        <v>135000</v>
+        <v>192900</v>
       </c>
       <c r="I81" s="3">
-        <v>28200</v>
+        <v>137200</v>
       </c>
       <c r="J81" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K81" s="3">
         <v>66200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>96400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>110000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>241500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-419200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4663,8 +4862,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,19 +5190,22 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>199600</v>
+        <v>278200</v>
       </c>
       <c r="E89" s="3">
-        <v>269900</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
+        <v>203000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>274500</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
@@ -5002,8 +5219,8 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5017,8 +5234,8 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5099,8 +5320,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,19 +5462,22 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-346700</v>
+        <v>-537100</v>
       </c>
       <c r="E94" s="3">
-        <v>-70100</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+        <v>-352500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-71300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -5261,8 +5491,8 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5276,8 +5506,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,19 +5796,22 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>82900</v>
+        <v>71300</v>
       </c>
       <c r="E100" s="3">
-        <v>28400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+        <v>84300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>28900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
@@ -5579,8 +5825,8 @@
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5594,8 +5840,8 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
@@ -5612,19 +5858,22 @@
       <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="F101" s="3">
+        <v>-200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
@@ -5638,8 +5887,8 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5653,8 +5902,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
@@ -5671,19 +5920,22 @@
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-64400</v>
+        <v>-187700</v>
       </c>
       <c r="E102" s="3">
-        <v>228000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
+        <v>-65500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>231800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
@@ -5697,8 +5949,8 @@
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5712,8 +5964,8 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>8</v>
@@ -5728,6 +5980,9 @@
         <v>8</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>722200</v>
+        <v>727700</v>
       </c>
       <c r="E8" s="3">
-        <v>626500</v>
+        <v>631300</v>
       </c>
       <c r="F8" s="3">
-        <v>563500</v>
+        <v>567800</v>
       </c>
       <c r="G8" s="3">
-        <v>522500</v>
+        <v>526500</v>
       </c>
       <c r="H8" s="3">
-        <v>579800</v>
+        <v>584300</v>
       </c>
       <c r="I8" s="3">
-        <v>522900</v>
+        <v>526900</v>
       </c>
       <c r="J8" s="3">
-        <v>498300</v>
+        <v>502100</v>
       </c>
       <c r="K8" s="3">
         <v>369700</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>98200</v>
+        <v>98900</v>
       </c>
       <c r="E9" s="3">
-        <v>87400</v>
+        <v>88000</v>
       </c>
       <c r="F9" s="3">
-        <v>74800</v>
+        <v>75400</v>
       </c>
       <c r="G9" s="3">
-        <v>69600</v>
+        <v>70100</v>
       </c>
       <c r="H9" s="3">
-        <v>64000</v>
+        <v>64500</v>
       </c>
       <c r="I9" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="J9" s="3">
-        <v>54400</v>
+        <v>54800</v>
       </c>
       <c r="K9" s="3">
         <v>27200</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>624000</v>
+        <v>628800</v>
       </c>
       <c r="E10" s="3">
-        <v>539100</v>
+        <v>543300</v>
       </c>
       <c r="F10" s="3">
-        <v>488700</v>
+        <v>492400</v>
       </c>
       <c r="G10" s="3">
-        <v>452900</v>
+        <v>456400</v>
       </c>
       <c r="H10" s="3">
-        <v>515800</v>
+        <v>519800</v>
       </c>
       <c r="I10" s="3">
-        <v>460300</v>
+        <v>463900</v>
       </c>
       <c r="J10" s="3">
-        <v>443900</v>
+        <v>447300</v>
       </c>
       <c r="K10" s="3">
         <v>342400</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>425700</v>
+        <v>429000</v>
       </c>
       <c r="E17" s="3">
-        <v>336400</v>
+        <v>338900</v>
       </c>
       <c r="F17" s="3">
-        <v>319600</v>
+        <v>322100</v>
       </c>
       <c r="G17" s="3">
-        <v>328200</v>
+        <v>330700</v>
       </c>
       <c r="H17" s="3">
-        <v>365100</v>
+        <v>367900</v>
       </c>
       <c r="I17" s="3">
-        <v>367400</v>
+        <v>370200</v>
       </c>
       <c r="J17" s="3">
-        <v>469500</v>
+        <v>473100</v>
       </c>
       <c r="K17" s="3">
         <v>329300</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>296500</v>
+        <v>298800</v>
       </c>
       <c r="E18" s="3">
-        <v>290100</v>
+        <v>292400</v>
       </c>
       <c r="F18" s="3">
-        <v>243900</v>
+        <v>245800</v>
       </c>
       <c r="G18" s="3">
-        <v>194300</v>
+        <v>195800</v>
       </c>
       <c r="H18" s="3">
-        <v>214700</v>
+        <v>216300</v>
       </c>
       <c r="I18" s="3">
-        <v>155500</v>
+        <v>156700</v>
       </c>
       <c r="J18" s="3">
-        <v>28800</v>
+        <v>29100</v>
       </c>
       <c r="K18" s="3">
         <v>40400</v>
@@ -1387,22 +1387,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E20" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="F20" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G20" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="H20" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="I20" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J20" s="3">
         <v>6900</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>301000</v>
+        <v>303300</v>
       </c>
       <c r="E23" s="3">
-        <v>305800</v>
+        <v>308100</v>
       </c>
       <c r="F23" s="3">
-        <v>251300</v>
+        <v>253300</v>
       </c>
       <c r="G23" s="3">
-        <v>211700</v>
+        <v>213300</v>
       </c>
       <c r="H23" s="3">
-        <v>228400</v>
+        <v>230200</v>
       </c>
       <c r="I23" s="3">
-        <v>163200</v>
+        <v>164500</v>
       </c>
       <c r="J23" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="K23" s="3">
         <v>51800</v>
@@ -1635,25 +1635,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56100</v>
+        <v>56600</v>
       </c>
       <c r="E24" s="3">
-        <v>63500</v>
+        <v>63900</v>
       </c>
       <c r="F24" s="3">
-        <v>40400</v>
+        <v>40700</v>
       </c>
       <c r="G24" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="H24" s="3">
-        <v>35600</v>
+        <v>35900</v>
       </c>
       <c r="I24" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="J24" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K24" s="3">
         <v>-14300</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>244900</v>
+        <v>246700</v>
       </c>
       <c r="E26" s="3">
-        <v>242300</v>
+        <v>244200</v>
       </c>
       <c r="F26" s="3">
-        <v>210900</v>
+        <v>212500</v>
       </c>
       <c r="G26" s="3">
-        <v>188600</v>
+        <v>190000</v>
       </c>
       <c r="H26" s="3">
-        <v>192800</v>
+        <v>194300</v>
       </c>
       <c r="I26" s="3">
-        <v>137200</v>
+        <v>138300</v>
       </c>
       <c r="J26" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="K26" s="3">
         <v>66200</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>244900</v>
+        <v>246700</v>
       </c>
       <c r="E27" s="3">
-        <v>242300</v>
+        <v>244200</v>
       </c>
       <c r="F27" s="3">
-        <v>211000</v>
+        <v>212600</v>
       </c>
       <c r="G27" s="3">
-        <v>188600</v>
+        <v>190100</v>
       </c>
       <c r="H27" s="3">
-        <v>192900</v>
+        <v>194300</v>
       </c>
       <c r="I27" s="3">
-        <v>137200</v>
+        <v>138300</v>
       </c>
       <c r="J27" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="K27" s="3">
         <v>66200</v>
@@ -2131,22 +2131,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="E32" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="F32" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="G32" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="H32" s="3">
-        <v>-13700</v>
+        <v>-13800</v>
       </c>
       <c r="I32" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="J32" s="3">
         <v>-6900</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>244900</v>
+        <v>246700</v>
       </c>
       <c r="E33" s="3">
-        <v>242300</v>
+        <v>244200</v>
       </c>
       <c r="F33" s="3">
-        <v>211000</v>
+        <v>212600</v>
       </c>
       <c r="G33" s="3">
-        <v>188600</v>
+        <v>190100</v>
       </c>
       <c r="H33" s="3">
-        <v>192900</v>
+        <v>194300</v>
       </c>
       <c r="I33" s="3">
-        <v>137200</v>
+        <v>138300</v>
       </c>
       <c r="J33" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="K33" s="3">
         <v>66200</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>244900</v>
+        <v>246700</v>
       </c>
       <c r="E35" s="3">
-        <v>242300</v>
+        <v>244200</v>
       </c>
       <c r="F35" s="3">
-        <v>211000</v>
+        <v>212600</v>
       </c>
       <c r="G35" s="3">
-        <v>188600</v>
+        <v>190100</v>
       </c>
       <c r="H35" s="3">
-        <v>192900</v>
+        <v>194300</v>
       </c>
       <c r="I35" s="3">
-        <v>137200</v>
+        <v>138300</v>
       </c>
       <c r="J35" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="K35" s="3">
         <v>66200</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>661400</v>
+        <v>666400</v>
       </c>
       <c r="E41" s="3">
-        <v>812900</v>
+        <v>819100</v>
       </c>
       <c r="F41" s="3">
-        <v>935300</v>
+        <v>942500</v>
       </c>
       <c r="G41" s="3">
-        <v>691700</v>
+        <v>697000</v>
       </c>
       <c r="H41" s="3">
-        <v>754800</v>
+        <v>760600</v>
       </c>
       <c r="I41" s="3">
-        <v>598600</v>
+        <v>603200</v>
       </c>
       <c r="J41" s="3">
-        <v>566200</v>
+        <v>570500</v>
       </c>
       <c r="K41" s="3">
         <v>324600</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2771100</v>
+        <v>2792300</v>
       </c>
       <c r="E43" s="3">
-        <v>2434000</v>
+        <v>2452700</v>
       </c>
       <c r="F43" s="3">
-        <v>2190500</v>
+        <v>2207300</v>
       </c>
       <c r="G43" s="3">
-        <v>2158200</v>
+        <v>2174800</v>
       </c>
       <c r="H43" s="3">
-        <v>2161700</v>
+        <v>2178300</v>
       </c>
       <c r="I43" s="3">
-        <v>2228200</v>
+        <v>2245300</v>
       </c>
       <c r="J43" s="3">
-        <v>2137400</v>
+        <v>2153800</v>
       </c>
       <c r="K43" s="3">
         <v>2168400</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>574300</v>
+        <v>578700</v>
       </c>
       <c r="E45" s="3">
-        <v>614200</v>
+        <v>618900</v>
       </c>
       <c r="F45" s="3">
-        <v>574800</v>
+        <v>579200</v>
       </c>
       <c r="G45" s="3">
-        <v>574900</v>
+        <v>579300</v>
       </c>
       <c r="H45" s="3">
-        <v>550000</v>
+        <v>554200</v>
       </c>
       <c r="I45" s="3">
-        <v>644700</v>
+        <v>649600</v>
       </c>
       <c r="J45" s="3">
-        <v>593100</v>
+        <v>597700</v>
       </c>
       <c r="K45" s="3">
         <v>510200</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4006800</v>
+        <v>4037500</v>
       </c>
       <c r="E46" s="3">
-        <v>3861000</v>
+        <v>3890600</v>
       </c>
       <c r="F46" s="3">
-        <v>3700600</v>
+        <v>3729000</v>
       </c>
       <c r="G46" s="3">
-        <v>3424900</v>
+        <v>3451200</v>
       </c>
       <c r="H46" s="3">
-        <v>3466400</v>
+        <v>3493000</v>
       </c>
       <c r="I46" s="3">
-        <v>3471400</v>
+        <v>3498000</v>
       </c>
       <c r="J46" s="3">
-        <v>3296700</v>
+        <v>3322000</v>
       </c>
       <c r="K46" s="3">
         <v>3003100</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>638300</v>
+        <v>643200</v>
       </c>
       <c r="E47" s="3">
-        <v>390200</v>
+        <v>393200</v>
       </c>
       <c r="F47" s="3">
-        <v>226700</v>
+        <v>228400</v>
       </c>
       <c r="G47" s="3">
-        <v>163000</v>
+        <v>164200</v>
       </c>
       <c r="H47" s="3">
-        <v>135700</v>
+        <v>136700</v>
       </c>
       <c r="I47" s="3">
-        <v>105500</v>
+        <v>106300</v>
       </c>
       <c r="J47" s="3">
-        <v>54700</v>
+        <v>55100</v>
       </c>
       <c r="K47" s="3">
         <v>12100</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E48" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="F48" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="G48" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="H48" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="I48" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="J48" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="K48" s="3">
         <v>11200</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>162000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>234700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>220600</v>
+      </c>
+      <c r="H52" s="3">
         <v>181500</v>
       </c>
-      <c r="E52" s="3">
-        <v>160700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>232900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>219000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>180100</v>
-      </c>
       <c r="I52" s="3">
-        <v>164100</v>
+        <v>165400</v>
       </c>
       <c r="J52" s="3">
-        <v>210400</v>
+        <v>212000</v>
       </c>
       <c r="K52" s="3">
         <v>107400</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4835400</v>
+        <v>4872400</v>
       </c>
       <c r="E54" s="3">
-        <v>4422200</v>
+        <v>4456000</v>
       </c>
       <c r="F54" s="3">
-        <v>4170000</v>
+        <v>4201900</v>
       </c>
       <c r="G54" s="3">
-        <v>3818100</v>
+        <v>3847300</v>
       </c>
       <c r="H54" s="3">
-        <v>3794600</v>
+        <v>3823700</v>
       </c>
       <c r="I54" s="3">
-        <v>3754400</v>
+        <v>3783200</v>
       </c>
       <c r="J54" s="3">
-        <v>3573800</v>
+        <v>3601200</v>
       </c>
       <c r="K54" s="3">
         <v>3134400</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52600</v>
+        <v>53000</v>
       </c>
       <c r="E58" s="3">
-        <v>52600</v>
+        <v>53100</v>
       </c>
       <c r="F58" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="G58" s="3">
+        <v>29500</v>
+      </c>
+      <c r="H58" s="3">
         <v>29200</v>
       </c>
-      <c r="H58" s="3">
-        <v>28900</v>
-      </c>
       <c r="I58" s="3">
-        <v>29500</v>
+        <v>29700</v>
       </c>
       <c r="J58" s="3">
-        <v>68100</v>
+        <v>68600</v>
       </c>
       <c r="K58" s="3">
         <v>30800</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2060100</v>
+        <v>2075900</v>
       </c>
       <c r="E59" s="3">
-        <v>2046500</v>
+        <v>2062200</v>
       </c>
       <c r="F59" s="3">
-        <v>2071200</v>
+        <v>2087100</v>
       </c>
       <c r="G59" s="3">
-        <v>2066200</v>
+        <v>2082100</v>
       </c>
       <c r="H59" s="3">
-        <v>1980200</v>
+        <v>1995300</v>
       </c>
       <c r="I59" s="3">
-        <v>2051400</v>
+        <v>2067100</v>
       </c>
       <c r="J59" s="3">
-        <v>2068800</v>
+        <v>2084600</v>
       </c>
       <c r="K59" s="3">
         <v>1457800</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2112700</v>
+        <v>2128900</v>
       </c>
       <c r="E60" s="3">
-        <v>2099100</v>
+        <v>2115200</v>
       </c>
       <c r="F60" s="3">
-        <v>2107500</v>
+        <v>2123700</v>
       </c>
       <c r="G60" s="3">
-        <v>2095500</v>
+        <v>2111500</v>
       </c>
       <c r="H60" s="3">
-        <v>2009100</v>
+        <v>2024500</v>
       </c>
       <c r="I60" s="3">
-        <v>2080900</v>
+        <v>2096800</v>
       </c>
       <c r="J60" s="3">
-        <v>2136900</v>
+        <v>2153300</v>
       </c>
       <c r="K60" s="3">
         <v>1488600</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>512500</v>
+        <v>516400</v>
       </c>
       <c r="E62" s="3">
-        <v>368000</v>
+        <v>370900</v>
       </c>
       <c r="F62" s="3">
-        <v>356900</v>
+        <v>359600</v>
       </c>
       <c r="G62" s="3">
-        <v>238200</v>
+        <v>240100</v>
       </c>
       <c r="H62" s="3">
-        <v>496900</v>
+        <v>500700</v>
       </c>
       <c r="I62" s="3">
-        <v>576300</v>
+        <v>580700</v>
       </c>
       <c r="J62" s="3">
-        <v>486600</v>
+        <v>490300</v>
       </c>
       <c r="K62" s="3">
         <v>534900</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2625200</v>
+        <v>2645400</v>
       </c>
       <c r="E66" s="3">
-        <v>2467200</v>
+        <v>2486100</v>
       </c>
       <c r="F66" s="3">
-        <v>2464500</v>
+        <v>2483300</v>
       </c>
       <c r="G66" s="3">
-        <v>2333800</v>
+        <v>2351700</v>
       </c>
       <c r="H66" s="3">
-        <v>2506100</v>
+        <v>2525400</v>
       </c>
       <c r="I66" s="3">
-        <v>2657300</v>
+        <v>2677700</v>
       </c>
       <c r="J66" s="3">
-        <v>2623600</v>
+        <v>2643700</v>
       </c>
       <c r="K66" s="3">
         <v>2023600</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1345900</v>
+        <v>1356200</v>
       </c>
       <c r="E72" s="3">
-        <v>1101000</v>
+        <v>1109500</v>
       </c>
       <c r="F72" s="3">
-        <v>858700</v>
+        <v>865300</v>
       </c>
       <c r="G72" s="3">
-        <v>647800</v>
+        <v>652700</v>
       </c>
       <c r="H72" s="3">
-        <v>459100</v>
+        <v>462700</v>
       </c>
       <c r="I72" s="3">
-        <v>266300</v>
+        <v>268300</v>
       </c>
       <c r="J72" s="3">
-        <v>129100</v>
+        <v>130000</v>
       </c>
       <c r="K72" s="3">
         <v>318900</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2210100</v>
+        <v>2227100</v>
       </c>
       <c r="E76" s="3">
-        <v>1954900</v>
+        <v>1969900</v>
       </c>
       <c r="F76" s="3">
-        <v>1705500</v>
+        <v>1718600</v>
       </c>
       <c r="G76" s="3">
-        <v>1484300</v>
+        <v>1495700</v>
       </c>
       <c r="H76" s="3">
-        <v>1288500</v>
+        <v>1298300</v>
       </c>
       <c r="I76" s="3">
-        <v>1097100</v>
+        <v>1105500</v>
       </c>
       <c r="J76" s="3">
-        <v>950100</v>
+        <v>957400</v>
       </c>
       <c r="K76" s="3">
         <v>1110700</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>244900</v>
+        <v>246700</v>
       </c>
       <c r="E81" s="3">
-        <v>242300</v>
+        <v>244200</v>
       </c>
       <c r="F81" s="3">
-        <v>211000</v>
+        <v>212600</v>
       </c>
       <c r="G81" s="3">
-        <v>188600</v>
+        <v>190100</v>
       </c>
       <c r="H81" s="3">
-        <v>192900</v>
+        <v>194300</v>
       </c>
       <c r="I81" s="3">
-        <v>137200</v>
+        <v>138300</v>
       </c>
       <c r="J81" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="K81" s="3">
         <v>66200</v>
@@ -5199,13 +5199,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>278200</v>
+        <v>280300</v>
       </c>
       <c r="E89" s="3">
-        <v>203000</v>
+        <v>204500</v>
       </c>
       <c r="F89" s="3">
-        <v>274500</v>
+        <v>276600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
@@ -5471,13 +5471,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-537100</v>
+        <v>-541200</v>
       </c>
       <c r="E94" s="3">
-        <v>-352500</v>
+        <v>-355200</v>
       </c>
       <c r="F94" s="3">
-        <v>-71300</v>
+        <v>-71800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -5805,13 +5805,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>71300</v>
+        <v>71800</v>
       </c>
       <c r="E100" s="3">
-        <v>84300</v>
+        <v>84900</v>
       </c>
       <c r="F100" s="3">
-        <v>28900</v>
+        <v>29100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
@@ -5929,13 +5929,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-187700</v>
+        <v>-189100</v>
       </c>
       <c r="E102" s="3">
-        <v>-65500</v>
+        <v>-66000</v>
       </c>
       <c r="F102" s="3">
-        <v>231800</v>
+        <v>233600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>727700</v>
+        <v>651600</v>
       </c>
       <c r="E8" s="3">
-        <v>631300</v>
+        <v>679700</v>
       </c>
       <c r="F8" s="3">
-        <v>567800</v>
+        <v>589700</v>
       </c>
       <c r="G8" s="3">
-        <v>526500</v>
+        <v>530400</v>
       </c>
       <c r="H8" s="3">
-        <v>584300</v>
+        <v>491800</v>
       </c>
       <c r="I8" s="3">
-        <v>526900</v>
+        <v>545700</v>
       </c>
       <c r="J8" s="3">
+        <v>492200</v>
+      </c>
+      <c r="K8" s="3">
         <v>502100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>369700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>403000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>347400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>306900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>444600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>89900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>62300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>86000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>64400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>52500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>98900</v>
+        <v>86800</v>
       </c>
       <c r="E9" s="3">
-        <v>88000</v>
+        <v>92400</v>
       </c>
       <c r="F9" s="3">
-        <v>75400</v>
+        <v>82200</v>
       </c>
       <c r="G9" s="3">
-        <v>70100</v>
+        <v>70400</v>
       </c>
       <c r="H9" s="3">
-        <v>64500</v>
+        <v>65500</v>
       </c>
       <c r="I9" s="3">
-        <v>63100</v>
+        <v>60200</v>
       </c>
       <c r="J9" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K9" s="3">
         <v>54800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>58400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>628800</v>
+        <v>564800</v>
       </c>
       <c r="E10" s="3">
-        <v>543300</v>
+        <v>587300</v>
       </c>
       <c r="F10" s="3">
-        <v>492400</v>
+        <v>507500</v>
       </c>
       <c r="G10" s="3">
-        <v>456400</v>
+        <v>460000</v>
       </c>
       <c r="H10" s="3">
-        <v>519800</v>
+        <v>426300</v>
       </c>
       <c r="I10" s="3">
-        <v>463900</v>
+        <v>485500</v>
       </c>
       <c r="J10" s="3">
+        <v>433300</v>
+      </c>
+      <c r="K10" s="3">
         <v>447300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>342400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>344600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>272100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>411900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>65500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>71700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>55600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>41100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-1100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,31 +1169,34 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1191,29 +1213,32 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>100</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+      <c r="U15" s="3">
+        <v>100</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>429000</v>
+        <v>433300</v>
       </c>
       <c r="E17" s="3">
-        <v>338900</v>
+        <v>400700</v>
       </c>
       <c r="F17" s="3">
-        <v>322100</v>
+        <v>316600</v>
       </c>
       <c r="G17" s="3">
-        <v>330700</v>
+        <v>300800</v>
       </c>
       <c r="H17" s="3">
-        <v>367900</v>
+        <v>308900</v>
       </c>
       <c r="I17" s="3">
-        <v>370200</v>
+        <v>343700</v>
       </c>
       <c r="J17" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K17" s="3">
         <v>473100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>329300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>256000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>218000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>175600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>139100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>68400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>141500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>55400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>49600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>298800</v>
+        <v>218300</v>
       </c>
       <c r="E18" s="3">
-        <v>292400</v>
+        <v>279100</v>
       </c>
       <c r="F18" s="3">
-        <v>245800</v>
+        <v>273100</v>
       </c>
       <c r="G18" s="3">
-        <v>195800</v>
+        <v>229600</v>
       </c>
       <c r="H18" s="3">
-        <v>216300</v>
+        <v>182900</v>
       </c>
       <c r="I18" s="3">
-        <v>156700</v>
+        <v>202100</v>
       </c>
       <c r="J18" s="3">
+        <v>146400</v>
+      </c>
+      <c r="K18" s="3">
         <v>29100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>147000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>129400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>131300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>305500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-79200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>30600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4600</v>
+        <v>8800</v>
       </c>
       <c r="E20" s="3">
-        <v>15800</v>
+        <v>4300</v>
       </c>
       <c r="F20" s="3">
-        <v>7500</v>
+        <v>14700</v>
       </c>
       <c r="G20" s="3">
-        <v>17400</v>
+        <v>7000</v>
       </c>
       <c r="H20" s="3">
-        <v>13800</v>
+        <v>16300</v>
       </c>
       <c r="I20" s="3">
-        <v>7800</v>
+        <v>12900</v>
       </c>
       <c r="J20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K20" s="3">
         <v>6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>400</v>
       </c>
       <c r="R20" s="3">
         <v>400</v>
       </c>
       <c r="S20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
+        <v>200</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,32 +1517,35 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>306600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>3200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1531,18 +1570,18 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1555,8 +1594,8 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1567,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>303300</v>
+        <v>227200</v>
       </c>
       <c r="E23" s="3">
-        <v>308100</v>
+        <v>283300</v>
       </c>
       <c r="F23" s="3">
-        <v>253300</v>
+        <v>287800</v>
       </c>
       <c r="G23" s="3">
-        <v>213300</v>
+        <v>236600</v>
       </c>
       <c r="H23" s="3">
-        <v>230200</v>
+        <v>199200</v>
       </c>
       <c r="I23" s="3">
-        <v>164500</v>
+        <v>215000</v>
       </c>
       <c r="J23" s="3">
+        <v>153700</v>
+      </c>
+      <c r="K23" s="3">
         <v>36000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>143900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>123400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>140100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>306100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-78800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>31000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56600</v>
+        <v>34800</v>
       </c>
       <c r="E24" s="3">
-        <v>63900</v>
+        <v>52800</v>
       </c>
       <c r="F24" s="3">
-        <v>40700</v>
+        <v>59700</v>
       </c>
       <c r="G24" s="3">
-        <v>23300</v>
+        <v>38000</v>
       </c>
       <c r="H24" s="3">
-        <v>35900</v>
+        <v>21700</v>
       </c>
       <c r="I24" s="3">
-        <v>26200</v>
+        <v>33500</v>
       </c>
       <c r="J24" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K24" s="3">
         <v>7100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-14300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>246700</v>
+        <v>192400</v>
       </c>
       <c r="E26" s="3">
-        <v>244200</v>
+        <v>230500</v>
       </c>
       <c r="F26" s="3">
-        <v>212500</v>
+        <v>228100</v>
       </c>
       <c r="G26" s="3">
-        <v>190000</v>
+        <v>198500</v>
       </c>
       <c r="H26" s="3">
-        <v>194300</v>
+        <v>177500</v>
       </c>
       <c r="I26" s="3">
-        <v>138300</v>
+        <v>181500</v>
       </c>
       <c r="J26" s="3">
+        <v>129200</v>
+      </c>
+      <c r="K26" s="3">
         <v>28900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>114400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>96400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>110000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>241500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-74200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>246700</v>
+        <v>194900</v>
       </c>
       <c r="E27" s="3">
-        <v>244200</v>
+        <v>230500</v>
       </c>
       <c r="F27" s="3">
-        <v>212600</v>
+        <v>228100</v>
       </c>
       <c r="G27" s="3">
-        <v>190100</v>
+        <v>198600</v>
       </c>
       <c r="H27" s="3">
-        <v>194300</v>
+        <v>177500</v>
       </c>
       <c r="I27" s="3">
-        <v>138300</v>
+        <v>181500</v>
       </c>
       <c r="J27" s="3">
+        <v>129200</v>
+      </c>
+      <c r="K27" s="3">
         <v>28900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>114400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>96400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>110000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>241500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-419200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-74200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4600</v>
+        <v>-8800</v>
       </c>
       <c r="E32" s="3">
-        <v>-15800</v>
+        <v>-4300</v>
       </c>
       <c r="F32" s="3">
-        <v>-7500</v>
+        <v>-14700</v>
       </c>
       <c r="G32" s="3">
-        <v>-17400</v>
+        <v>-7000</v>
       </c>
       <c r="H32" s="3">
-        <v>-13800</v>
+        <v>-16300</v>
       </c>
       <c r="I32" s="3">
-        <v>-7800</v>
+        <v>-12900</v>
       </c>
       <c r="J32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-400</v>
       </c>
       <c r="R32" s="3">
         <v>-400</v>
       </c>
       <c r="S32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>246700</v>
+        <v>194900</v>
       </c>
       <c r="E33" s="3">
-        <v>244200</v>
+        <v>230500</v>
       </c>
       <c r="F33" s="3">
-        <v>212600</v>
+        <v>228100</v>
       </c>
       <c r="G33" s="3">
-        <v>190100</v>
+        <v>198600</v>
       </c>
       <c r="H33" s="3">
-        <v>194300</v>
+        <v>177500</v>
       </c>
       <c r="I33" s="3">
-        <v>138300</v>
+        <v>181500</v>
       </c>
       <c r="J33" s="3">
+        <v>129200</v>
+      </c>
+      <c r="K33" s="3">
         <v>28900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>114400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>96400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>110000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>241500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-419200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-74200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>246700</v>
+        <v>194900</v>
       </c>
       <c r="E35" s="3">
-        <v>244200</v>
+        <v>230500</v>
       </c>
       <c r="F35" s="3">
-        <v>212600</v>
+        <v>228100</v>
       </c>
       <c r="G35" s="3">
-        <v>190100</v>
+        <v>198600</v>
       </c>
       <c r="H35" s="3">
-        <v>194300</v>
+        <v>177500</v>
       </c>
       <c r="I35" s="3">
-        <v>138300</v>
+        <v>181500</v>
       </c>
       <c r="J35" s="3">
+        <v>129200</v>
+      </c>
+      <c r="K35" s="3">
         <v>28900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>114400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>96400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>110000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>241500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-419200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-74200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>666400</v>
+        <v>901300</v>
       </c>
       <c r="E41" s="3">
-        <v>819100</v>
+        <v>622500</v>
       </c>
       <c r="F41" s="3">
-        <v>942500</v>
+        <v>765100</v>
       </c>
       <c r="G41" s="3">
-        <v>697000</v>
+        <v>880300</v>
       </c>
       <c r="H41" s="3">
-        <v>760600</v>
+        <v>651100</v>
       </c>
       <c r="I41" s="3">
-        <v>603200</v>
+        <v>710400</v>
       </c>
       <c r="J41" s="3">
+        <v>563400</v>
+      </c>
+      <c r="K41" s="3">
         <v>570500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>324600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>287700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>285100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>195700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>210000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>281100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>65600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,56 +2701,59 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2792300</v>
+        <v>2613900</v>
       </c>
       <c r="E43" s="3">
-        <v>2452700</v>
+        <v>2608300</v>
       </c>
       <c r="F43" s="3">
-        <v>2207300</v>
+        <v>2291000</v>
       </c>
       <c r="G43" s="3">
-        <v>2174800</v>
+        <v>2061800</v>
       </c>
       <c r="H43" s="3">
-        <v>2178300</v>
+        <v>2031400</v>
       </c>
       <c r="I43" s="3">
-        <v>2245300</v>
+        <v>2034700</v>
       </c>
       <c r="J43" s="3">
+        <v>2097200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2153800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2168400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2094600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1663200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1050200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>642500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>177700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>272300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,56 +2831,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>578700</v>
+        <v>575100</v>
       </c>
       <c r="E45" s="3">
-        <v>618900</v>
+        <v>540600</v>
       </c>
       <c r="F45" s="3">
-        <v>579200</v>
+        <v>578100</v>
       </c>
       <c r="G45" s="3">
-        <v>579300</v>
+        <v>541000</v>
       </c>
       <c r="H45" s="3">
-        <v>554200</v>
+        <v>541100</v>
       </c>
       <c r="I45" s="3">
-        <v>649600</v>
+        <v>517600</v>
       </c>
       <c r="J45" s="3">
+        <v>606800</v>
+      </c>
+      <c r="K45" s="3">
         <v>597700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>510200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>498200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>427100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>354900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>213900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>156100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>102600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2798,56 +2896,59 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4037500</v>
+        <v>4090300</v>
       </c>
       <c r="E46" s="3">
-        <v>3890600</v>
+        <v>3771300</v>
       </c>
       <c r="F46" s="3">
-        <v>3729000</v>
+        <v>3634100</v>
       </c>
       <c r="G46" s="3">
-        <v>3451200</v>
+        <v>3483100</v>
       </c>
       <c r="H46" s="3">
-        <v>3493000</v>
+        <v>3223700</v>
       </c>
       <c r="I46" s="3">
-        <v>3498000</v>
+        <v>3262700</v>
       </c>
       <c r="J46" s="3">
+        <v>3267400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3322000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3003100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2880600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2375500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1066300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>615000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>440500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2860,44 +2961,47 @@
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>643200</v>
+        <v>563200</v>
       </c>
       <c r="E47" s="3">
-        <v>393200</v>
+        <v>600800</v>
       </c>
       <c r="F47" s="3">
-        <v>228400</v>
+        <v>367300</v>
       </c>
       <c r="G47" s="3">
-        <v>164200</v>
+        <v>213400</v>
       </c>
       <c r="H47" s="3">
-        <v>136700</v>
+        <v>153400</v>
       </c>
       <c r="I47" s="3">
-        <v>106300</v>
+        <v>127700</v>
       </c>
       <c r="J47" s="3">
+        <v>99300</v>
+      </c>
+      <c r="K47" s="3">
         <v>55100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2910,8 +3014,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2922,43 +3026,46 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8200</v>
+        <v>10000</v>
       </c>
       <c r="E48" s="3">
-        <v>9500</v>
+        <v>7600</v>
       </c>
       <c r="F48" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="G48" s="3">
-        <v>10800</v>
+        <v>8700</v>
       </c>
       <c r="H48" s="3">
-        <v>11900</v>
+        <v>10100</v>
       </c>
       <c r="I48" s="3">
-        <v>13000</v>
+        <v>11100</v>
       </c>
       <c r="J48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K48" s="3">
         <v>11600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>1000</v>
@@ -2969,8 +3076,8 @@
       <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
+      <c r="R48" s="3">
+        <v>1000</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
@@ -2984,43 +3091,46 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
-        <v>800</v>
-      </c>
       <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
       </c>
       <c r="J49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
       </c>
       <c r="L49" s="3">
+        <v>500</v>
+      </c>
+      <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -3031,8 +3141,8 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>100</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3286,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>182900</v>
+        <v>123000</v>
       </c>
       <c r="E52" s="3">
-        <v>162000</v>
+        <v>170800</v>
       </c>
       <c r="F52" s="3">
-        <v>234700</v>
+        <v>151300</v>
       </c>
       <c r="G52" s="3">
-        <v>220600</v>
+        <v>219200</v>
       </c>
       <c r="H52" s="3">
-        <v>181500</v>
+        <v>206100</v>
       </c>
       <c r="I52" s="3">
-        <v>165400</v>
+        <v>169500</v>
       </c>
       <c r="J52" s="3">
+        <v>154500</v>
+      </c>
+      <c r="K52" s="3">
         <v>212000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>86800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4872400</v>
+        <v>4937300</v>
       </c>
       <c r="E54" s="3">
-        <v>4456000</v>
+        <v>4551200</v>
       </c>
       <c r="F54" s="3">
-        <v>4201900</v>
+        <v>4162300</v>
       </c>
       <c r="G54" s="3">
-        <v>3847300</v>
+        <v>3924900</v>
       </c>
       <c r="H54" s="3">
-        <v>3823700</v>
+        <v>3593700</v>
       </c>
       <c r="I54" s="3">
-        <v>3783200</v>
+        <v>3571600</v>
       </c>
       <c r="J54" s="3">
+        <v>3533800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3601200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3134400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2913900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2378000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1601900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1067400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>702900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>509000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,44 +3596,47 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>53000</v>
+        <v>58600</v>
       </c>
       <c r="E58" s="3">
-        <v>53100</v>
+        <v>49500</v>
       </c>
       <c r="F58" s="3">
-        <v>36600</v>
+        <v>49600</v>
       </c>
       <c r="G58" s="3">
-        <v>29500</v>
+        <v>34200</v>
       </c>
       <c r="H58" s="3">
-        <v>29200</v>
+        <v>27500</v>
       </c>
       <c r="I58" s="3">
-        <v>29700</v>
+        <v>27200</v>
       </c>
       <c r="J58" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K58" s="3">
         <v>68600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>239500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>223900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3516,8 +3649,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3528,56 +3661,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2075900</v>
+        <v>2025600</v>
       </c>
       <c r="E59" s="3">
-        <v>2062200</v>
+        <v>1939100</v>
       </c>
       <c r="F59" s="3">
-        <v>2087100</v>
+        <v>1926200</v>
       </c>
       <c r="G59" s="3">
-        <v>2082100</v>
+        <v>1949500</v>
       </c>
       <c r="H59" s="3">
-        <v>1995300</v>
+        <v>1944800</v>
       </c>
       <c r="I59" s="3">
-        <v>2067100</v>
+        <v>1863800</v>
       </c>
       <c r="J59" s="3">
+        <v>1930800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2084600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1457800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1280000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1109500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>754700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>420300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>413100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>452200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3590,56 +3726,59 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2128900</v>
+        <v>2084100</v>
       </c>
       <c r="E60" s="3">
-        <v>2115200</v>
+        <v>1988600</v>
       </c>
       <c r="F60" s="3">
-        <v>2123700</v>
+        <v>1975800</v>
       </c>
       <c r="G60" s="3">
-        <v>2111500</v>
+        <v>1983700</v>
       </c>
       <c r="H60" s="3">
-        <v>2024500</v>
+        <v>1972300</v>
       </c>
       <c r="I60" s="3">
-        <v>2096800</v>
+        <v>1891000</v>
       </c>
       <c r="J60" s="3">
+        <v>1958600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2153300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1488600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1519500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1333300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>754700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>420300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>413100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>452200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,50 +3856,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>516400</v>
+        <v>610800</v>
       </c>
       <c r="E62" s="3">
-        <v>370900</v>
+        <v>482400</v>
       </c>
       <c r="F62" s="3">
-        <v>359600</v>
+        <v>346400</v>
       </c>
       <c r="G62" s="3">
-        <v>240100</v>
+        <v>335900</v>
       </c>
       <c r="H62" s="3">
-        <v>500700</v>
+        <v>224200</v>
       </c>
       <c r="I62" s="3">
-        <v>580700</v>
+        <v>467700</v>
       </c>
       <c r="J62" s="3">
+        <v>542400</v>
+      </c>
+      <c r="K62" s="3">
         <v>490300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>534900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>342300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>121400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2645400</v>
+        <v>2696900</v>
       </c>
       <c r="E66" s="3">
-        <v>2486100</v>
+        <v>2471000</v>
       </c>
       <c r="F66" s="3">
-        <v>2483300</v>
+        <v>2322300</v>
       </c>
       <c r="G66" s="3">
-        <v>2351700</v>
+        <v>2319600</v>
       </c>
       <c r="H66" s="3">
-        <v>2525400</v>
+        <v>2196700</v>
       </c>
       <c r="I66" s="3">
-        <v>2677700</v>
+        <v>2358900</v>
       </c>
       <c r="J66" s="3">
+        <v>2501200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2643700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2023600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1862000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1454700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>809100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>422600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>413100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>452200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4214,11 +4381,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>628600</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1356200</v>
+        <v>1420900</v>
       </c>
       <c r="E72" s="3">
-        <v>1109500</v>
+        <v>1266800</v>
       </c>
       <c r="F72" s="3">
-        <v>865300</v>
+        <v>1036300</v>
       </c>
       <c r="G72" s="3">
-        <v>652700</v>
+        <v>808300</v>
       </c>
       <c r="H72" s="3">
-        <v>462700</v>
+        <v>609700</v>
       </c>
       <c r="I72" s="3">
-        <v>268300</v>
+        <v>432200</v>
       </c>
       <c r="J72" s="3">
+        <v>250600</v>
+      </c>
+      <c r="K72" s="3">
         <v>130000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>318900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>256100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>141600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-339400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-109100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2227100</v>
+        <v>2240400</v>
       </c>
       <c r="E76" s="3">
-        <v>1969900</v>
+        <v>2080300</v>
       </c>
       <c r="F76" s="3">
-        <v>1718600</v>
+        <v>1840000</v>
       </c>
       <c r="G76" s="3">
-        <v>1495700</v>
+        <v>1605300</v>
       </c>
       <c r="H76" s="3">
-        <v>1298300</v>
+        <v>1397100</v>
       </c>
       <c r="I76" s="3">
-        <v>1105500</v>
+        <v>1212800</v>
       </c>
       <c r="J76" s="3">
+        <v>1032600</v>
+      </c>
+      <c r="K76" s="3">
         <v>957400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1110700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1051900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>923300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>792800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>644800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-338900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>56800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>246700</v>
+        <v>194900</v>
       </c>
       <c r="E81" s="3">
-        <v>244200</v>
+        <v>230500</v>
       </c>
       <c r="F81" s="3">
-        <v>212600</v>
+        <v>228100</v>
       </c>
       <c r="G81" s="3">
-        <v>190100</v>
+        <v>198600</v>
       </c>
       <c r="H81" s="3">
-        <v>194300</v>
+        <v>177500</v>
       </c>
       <c r="I81" s="3">
-        <v>138300</v>
+        <v>181500</v>
       </c>
       <c r="J81" s="3">
+        <v>129200</v>
+      </c>
+      <c r="K81" s="3">
         <v>28900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>114400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>96400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>110000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>241500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-419200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-74200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4865,8 +5063,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,22 +5406,25 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>280300</v>
+        <v>142000</v>
       </c>
       <c r="E89" s="3">
-        <v>204500</v>
+        <v>261800</v>
       </c>
       <c r="F89" s="3">
-        <v>276600</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
+        <v>191000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>258300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
@@ -5222,8 +5438,8 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5237,8 +5453,8 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5323,8 +5543,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,22 +5691,25 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-541200</v>
+        <v>10800</v>
       </c>
       <c r="E94" s="3">
-        <v>-355200</v>
+        <v>-505600</v>
       </c>
       <c r="F94" s="3">
-        <v>-71800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+        <v>-331800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-67100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
@@ -5494,8 +5723,8 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5509,8 +5738,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,22 +6041,25 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>71800</v>
+        <v>160000</v>
       </c>
       <c r="E100" s="3">
-        <v>84900</v>
+        <v>67100</v>
       </c>
       <c r="F100" s="3">
-        <v>29100</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
+        <v>79300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>27200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
@@ -5828,8 +6073,8 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5843,8 +6088,8 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
@@ -5861,22 +6106,25 @@
       <c r="V100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="G101" s="3">
+        <v>-200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -5890,8 +6138,8 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5905,8 +6153,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
@@ -5923,22 +6171,25 @@
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-189100</v>
+        <v>312700</v>
       </c>
       <c r="E102" s="3">
-        <v>-66000</v>
+        <v>-176700</v>
       </c>
       <c r="F102" s="3">
-        <v>233600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
+        <v>-61700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>218200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
@@ -5952,8 +6203,8 @@
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5967,8 +6218,8 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
@@ -5983,6 +6234,9 @@
         <v>8</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>651600</v>
+        <v>610900</v>
       </c>
       <c r="E8" s="3">
-        <v>679700</v>
+        <v>630800</v>
       </c>
       <c r="F8" s="3">
-        <v>589700</v>
+        <v>645800</v>
       </c>
       <c r="G8" s="3">
-        <v>530400</v>
+        <v>673600</v>
       </c>
       <c r="H8" s="3">
-        <v>491800</v>
+        <v>584400</v>
       </c>
       <c r="I8" s="3">
+        <v>525600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>487400</v>
+      </c>
+      <c r="K8" s="3">
         <v>545700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>492200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>502100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>369700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>403000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>347400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>306900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>444600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>89900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>62300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>86000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>64400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>52500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>86800</v>
+        <v>81100</v>
       </c>
       <c r="E9" s="3">
-        <v>92400</v>
+        <v>89800</v>
       </c>
       <c r="F9" s="3">
-        <v>82200</v>
+        <v>86000</v>
       </c>
       <c r="G9" s="3">
-        <v>70400</v>
+        <v>91600</v>
       </c>
       <c r="H9" s="3">
-        <v>65500</v>
+        <v>81500</v>
       </c>
       <c r="I9" s="3">
+        <v>69800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K9" s="3">
         <v>60200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>58900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>54800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>27200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>58400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>47400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>34800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>32800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>24500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>32900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>14300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>8800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>11400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>564800</v>
+        <v>529700</v>
       </c>
       <c r="E10" s="3">
-        <v>587300</v>
+        <v>541100</v>
       </c>
       <c r="F10" s="3">
-        <v>507500</v>
+        <v>559700</v>
       </c>
       <c r="G10" s="3">
-        <v>460000</v>
+        <v>582000</v>
       </c>
       <c r="H10" s="3">
-        <v>426300</v>
+        <v>502900</v>
       </c>
       <c r="I10" s="3">
+        <v>455800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>422500</v>
+      </c>
+      <c r="K10" s="3">
         <v>485500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>433300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>447300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>342400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>344600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>272100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>411900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>65500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>29500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>71700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>55600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>41100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-1100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,11 +1244,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1216,29 +1262,35 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>433300</v>
+        <v>463300</v>
       </c>
       <c r="E17" s="3">
-        <v>400700</v>
+        <v>432400</v>
       </c>
       <c r="F17" s="3">
-        <v>316600</v>
+        <v>429400</v>
       </c>
       <c r="G17" s="3">
-        <v>300800</v>
+        <v>397100</v>
       </c>
       <c r="H17" s="3">
-        <v>308900</v>
+        <v>313700</v>
       </c>
       <c r="I17" s="3">
+        <v>298100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K17" s="3">
         <v>343700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>345800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>473100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>329300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>256000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>218000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>175600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>139100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>68400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>141500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>55400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>36100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>49600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>9900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>218300</v>
+        <v>147600</v>
       </c>
       <c r="E18" s="3">
-        <v>279100</v>
+        <v>198500</v>
       </c>
       <c r="F18" s="3">
-        <v>273100</v>
+        <v>216400</v>
       </c>
       <c r="G18" s="3">
-        <v>229600</v>
+        <v>276500</v>
       </c>
       <c r="H18" s="3">
-        <v>182900</v>
+        <v>270600</v>
       </c>
       <c r="I18" s="3">
+        <v>227500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>181300</v>
+      </c>
+      <c r="K18" s="3">
         <v>202100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>146400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>29100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>40400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>147000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>129400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>131300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>305500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>21500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-79200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>30600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>28400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-8200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1480,81 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F20" s="3">
         <v>8800</v>
       </c>
-      <c r="E20" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>14700</v>
-      </c>
       <c r="G20" s="3">
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="H20" s="3">
-        <v>16300</v>
+        <v>14600</v>
       </c>
       <c r="I20" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K20" s="3">
         <v>12900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>6900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>13600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,32 +1594,38 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>306600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>22700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>3200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-8000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1573,21 +1653,21 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1597,11 +1677,11 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1609,138 +1689,156 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>227200</v>
+        <v>168700</v>
       </c>
       <c r="E23" s="3">
-        <v>283300</v>
+        <v>203100</v>
       </c>
       <c r="F23" s="3">
-        <v>287800</v>
+        <v>225100</v>
       </c>
       <c r="G23" s="3">
-        <v>236600</v>
+        <v>280800</v>
       </c>
       <c r="H23" s="3">
-        <v>199200</v>
+        <v>285200</v>
       </c>
       <c r="I23" s="3">
+        <v>234400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>197400</v>
+      </c>
+      <c r="K23" s="3">
         <v>215000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>153700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>36000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>51800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>143900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>123400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>140100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>306100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>22300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-78800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>31000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>28500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-8000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34800</v>
+        <v>26300</v>
       </c>
       <c r="E24" s="3">
-        <v>52800</v>
+        <v>31600</v>
       </c>
       <c r="F24" s="3">
-        <v>59700</v>
+        <v>34500</v>
       </c>
       <c r="G24" s="3">
-        <v>38000</v>
+        <v>52400</v>
       </c>
       <c r="H24" s="3">
-        <v>21700</v>
+        <v>59200</v>
       </c>
       <c r="I24" s="3">
+        <v>37700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K24" s="3">
         <v>33500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>24500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-14300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>29500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>27000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>30100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>64600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>7900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-4600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>7500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>6400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-2100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>192400</v>
+        <v>142400</v>
       </c>
       <c r="E26" s="3">
-        <v>230500</v>
+        <v>171500</v>
       </c>
       <c r="F26" s="3">
-        <v>228100</v>
+        <v>190600</v>
       </c>
       <c r="G26" s="3">
-        <v>198500</v>
+        <v>228400</v>
       </c>
       <c r="H26" s="3">
-        <v>177500</v>
+        <v>226000</v>
       </c>
       <c r="I26" s="3">
+        <v>196700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K26" s="3">
         <v>181500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>129200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>28900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>66200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>114400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>96400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>110000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>241500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>14400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-74200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>23500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>22100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-5900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>194900</v>
+        <v>143100</v>
       </c>
       <c r="E27" s="3">
-        <v>230500</v>
+        <v>172200</v>
       </c>
       <c r="F27" s="3">
-        <v>228100</v>
+        <v>193100</v>
       </c>
       <c r="G27" s="3">
-        <v>198600</v>
+        <v>228400</v>
       </c>
       <c r="H27" s="3">
-        <v>177500</v>
+        <v>226000</v>
       </c>
       <c r="I27" s="3">
+        <v>196800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K27" s="3">
         <v>181500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>129200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>28900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>66200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>114400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>96400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>110000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>241500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-419200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-74200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>23500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>22100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-5900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-14700</v>
-      </c>
       <c r="G32" s="3">
-        <v>-7000</v>
+        <v>-4200</v>
       </c>
       <c r="H32" s="3">
-        <v>-16300</v>
+        <v>-14600</v>
       </c>
       <c r="I32" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-6900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-13600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>194900</v>
+        <v>143100</v>
       </c>
       <c r="E33" s="3">
-        <v>230500</v>
+        <v>172200</v>
       </c>
       <c r="F33" s="3">
-        <v>228100</v>
+        <v>193100</v>
       </c>
       <c r="G33" s="3">
-        <v>198600</v>
+        <v>228400</v>
       </c>
       <c r="H33" s="3">
-        <v>177500</v>
+        <v>226000</v>
       </c>
       <c r="I33" s="3">
+        <v>196800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K33" s="3">
         <v>181500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>129200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>28900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>66200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>114400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>96400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>110000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>241500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-419200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-74200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>23500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>22100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-5900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>194900</v>
+        <v>143100</v>
       </c>
       <c r="E35" s="3">
-        <v>230500</v>
+        <v>172200</v>
       </c>
       <c r="F35" s="3">
-        <v>228100</v>
+        <v>193100</v>
       </c>
       <c r="G35" s="3">
-        <v>198600</v>
+        <v>228400</v>
       </c>
       <c r="H35" s="3">
-        <v>177500</v>
+        <v>226000</v>
       </c>
       <c r="I35" s="3">
+        <v>196800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K35" s="3">
         <v>181500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>129200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>28900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>66200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>114400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>96400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>110000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>241500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-419200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-74200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>23500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>22100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-5900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2746,64 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>901300</v>
+        <v>1017100</v>
       </c>
       <c r="E41" s="3">
-        <v>622500</v>
+        <v>901900</v>
       </c>
       <c r="F41" s="3">
-        <v>765100</v>
+        <v>893200</v>
       </c>
       <c r="G41" s="3">
-        <v>880300</v>
+        <v>616900</v>
       </c>
       <c r="H41" s="3">
-        <v>651100</v>
+        <v>758200</v>
       </c>
       <c r="I41" s="3">
+        <v>872400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>645200</v>
+      </c>
+      <c r="K41" s="3">
         <v>710400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>563400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>570500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>324600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>287700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>285100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>195700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>210000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>281100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>65600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2639,8 +2813,14 @@
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,62 +2884,68 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2613900</v>
+        <v>2776600</v>
       </c>
       <c r="E43" s="3">
-        <v>2608300</v>
+        <v>2806200</v>
       </c>
       <c r="F43" s="3">
-        <v>2291000</v>
+        <v>2590300</v>
       </c>
       <c r="G43" s="3">
-        <v>2061800</v>
+        <v>2584700</v>
       </c>
       <c r="H43" s="3">
-        <v>2031400</v>
+        <v>2270300</v>
       </c>
       <c r="I43" s="3">
+        <v>2043200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2013100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2034700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2097200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2153800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2168400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2094600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1663200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1050200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>642500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>177700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>272300</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,62 +3026,68 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>575100</v>
+        <v>705100</v>
       </c>
       <c r="E45" s="3">
-        <v>540600</v>
+        <v>587600</v>
       </c>
       <c r="F45" s="3">
-        <v>578100</v>
+        <v>569900</v>
       </c>
       <c r="G45" s="3">
-        <v>541000</v>
+        <v>535700</v>
       </c>
       <c r="H45" s="3">
-        <v>541100</v>
+        <v>572900</v>
       </c>
       <c r="I45" s="3">
+        <v>536200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>536300</v>
+      </c>
+      <c r="K45" s="3">
         <v>517600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>606800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>597700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>510200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>498200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>427100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>354900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>213900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>156100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>102600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2899,62 +3097,68 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4090300</v>
+        <v>4498900</v>
       </c>
       <c r="E46" s="3">
-        <v>3771300</v>
+        <v>4295800</v>
       </c>
       <c r="F46" s="3">
-        <v>3634100</v>
+        <v>4053400</v>
       </c>
       <c r="G46" s="3">
-        <v>3483100</v>
+        <v>3737300</v>
       </c>
       <c r="H46" s="3">
-        <v>3223700</v>
+        <v>3601300</v>
       </c>
       <c r="I46" s="3">
+        <v>3451700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3194600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3262700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3267400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3322000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3003100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2880600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2375500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1600800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1066300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>615000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>440500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2964,50 +3168,56 @@
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>563200</v>
+        <v>684600</v>
       </c>
       <c r="E47" s="3">
-        <v>600800</v>
+        <v>642100</v>
       </c>
       <c r="F47" s="3">
-        <v>367300</v>
+        <v>558100</v>
       </c>
       <c r="G47" s="3">
-        <v>213400</v>
+        <v>595400</v>
       </c>
       <c r="H47" s="3">
-        <v>153400</v>
+        <v>364000</v>
       </c>
       <c r="I47" s="3">
+        <v>211500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>152000</v>
+      </c>
+      <c r="K47" s="3">
         <v>127700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>99300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>55100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>12100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3017,11 +3227,11 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3029,49 +3239,55 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J48" s="3">
         <v>10000</v>
       </c>
-      <c r="E48" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>11100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1000</v>
       </c>
       <c r="Q48" s="3">
         <v>1000</v>
@@ -3079,11 +3295,11 @@
       <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
+      <c r="S48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T48" s="3">
+        <v>1000</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
@@ -3094,49 +3310,55 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>150900</v>
+        <v>148000</v>
       </c>
       <c r="E49" s="3">
-        <v>600</v>
+        <v>148900</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>149500</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
       </c>
       <c r="H49" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
       </c>
       <c r="L49" s="3">
+        <v>400</v>
+      </c>
+      <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
+        <v>500</v>
+      </c>
+      <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>300</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -3144,11 +3366,11 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
+        <v>100</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,62 +3523,68 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>123000</v>
+        <v>154800</v>
       </c>
       <c r="E52" s="3">
-        <v>170800</v>
+        <v>134500</v>
       </c>
       <c r="F52" s="3">
-        <v>151300</v>
+        <v>121900</v>
       </c>
       <c r="G52" s="3">
-        <v>219200</v>
+        <v>169300</v>
       </c>
       <c r="H52" s="3">
-        <v>206100</v>
+        <v>149900</v>
       </c>
       <c r="I52" s="3">
+        <v>217200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K52" s="3">
         <v>169500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>154500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>212000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>107400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>25500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>86800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>67400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3665,68 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4937300</v>
+        <v>5500400</v>
       </c>
       <c r="E54" s="3">
-        <v>4551200</v>
+        <v>5235100</v>
       </c>
       <c r="F54" s="3">
-        <v>4162300</v>
+        <v>4892700</v>
       </c>
       <c r="G54" s="3">
-        <v>3924900</v>
+        <v>4510100</v>
       </c>
       <c r="H54" s="3">
-        <v>3593700</v>
+        <v>4124700</v>
       </c>
       <c r="I54" s="3">
+        <v>3889500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3561300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3571600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3533800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3601200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3134400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2913900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2378000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1601900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1067400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>702900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>509000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3484,8 +3736,14 @@
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,50 +3861,56 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>58600</v>
+        <v>89200</v>
       </c>
       <c r="E58" s="3">
-        <v>49500</v>
+        <v>85600</v>
       </c>
       <c r="F58" s="3">
-        <v>49600</v>
+        <v>58100</v>
       </c>
       <c r="G58" s="3">
-        <v>34200</v>
+        <v>49100</v>
       </c>
       <c r="H58" s="3">
-        <v>27500</v>
+        <v>49100</v>
       </c>
       <c r="I58" s="3">
+        <v>33900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K58" s="3">
         <v>27200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>27700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>68600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>30800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>239500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>223900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3652,11 +3920,11 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3664,62 +3932,68 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2025600</v>
+        <v>2367500</v>
       </c>
       <c r="E59" s="3">
-        <v>1939100</v>
+        <v>2051100</v>
       </c>
       <c r="F59" s="3">
-        <v>1926200</v>
+        <v>2007300</v>
       </c>
       <c r="G59" s="3">
-        <v>1949500</v>
+        <v>1921600</v>
       </c>
       <c r="H59" s="3">
-        <v>1944800</v>
+        <v>1908800</v>
       </c>
       <c r="I59" s="3">
+        <v>1931900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1927300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1863800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1930800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2084600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1457800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1280000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1109500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>754700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>420300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>413100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>452200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3729,62 +4003,68 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2084100</v>
+        <v>2456700</v>
       </c>
       <c r="E60" s="3">
-        <v>1988600</v>
+        <v>2136800</v>
       </c>
       <c r="F60" s="3">
-        <v>1975800</v>
+        <v>2065300</v>
       </c>
       <c r="G60" s="3">
-        <v>1983700</v>
+        <v>1970600</v>
       </c>
       <c r="H60" s="3">
-        <v>1972300</v>
+        <v>1957900</v>
       </c>
       <c r="I60" s="3">
+        <v>1965800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1954500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1891000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1958600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2153300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1488600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1519500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1333300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>754700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>420300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>413100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>452200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3794,8 +4074,14 @@
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,56 +4145,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>610800</v>
+        <v>558100</v>
       </c>
       <c r="E62" s="3">
-        <v>482400</v>
+        <v>735600</v>
       </c>
       <c r="F62" s="3">
-        <v>346400</v>
+        <v>605300</v>
       </c>
       <c r="G62" s="3">
-        <v>335900</v>
+        <v>478000</v>
       </c>
       <c r="H62" s="3">
-        <v>224200</v>
+        <v>343300</v>
       </c>
       <c r="I62" s="3">
+        <v>332900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K62" s="3">
         <v>467700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>542400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>490300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>534900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>342300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>121400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>54400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4429,68 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2696900</v>
+        <v>3015200</v>
       </c>
       <c r="E66" s="3">
-        <v>2471000</v>
+        <v>2873400</v>
       </c>
       <c r="F66" s="3">
-        <v>2322300</v>
+        <v>2672500</v>
       </c>
       <c r="G66" s="3">
-        <v>2319600</v>
+        <v>2448700</v>
       </c>
       <c r="H66" s="3">
-        <v>2196700</v>
+        <v>2301300</v>
       </c>
       <c r="I66" s="3">
+        <v>2298700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2176800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2358900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2501200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2643700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2023600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1862000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1454700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>809100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>422600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>413100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>452200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4184,8 +4500,14 @@
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4384,14 +4720,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>628600</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4811,68 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1420900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1266800</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>1036300</v>
+        <v>1408100</v>
       </c>
       <c r="G72" s="3">
-        <v>808300</v>
+        <v>1255400</v>
       </c>
       <c r="H72" s="3">
-        <v>609700</v>
+        <v>1027000</v>
       </c>
       <c r="I72" s="3">
+        <v>801000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>604200</v>
+      </c>
+      <c r="K72" s="3">
         <v>432200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>250600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>130000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>318900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>256100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>141600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>44300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-339400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-109100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4534,8 +4882,14 @@
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +5095,68 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2240400</v>
+        <v>2485200</v>
       </c>
       <c r="E76" s="3">
-        <v>2080300</v>
+        <v>2361700</v>
       </c>
       <c r="F76" s="3">
-        <v>1840000</v>
+        <v>2220200</v>
       </c>
       <c r="G76" s="3">
-        <v>1605300</v>
+        <v>2061500</v>
       </c>
       <c r="H76" s="3">
-        <v>1397100</v>
+        <v>1823400</v>
       </c>
       <c r="I76" s="3">
+        <v>1590800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1384400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1212800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1032600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>957400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1110700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1051900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>923300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>792800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>644800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-338900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>56800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4794,8 +5166,14 @@
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>194900</v>
+        <v>143100</v>
       </c>
       <c r="E81" s="3">
-        <v>230500</v>
+        <v>172200</v>
       </c>
       <c r="F81" s="3">
-        <v>228100</v>
+        <v>193100</v>
       </c>
       <c r="G81" s="3">
-        <v>198600</v>
+        <v>228400</v>
       </c>
       <c r="H81" s="3">
-        <v>177500</v>
+        <v>226000</v>
       </c>
       <c r="I81" s="3">
+        <v>196800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K81" s="3">
         <v>181500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>129200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>28900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>66200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>114400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>96400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>110000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>241500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-419200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-74200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>23500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>22100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-5900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5066,11 +5464,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,28 +5837,34 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>142000</v>
+        <v>163300</v>
       </c>
       <c r="E89" s="3">
-        <v>261800</v>
+        <v>207300</v>
       </c>
       <c r="F89" s="3">
-        <v>191000</v>
+        <v>140700</v>
       </c>
       <c r="G89" s="3">
-        <v>258300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
+        <v>259400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>189300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>256000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -5441,11 +5875,11 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5456,11 +5890,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>8</v>
@@ -5474,8 +5908,14 @@
       <c r="W89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5546,11 +5988,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,28 +6148,34 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>10800</v>
+        <v>-36900</v>
       </c>
       <c r="E94" s="3">
-        <v>-505600</v>
+        <v>-356600</v>
       </c>
       <c r="F94" s="3">
-        <v>-331800</v>
+        <v>10700</v>
       </c>
       <c r="G94" s="3">
-        <v>-67100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+        <v>-501000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-328800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-66500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -5726,11 +6186,11 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5741,11 +6201,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,28 +6530,34 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>160000</v>
+        <v>153600</v>
       </c>
       <c r="E100" s="3">
-        <v>67100</v>
+        <v>157300</v>
       </c>
       <c r="F100" s="3">
-        <v>79300</v>
+        <v>158500</v>
       </c>
       <c r="G100" s="3">
-        <v>27200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+        <v>66500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>78600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>26900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -6076,11 +6568,11 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6091,11 +6583,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>8</v>
@@ -6109,29 +6601,35 @@
       <c r="W100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6141,11 +6639,11 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6156,11 +6654,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
@@ -6174,28 +6672,34 @@
       <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>312700</v>
+        <v>280200</v>
       </c>
       <c r="E102" s="3">
-        <v>-176700</v>
+        <v>7500</v>
       </c>
       <c r="F102" s="3">
-        <v>-61700</v>
+        <v>309900</v>
       </c>
       <c r="G102" s="3">
-        <v>218200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
+        <v>-175100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>216200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
@@ -6206,11 +6710,11 @@
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -6221,11 +6725,11 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>8</v>
@@ -6237,6 +6741,12 @@
         <v>8</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -771,25 +771,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>610900</v>
+        <v>582300</v>
       </c>
       <c r="E8" s="3">
-        <v>630800</v>
+        <v>601300</v>
       </c>
       <c r="F8" s="3">
-        <v>645800</v>
+        <v>615600</v>
       </c>
       <c r="G8" s="3">
-        <v>673600</v>
+        <v>642100</v>
       </c>
       <c r="H8" s="3">
-        <v>584400</v>
+        <v>557000</v>
       </c>
       <c r="I8" s="3">
-        <v>525600</v>
+        <v>501000</v>
       </c>
       <c r="J8" s="3">
-        <v>487400</v>
+        <v>464600</v>
       </c>
       <c r="K8" s="3">
         <v>545700</v>
@@ -842,25 +842,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>81100</v>
+        <v>77300</v>
       </c>
       <c r="E9" s="3">
-        <v>89800</v>
+        <v>85600</v>
       </c>
       <c r="F9" s="3">
-        <v>86000</v>
+        <v>82000</v>
       </c>
       <c r="G9" s="3">
-        <v>91600</v>
+        <v>87300</v>
       </c>
       <c r="H9" s="3">
-        <v>81500</v>
+        <v>77700</v>
       </c>
       <c r="I9" s="3">
-        <v>69800</v>
+        <v>66500</v>
       </c>
       <c r="J9" s="3">
-        <v>64900</v>
+        <v>61900</v>
       </c>
       <c r="K9" s="3">
         <v>60200</v>
@@ -913,25 +913,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>529700</v>
+        <v>505000</v>
       </c>
       <c r="E10" s="3">
-        <v>541100</v>
+        <v>515700</v>
       </c>
       <c r="F10" s="3">
-        <v>559700</v>
+        <v>533500</v>
       </c>
       <c r="G10" s="3">
-        <v>582000</v>
+        <v>554800</v>
       </c>
       <c r="H10" s="3">
-        <v>502900</v>
+        <v>479400</v>
       </c>
       <c r="I10" s="3">
-        <v>455800</v>
+        <v>434500</v>
       </c>
       <c r="J10" s="3">
-        <v>422500</v>
+        <v>402700</v>
       </c>
       <c r="K10" s="3">
         <v>485500</v>
@@ -1319,25 +1319,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>463300</v>
+        <v>441600</v>
       </c>
       <c r="E17" s="3">
-        <v>432400</v>
+        <v>412100</v>
       </c>
       <c r="F17" s="3">
-        <v>429400</v>
+        <v>409300</v>
       </c>
       <c r="G17" s="3">
-        <v>397100</v>
+        <v>378500</v>
       </c>
       <c r="H17" s="3">
-        <v>313700</v>
+        <v>299100</v>
       </c>
       <c r="I17" s="3">
-        <v>298100</v>
+        <v>284200</v>
       </c>
       <c r="J17" s="3">
-        <v>306100</v>
+        <v>291800</v>
       </c>
       <c r="K17" s="3">
         <v>343700</v>
@@ -1390,25 +1390,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>147600</v>
+        <v>140700</v>
       </c>
       <c r="E18" s="3">
-        <v>198500</v>
+        <v>189200</v>
       </c>
       <c r="F18" s="3">
-        <v>216400</v>
+        <v>206200</v>
       </c>
       <c r="G18" s="3">
-        <v>276500</v>
+        <v>263600</v>
       </c>
       <c r="H18" s="3">
-        <v>270600</v>
+        <v>258000</v>
       </c>
       <c r="I18" s="3">
-        <v>227500</v>
+        <v>216800</v>
       </c>
       <c r="J18" s="3">
-        <v>181300</v>
+        <v>172800</v>
       </c>
       <c r="K18" s="3">
         <v>202100</v>
@@ -1488,25 +1488,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="E20" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="G20" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="I20" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="J20" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="K20" s="3">
         <v>12900</v>
@@ -1701,25 +1701,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>168700</v>
+        <v>160800</v>
       </c>
       <c r="E23" s="3">
-        <v>203100</v>
+        <v>193600</v>
       </c>
       <c r="F23" s="3">
-        <v>225100</v>
+        <v>214600</v>
       </c>
       <c r="G23" s="3">
-        <v>280800</v>
+        <v>267600</v>
       </c>
       <c r="H23" s="3">
-        <v>285200</v>
+        <v>271900</v>
       </c>
       <c r="I23" s="3">
-        <v>234400</v>
+        <v>223500</v>
       </c>
       <c r="J23" s="3">
-        <v>197400</v>
+        <v>188200</v>
       </c>
       <c r="K23" s="3">
         <v>215000</v>
@@ -1772,25 +1772,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26300</v>
+        <v>25100</v>
       </c>
       <c r="E24" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="F24" s="3">
-        <v>34500</v>
+        <v>32900</v>
       </c>
       <c r="G24" s="3">
-        <v>52400</v>
+        <v>49900</v>
       </c>
       <c r="H24" s="3">
-        <v>59200</v>
+        <v>56400</v>
       </c>
       <c r="I24" s="3">
-        <v>37700</v>
+        <v>35900</v>
       </c>
       <c r="J24" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="K24" s="3">
         <v>33500</v>
@@ -1914,25 +1914,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>142400</v>
+        <v>135700</v>
       </c>
       <c r="E26" s="3">
-        <v>171500</v>
+        <v>163500</v>
       </c>
       <c r="F26" s="3">
-        <v>190600</v>
+        <v>181700</v>
       </c>
       <c r="G26" s="3">
-        <v>228400</v>
+        <v>217700</v>
       </c>
       <c r="H26" s="3">
-        <v>226000</v>
+        <v>215500</v>
       </c>
       <c r="I26" s="3">
-        <v>196700</v>
+        <v>187500</v>
       </c>
       <c r="J26" s="3">
-        <v>175900</v>
+        <v>167600</v>
       </c>
       <c r="K26" s="3">
         <v>181500</v>
@@ -1985,25 +1985,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>143100</v>
+        <v>136400</v>
       </c>
       <c r="E27" s="3">
-        <v>172200</v>
+        <v>164200</v>
       </c>
       <c r="F27" s="3">
-        <v>193100</v>
+        <v>184100</v>
       </c>
       <c r="G27" s="3">
-        <v>228400</v>
+        <v>217700</v>
       </c>
       <c r="H27" s="3">
-        <v>226000</v>
+        <v>215400</v>
       </c>
       <c r="I27" s="3">
-        <v>196800</v>
+        <v>187600</v>
       </c>
       <c r="J27" s="3">
-        <v>175900</v>
+        <v>167700</v>
       </c>
       <c r="K27" s="3">
         <v>181500</v>
@@ -2340,25 +2340,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21100</v>
+        <v>-20100</v>
       </c>
       <c r="E32" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
-        <v>-8800</v>
+        <v>-8300</v>
       </c>
       <c r="G32" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="H32" s="3">
-        <v>-14600</v>
+        <v>-13900</v>
       </c>
       <c r="I32" s="3">
-        <v>-6900</v>
+        <v>-6600</v>
       </c>
       <c r="J32" s="3">
-        <v>-16100</v>
+        <v>-15400</v>
       </c>
       <c r="K32" s="3">
         <v>-12900</v>
@@ -2411,25 +2411,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>143100</v>
+        <v>136400</v>
       </c>
       <c r="E33" s="3">
-        <v>172200</v>
+        <v>164200</v>
       </c>
       <c r="F33" s="3">
-        <v>193100</v>
+        <v>184100</v>
       </c>
       <c r="G33" s="3">
-        <v>228400</v>
+        <v>217700</v>
       </c>
       <c r="H33" s="3">
-        <v>226000</v>
+        <v>215400</v>
       </c>
       <c r="I33" s="3">
-        <v>196800</v>
+        <v>187600</v>
       </c>
       <c r="J33" s="3">
-        <v>175900</v>
+        <v>167700</v>
       </c>
       <c r="K33" s="3">
         <v>181500</v>
@@ -2553,25 +2553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>143100</v>
+        <v>136400</v>
       </c>
       <c r="E35" s="3">
-        <v>172200</v>
+        <v>164200</v>
       </c>
       <c r="F35" s="3">
-        <v>193100</v>
+        <v>184100</v>
       </c>
       <c r="G35" s="3">
-        <v>228400</v>
+        <v>217700</v>
       </c>
       <c r="H35" s="3">
-        <v>226000</v>
+        <v>215400</v>
       </c>
       <c r="I35" s="3">
-        <v>196800</v>
+        <v>187600</v>
       </c>
       <c r="J35" s="3">
-        <v>175900</v>
+        <v>167700</v>
       </c>
       <c r="K35" s="3">
         <v>181500</v>
@@ -2754,25 +2754,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1017100</v>
+        <v>969600</v>
       </c>
       <c r="E41" s="3">
-        <v>901900</v>
+        <v>859800</v>
       </c>
       <c r="F41" s="3">
-        <v>893200</v>
+        <v>851400</v>
       </c>
       <c r="G41" s="3">
-        <v>616900</v>
+        <v>588000</v>
       </c>
       <c r="H41" s="3">
-        <v>758200</v>
+        <v>722700</v>
       </c>
       <c r="I41" s="3">
-        <v>872400</v>
+        <v>831600</v>
       </c>
       <c r="J41" s="3">
-        <v>645200</v>
+        <v>615000</v>
       </c>
       <c r="K41" s="3">
         <v>710400</v>
@@ -2896,25 +2896,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2776600</v>
+        <v>2646800</v>
       </c>
       <c r="E43" s="3">
-        <v>2806200</v>
+        <v>2674900</v>
       </c>
       <c r="F43" s="3">
-        <v>2590300</v>
+        <v>2469200</v>
       </c>
       <c r="G43" s="3">
-        <v>2584700</v>
+        <v>2463800</v>
       </c>
       <c r="H43" s="3">
-        <v>2270300</v>
+        <v>2164100</v>
       </c>
       <c r="I43" s="3">
-        <v>2043200</v>
+        <v>1947600</v>
       </c>
       <c r="J43" s="3">
-        <v>2013100</v>
+        <v>1918900</v>
       </c>
       <c r="K43" s="3">
         <v>2034700</v>
@@ -3038,25 +3038,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>705100</v>
+        <v>672100</v>
       </c>
       <c r="E45" s="3">
-        <v>587600</v>
+        <v>560100</v>
       </c>
       <c r="F45" s="3">
-        <v>569900</v>
+        <v>543200</v>
       </c>
       <c r="G45" s="3">
-        <v>535700</v>
+        <v>510700</v>
       </c>
       <c r="H45" s="3">
-        <v>572900</v>
+        <v>546100</v>
       </c>
       <c r="I45" s="3">
-        <v>536200</v>
+        <v>511100</v>
       </c>
       <c r="J45" s="3">
-        <v>536300</v>
+        <v>511200</v>
       </c>
       <c r="K45" s="3">
         <v>517600</v>
@@ -3109,25 +3109,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4498900</v>
+        <v>4288500</v>
       </c>
       <c r="E46" s="3">
-        <v>4295800</v>
+        <v>4094800</v>
       </c>
       <c r="F46" s="3">
-        <v>4053400</v>
+        <v>3863800</v>
       </c>
       <c r="G46" s="3">
-        <v>3737300</v>
+        <v>3562500</v>
       </c>
       <c r="H46" s="3">
-        <v>3601300</v>
+        <v>3432900</v>
       </c>
       <c r="I46" s="3">
-        <v>3451700</v>
+        <v>3290300</v>
       </c>
       <c r="J46" s="3">
-        <v>3194600</v>
+        <v>3045100</v>
       </c>
       <c r="K46" s="3">
         <v>3262700</v>
@@ -3180,25 +3180,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>684600</v>
+        <v>652600</v>
       </c>
       <c r="E47" s="3">
-        <v>642100</v>
+        <v>612100</v>
       </c>
       <c r="F47" s="3">
-        <v>558100</v>
+        <v>532000</v>
       </c>
       <c r="G47" s="3">
-        <v>595400</v>
+        <v>567500</v>
       </c>
       <c r="H47" s="3">
-        <v>364000</v>
+        <v>347000</v>
       </c>
       <c r="I47" s="3">
-        <v>211500</v>
+        <v>201600</v>
       </c>
       <c r="J47" s="3">
-        <v>152000</v>
+        <v>144900</v>
       </c>
       <c r="K47" s="3">
         <v>127700</v>
@@ -3251,25 +3251,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="E48" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="F48" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="G48" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="H48" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="I48" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="J48" s="3">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="K48" s="3">
         <v>11100</v>
@@ -3322,13 +3322,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>148000</v>
+        <v>141100</v>
       </c>
       <c r="E49" s="3">
-        <v>148900</v>
+        <v>142000</v>
       </c>
       <c r="F49" s="3">
-        <v>149500</v>
+        <v>142500</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
@@ -3535,25 +3535,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>154800</v>
+        <v>147500</v>
       </c>
       <c r="E52" s="3">
-        <v>134500</v>
+        <v>128200</v>
       </c>
       <c r="F52" s="3">
-        <v>121900</v>
+        <v>116200</v>
       </c>
       <c r="G52" s="3">
-        <v>169300</v>
+        <v>161400</v>
       </c>
       <c r="H52" s="3">
-        <v>149900</v>
+        <v>142900</v>
       </c>
       <c r="I52" s="3">
-        <v>217200</v>
+        <v>207100</v>
       </c>
       <c r="J52" s="3">
-        <v>204200</v>
+        <v>194700</v>
       </c>
       <c r="K52" s="3">
         <v>169500</v>
@@ -3677,25 +3677,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5500400</v>
+        <v>5243100</v>
       </c>
       <c r="E54" s="3">
-        <v>5235100</v>
+        <v>4990300</v>
       </c>
       <c r="F54" s="3">
-        <v>4892700</v>
+        <v>4663900</v>
       </c>
       <c r="G54" s="3">
-        <v>4510100</v>
+        <v>4299200</v>
       </c>
       <c r="H54" s="3">
-        <v>4124700</v>
+        <v>3931800</v>
       </c>
       <c r="I54" s="3">
-        <v>3889500</v>
+        <v>3707600</v>
       </c>
       <c r="J54" s="3">
-        <v>3561300</v>
+        <v>3394700</v>
       </c>
       <c r="K54" s="3">
         <v>3571600</v>
@@ -3873,25 +3873,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>89200</v>
+        <v>85100</v>
       </c>
       <c r="E58" s="3">
-        <v>85600</v>
+        <v>81600</v>
       </c>
       <c r="F58" s="3">
-        <v>58100</v>
+        <v>55300</v>
       </c>
       <c r="G58" s="3">
-        <v>49100</v>
+        <v>46800</v>
       </c>
       <c r="H58" s="3">
-        <v>49100</v>
+        <v>46800</v>
       </c>
       <c r="I58" s="3">
-        <v>33900</v>
+        <v>32300</v>
       </c>
       <c r="J58" s="3">
-        <v>27300</v>
+        <v>26000</v>
       </c>
       <c r="K58" s="3">
         <v>27200</v>
@@ -3944,25 +3944,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2367500</v>
+        <v>2256800</v>
       </c>
       <c r="E59" s="3">
-        <v>2051100</v>
+        <v>1955200</v>
       </c>
       <c r="F59" s="3">
-        <v>2007300</v>
+        <v>1913400</v>
       </c>
       <c r="G59" s="3">
-        <v>1921600</v>
+        <v>1831700</v>
       </c>
       <c r="H59" s="3">
-        <v>1908800</v>
+        <v>1819500</v>
       </c>
       <c r="I59" s="3">
-        <v>1931900</v>
+        <v>1841500</v>
       </c>
       <c r="J59" s="3">
-        <v>1927300</v>
+        <v>1837100</v>
       </c>
       <c r="K59" s="3">
         <v>1863800</v>
@@ -4015,25 +4015,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2456700</v>
+        <v>2341800</v>
       </c>
       <c r="E60" s="3">
-        <v>2136800</v>
+        <v>2036800</v>
       </c>
       <c r="F60" s="3">
-        <v>2065300</v>
+        <v>1968700</v>
       </c>
       <c r="G60" s="3">
-        <v>1970600</v>
+        <v>1878500</v>
       </c>
       <c r="H60" s="3">
-        <v>1957900</v>
+        <v>1866400</v>
       </c>
       <c r="I60" s="3">
-        <v>1965800</v>
+        <v>1873800</v>
       </c>
       <c r="J60" s="3">
-        <v>1954500</v>
+        <v>1863100</v>
       </c>
       <c r="K60" s="3">
         <v>1891000</v>
@@ -4157,25 +4157,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>558100</v>
+        <v>532000</v>
       </c>
       <c r="E62" s="3">
-        <v>735600</v>
+        <v>701200</v>
       </c>
       <c r="F62" s="3">
-        <v>605300</v>
+        <v>577000</v>
       </c>
       <c r="G62" s="3">
-        <v>478000</v>
+        <v>455700</v>
       </c>
       <c r="H62" s="3">
-        <v>343300</v>
+        <v>327200</v>
       </c>
       <c r="I62" s="3">
-        <v>332900</v>
+        <v>317300</v>
       </c>
       <c r="J62" s="3">
-        <v>222200</v>
+        <v>211800</v>
       </c>
       <c r="K62" s="3">
         <v>467700</v>
@@ -4441,25 +4441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3015200</v>
+        <v>2874200</v>
       </c>
       <c r="E66" s="3">
-        <v>2873400</v>
+        <v>2739100</v>
       </c>
       <c r="F66" s="3">
-        <v>2672500</v>
+        <v>2547500</v>
       </c>
       <c r="G66" s="3">
-        <v>2448700</v>
+        <v>2334100</v>
       </c>
       <c r="H66" s="3">
-        <v>2301300</v>
+        <v>2193700</v>
       </c>
       <c r="I66" s="3">
-        <v>2298700</v>
+        <v>2191200</v>
       </c>
       <c r="J66" s="3">
-        <v>2176800</v>
+        <v>2075000</v>
       </c>
       <c r="K66" s="3">
         <v>2358900</v>
@@ -4829,19 +4829,19 @@
         <v>8</v>
       </c>
       <c r="F72" s="3">
-        <v>1408100</v>
+        <v>1342200</v>
       </c>
       <c r="G72" s="3">
-        <v>1255400</v>
+        <v>1196700</v>
       </c>
       <c r="H72" s="3">
-        <v>1027000</v>
+        <v>978900</v>
       </c>
       <c r="I72" s="3">
-        <v>801000</v>
+        <v>763500</v>
       </c>
       <c r="J72" s="3">
-        <v>604200</v>
+        <v>575900</v>
       </c>
       <c r="K72" s="3">
         <v>432200</v>
@@ -5107,25 +5107,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2485200</v>
+        <v>2368900</v>
       </c>
       <c r="E76" s="3">
-        <v>2361700</v>
+        <v>2251200</v>
       </c>
       <c r="F76" s="3">
-        <v>2220200</v>
+        <v>2116400</v>
       </c>
       <c r="G76" s="3">
-        <v>2061500</v>
+        <v>1965100</v>
       </c>
       <c r="H76" s="3">
-        <v>1823400</v>
+        <v>1738100</v>
       </c>
       <c r="I76" s="3">
-        <v>1590800</v>
+        <v>1516400</v>
       </c>
       <c r="J76" s="3">
-        <v>1384400</v>
+        <v>1319700</v>
       </c>
       <c r="K76" s="3">
         <v>1212800</v>
@@ -5325,25 +5325,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>143100</v>
+        <v>136400</v>
       </c>
       <c r="E81" s="3">
-        <v>172200</v>
+        <v>164200</v>
       </c>
       <c r="F81" s="3">
-        <v>193100</v>
+        <v>184100</v>
       </c>
       <c r="G81" s="3">
-        <v>228400</v>
+        <v>217700</v>
       </c>
       <c r="H81" s="3">
-        <v>226000</v>
+        <v>215400</v>
       </c>
       <c r="I81" s="3">
-        <v>196800</v>
+        <v>187600</v>
       </c>
       <c r="J81" s="3">
-        <v>175900</v>
+        <v>167700</v>
       </c>
       <c r="K81" s="3">
         <v>181500</v>
@@ -5849,22 +5849,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>163300</v>
+        <v>155700</v>
       </c>
       <c r="E89" s="3">
-        <v>207300</v>
+        <v>197600</v>
       </c>
       <c r="F89" s="3">
-        <v>140700</v>
+        <v>134100</v>
       </c>
       <c r="G89" s="3">
-        <v>259400</v>
+        <v>247300</v>
       </c>
       <c r="H89" s="3">
-        <v>189300</v>
+        <v>180400</v>
       </c>
       <c r="I89" s="3">
-        <v>256000</v>
+        <v>244000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -6160,22 +6160,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36900</v>
+        <v>-35200</v>
       </c>
       <c r="E94" s="3">
-        <v>-356600</v>
+        <v>-339900</v>
       </c>
       <c r="F94" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="G94" s="3">
-        <v>-501000</v>
+        <v>-477600</v>
       </c>
       <c r="H94" s="3">
-        <v>-328800</v>
+        <v>-313400</v>
       </c>
       <c r="I94" s="3">
-        <v>-66500</v>
+        <v>-63400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -6542,22 +6542,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>153600</v>
+        <v>146500</v>
       </c>
       <c r="E100" s="3">
-        <v>157300</v>
+        <v>149900</v>
       </c>
       <c r="F100" s="3">
-        <v>158500</v>
+        <v>151100</v>
       </c>
       <c r="G100" s="3">
-        <v>66500</v>
+        <v>63400</v>
       </c>
       <c r="H100" s="3">
-        <v>78600</v>
+        <v>74900</v>
       </c>
       <c r="I100" s="3">
-        <v>26900</v>
+        <v>25700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -6616,7 +6616,7 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
@@ -6684,22 +6684,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>280200</v>
+        <v>267100</v>
       </c>
       <c r="E102" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="F102" s="3">
-        <v>309900</v>
+        <v>295400</v>
       </c>
       <c r="G102" s="3">
-        <v>-175100</v>
+        <v>-166900</v>
       </c>
       <c r="H102" s="3">
-        <v>-61100</v>
+        <v>-58200</v>
       </c>
       <c r="I102" s="3">
-        <v>216200</v>
+        <v>206100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,346 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>582300</v>
+        <v>561100</v>
       </c>
       <c r="E8" s="3">
-        <v>601300</v>
+        <v>595200</v>
       </c>
       <c r="F8" s="3">
-        <v>615600</v>
+        <v>600800</v>
       </c>
       <c r="G8" s="3">
-        <v>642100</v>
+        <v>620400</v>
       </c>
       <c r="H8" s="3">
-        <v>557000</v>
+        <v>635100</v>
       </c>
       <c r="I8" s="3">
+        <v>662500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>574700</v>
+      </c>
+      <c r="K8" s="3">
         <v>501000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>464600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>545700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>492200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>502100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>369700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>403000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>347400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>306900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>444600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>89900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>62300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>86000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>64400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>52500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>77300</v>
+        <v>84100</v>
       </c>
       <c r="E9" s="3">
-        <v>85600</v>
+        <v>88700</v>
       </c>
       <c r="F9" s="3">
-        <v>82000</v>
+        <v>79800</v>
       </c>
       <c r="G9" s="3">
-        <v>87300</v>
+        <v>88300</v>
       </c>
       <c r="H9" s="3">
-        <v>77700</v>
+        <v>84600</v>
       </c>
       <c r="I9" s="3">
+        <v>90100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K9" s="3">
         <v>66500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>61900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>60200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>58900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>54800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>27200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>58400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>47400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>34800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>32800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>24500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>32900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>14300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>8800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>11400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>505000</v>
+        <v>477000</v>
       </c>
       <c r="E10" s="3">
-        <v>515700</v>
+        <v>506500</v>
       </c>
       <c r="F10" s="3">
-        <v>533500</v>
+        <v>521000</v>
       </c>
       <c r="G10" s="3">
-        <v>554800</v>
+        <v>532100</v>
       </c>
       <c r="H10" s="3">
-        <v>479400</v>
+        <v>550500</v>
       </c>
       <c r="I10" s="3">
+        <v>572400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>494600</v>
+      </c>
+      <c r="K10" s="3">
         <v>434500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>402700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>485500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>433300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>447300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>342400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>344600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>272100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>411900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>65500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>29500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>71700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>55600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>41100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,11 +1295,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1268,29 +1313,35 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>100</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>441600</v>
+        <v>425500</v>
       </c>
       <c r="E17" s="3">
-        <v>412100</v>
+        <v>428800</v>
       </c>
       <c r="F17" s="3">
-        <v>409300</v>
+        <v>455600</v>
       </c>
       <c r="G17" s="3">
-        <v>378500</v>
+        <v>425200</v>
       </c>
       <c r="H17" s="3">
-        <v>299100</v>
+        <v>422300</v>
       </c>
       <c r="I17" s="3">
+        <v>390500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>308600</v>
+      </c>
+      <c r="K17" s="3">
         <v>284200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>291800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>343700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>345800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>473100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>329300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>256000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>218000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>175600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>139100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>68400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>141500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>55400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>36100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>49600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>9900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>140700</v>
+        <v>135600</v>
       </c>
       <c r="E18" s="3">
-        <v>189200</v>
+        <v>166300</v>
       </c>
       <c r="F18" s="3">
-        <v>206200</v>
+        <v>145200</v>
       </c>
       <c r="G18" s="3">
-        <v>263600</v>
+        <v>195200</v>
       </c>
       <c r="H18" s="3">
-        <v>258000</v>
+        <v>212800</v>
       </c>
       <c r="I18" s="3">
+        <v>272000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>266100</v>
+      </c>
+      <c r="K18" s="3">
         <v>216800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>172800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>202100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>146400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>29100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>40400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>147000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>129400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>131300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>305500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>21500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-79200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>30600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>28400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1547,87 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20100</v>
+        <v>11600</v>
       </c>
       <c r="E20" s="3">
-        <v>4400</v>
+        <v>1900</v>
       </c>
       <c r="F20" s="3">
-        <v>8300</v>
+        <v>20700</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="H20" s="3">
-        <v>13900</v>
+        <v>8600</v>
       </c>
       <c r="I20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K20" s="3">
         <v>6600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>15400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>6900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>13600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1600,32 +1673,38 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>306600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>22700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>3200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1659,21 +1738,21 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1683,11 +1762,11 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1695,150 +1774,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>160800</v>
+        <v>147200</v>
       </c>
       <c r="E23" s="3">
-        <v>193600</v>
+        <v>168300</v>
       </c>
       <c r="F23" s="3">
-        <v>214600</v>
+        <v>165900</v>
       </c>
       <c r="G23" s="3">
-        <v>267600</v>
+        <v>199700</v>
       </c>
       <c r="H23" s="3">
-        <v>271900</v>
+        <v>221400</v>
       </c>
       <c r="I23" s="3">
+        <v>276100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>280500</v>
+      </c>
+      <c r="K23" s="3">
         <v>223500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>188200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>215000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>153700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>36000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>51800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>143900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>123400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>140100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>306100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>22300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-78800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>31000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>28500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25100</v>
+        <v>22500</v>
       </c>
       <c r="E24" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>25900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>31100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>33900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>51500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>35900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>20500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>33500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>24500</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>29500</v>
+      </c>
+      <c r="R24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="S24" s="3">
         <v>30100</v>
       </c>
-      <c r="F24" s="3">
-        <v>32900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>49900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>56400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>35900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>20500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>33500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>24500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>7100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>29500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>27000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>30100</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>64600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>7900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-4600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>7500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>6400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>135700</v>
+        <v>124600</v>
       </c>
       <c r="E26" s="3">
-        <v>163500</v>
+        <v>141900</v>
       </c>
       <c r="F26" s="3">
-        <v>181700</v>
+        <v>140000</v>
       </c>
       <c r="G26" s="3">
-        <v>217700</v>
+        <v>168700</v>
       </c>
       <c r="H26" s="3">
-        <v>215500</v>
+        <v>187500</v>
       </c>
       <c r="I26" s="3">
+        <v>224600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K26" s="3">
         <v>187500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>167600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>181500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>129200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>28900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>66200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>114400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>96400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>110000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>241500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>14400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-74200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>23500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>22100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>136400</v>
+        <v>125200</v>
       </c>
       <c r="E27" s="3">
-        <v>164200</v>
+        <v>142600</v>
       </c>
       <c r="F27" s="3">
-        <v>184100</v>
+        <v>140700</v>
       </c>
       <c r="G27" s="3">
-        <v>217700</v>
+        <v>169400</v>
       </c>
       <c r="H27" s="3">
-        <v>215400</v>
+        <v>189900</v>
       </c>
       <c r="I27" s="3">
+        <v>224600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K27" s="3">
         <v>187600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>167700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>181500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>129200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>28900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>66200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>114400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>96400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>110000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>241500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-419200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-74200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>23500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>22100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20100</v>
+        <v>-11600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4400</v>
+        <v>-1900</v>
       </c>
       <c r="F32" s="3">
-        <v>-8300</v>
+        <v>-20700</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-4500</v>
       </c>
       <c r="H32" s="3">
-        <v>-13900</v>
+        <v>-8600</v>
       </c>
       <c r="I32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-15400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-6900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-13600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>136400</v>
+        <v>125200</v>
       </c>
       <c r="E33" s="3">
-        <v>164200</v>
+        <v>142600</v>
       </c>
       <c r="F33" s="3">
-        <v>184100</v>
+        <v>140700</v>
       </c>
       <c r="G33" s="3">
-        <v>217700</v>
+        <v>169400</v>
       </c>
       <c r="H33" s="3">
-        <v>215400</v>
+        <v>189900</v>
       </c>
       <c r="I33" s="3">
+        <v>224600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K33" s="3">
         <v>187600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>167700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>181500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>129200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>28900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>66200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>114400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>96400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>110000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>241500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-419200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-74200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>23500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>22100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>136400</v>
+        <v>125200</v>
       </c>
       <c r="E35" s="3">
-        <v>164200</v>
+        <v>142600</v>
       </c>
       <c r="F35" s="3">
-        <v>184100</v>
+        <v>140700</v>
       </c>
       <c r="G35" s="3">
-        <v>217700</v>
+        <v>169400</v>
       </c>
       <c r="H35" s="3">
-        <v>215400</v>
+        <v>189900</v>
       </c>
       <c r="I35" s="3">
+        <v>224600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K35" s="3">
         <v>187600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>167700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>181500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>129200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>28900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>66200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>114400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>96400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>110000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>241500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-419200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-74200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>23500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>22100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,68 +2919,70 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>969600</v>
+        <v>1029100</v>
       </c>
       <c r="E41" s="3">
-        <v>859800</v>
+        <v>1036900</v>
       </c>
       <c r="F41" s="3">
-        <v>851400</v>
+        <v>1000300</v>
       </c>
       <c r="G41" s="3">
-        <v>588000</v>
+        <v>887100</v>
       </c>
       <c r="H41" s="3">
-        <v>722700</v>
+        <v>878400</v>
       </c>
       <c r="I41" s="3">
+        <v>606700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>745700</v>
+      </c>
+      <c r="K41" s="3">
         <v>831600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>615000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>710400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>563400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>570500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>324600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>287700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>285100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>195700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>210000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>281100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>65600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2819,31 +2992,37 @@
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>4300</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2890,68 +3069,74 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2646800</v>
+        <v>3267600</v>
       </c>
       <c r="E43" s="3">
-        <v>2674900</v>
+        <v>3150200</v>
       </c>
       <c r="F43" s="3">
-        <v>2469200</v>
+        <v>2730800</v>
       </c>
       <c r="G43" s="3">
-        <v>2463800</v>
+        <v>2759900</v>
       </c>
       <c r="H43" s="3">
-        <v>2164100</v>
+        <v>2547600</v>
       </c>
       <c r="I43" s="3">
+        <v>2542100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2232800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1947600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1918900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2034700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2097200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2153800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2168400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2094600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1663200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1050200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>642500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>177700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>272300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2961,8 +3146,14 @@
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,68 +3223,74 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>672100</v>
+        <v>592100</v>
       </c>
       <c r="E45" s="3">
-        <v>560100</v>
+        <v>587900</v>
       </c>
       <c r="F45" s="3">
-        <v>543200</v>
+        <v>693500</v>
       </c>
       <c r="G45" s="3">
-        <v>510700</v>
+        <v>577900</v>
       </c>
       <c r="H45" s="3">
-        <v>546100</v>
+        <v>560500</v>
       </c>
       <c r="I45" s="3">
+        <v>526900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>563400</v>
+      </c>
+      <c r="K45" s="3">
         <v>511100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>511200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>517600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>606800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>597700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>510200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>498200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>427100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>354900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>213900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>156100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>102600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3103,68 +3300,74 @@
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4288500</v>
+        <v>4897100</v>
       </c>
       <c r="E46" s="3">
-        <v>4094800</v>
+        <v>4779400</v>
       </c>
       <c r="F46" s="3">
-        <v>3863800</v>
+        <v>4424600</v>
       </c>
       <c r="G46" s="3">
-        <v>3562500</v>
+        <v>4224900</v>
       </c>
       <c r="H46" s="3">
-        <v>3432900</v>
+        <v>3986500</v>
       </c>
       <c r="I46" s="3">
+        <v>3675600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3541900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3290300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3045100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3262700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3267400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3322000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3003100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2880600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2375500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1600800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1066300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>615000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>440500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3174,56 +3377,62 @@
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>652600</v>
+        <v>591800</v>
       </c>
       <c r="E47" s="3">
-        <v>612100</v>
+        <v>634200</v>
       </c>
       <c r="F47" s="3">
-        <v>532000</v>
+        <v>673300</v>
       </c>
       <c r="G47" s="3">
-        <v>567500</v>
+        <v>631500</v>
       </c>
       <c r="H47" s="3">
-        <v>347000</v>
+        <v>548900</v>
       </c>
       <c r="I47" s="3">
+        <v>585500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>358000</v>
+      </c>
+      <c r="K47" s="3">
         <v>201600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>144900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>127700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>99300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>55100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>12100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3233,11 +3442,11 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3245,55 +3454,61 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13400</v>
+        <v>14800</v>
       </c>
       <c r="E48" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="F48" s="3">
-        <v>9400</v>
+        <v>13900</v>
       </c>
       <c r="G48" s="3">
-        <v>7200</v>
+        <v>13700</v>
       </c>
       <c r="H48" s="3">
-        <v>8400</v>
+        <v>9700</v>
       </c>
       <c r="I48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K48" s="3">
         <v>8200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>11600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1000</v>
       </c>
       <c r="S48" s="3">
         <v>1000</v>
@@ -3301,11 +3516,11 @@
       <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
+      <c r="U48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1000</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
@@ -3316,55 +3531,61 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141100</v>
+        <v>144000</v>
       </c>
       <c r="E49" s="3">
-        <v>142000</v>
+        <v>144800</v>
       </c>
       <c r="F49" s="3">
-        <v>142500</v>
+        <v>145600</v>
       </c>
       <c r="G49" s="3">
+        <v>146500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>147000</v>
+      </c>
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
       </c>
       <c r="L49" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
       </c>
       <c r="N49" s="3">
+        <v>400</v>
+      </c>
+      <c r="O49" s="3">
         <v>500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
@@ -3372,11 +3593,11 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+      <c r="V49" s="3">
+        <v>100</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3387,8 +3608,14 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,68 +3762,74 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>168100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>152200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>132200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>119900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>166500</v>
+      </c>
+      <c r="J52" s="3">
         <v>147500</v>
       </c>
-      <c r="E52" s="3">
-        <v>128200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>116200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>161400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>142900</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>207100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>194700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>169500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>154500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>212000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>107400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>25500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>86800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>67400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,68 +3916,74 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5243100</v>
+        <v>5794100</v>
       </c>
       <c r="E54" s="3">
-        <v>4990300</v>
+        <v>5739400</v>
       </c>
       <c r="F54" s="3">
-        <v>4663900</v>
+        <v>5409600</v>
       </c>
       <c r="G54" s="3">
-        <v>4299200</v>
+        <v>5148700</v>
       </c>
       <c r="H54" s="3">
-        <v>3931800</v>
+        <v>4812000</v>
       </c>
       <c r="I54" s="3">
+        <v>4435700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4056700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3707600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3394700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3571600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3533800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3601200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3134400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2913900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1601900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1067400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>702900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>509000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3742,8 +3993,14 @@
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,56 +4128,62 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>85100</v>
+        <v>21500</v>
       </c>
       <c r="E58" s="3">
-        <v>81600</v>
+        <v>91900</v>
       </c>
       <c r="F58" s="3">
-        <v>55300</v>
+        <v>87800</v>
       </c>
       <c r="G58" s="3">
-        <v>46800</v>
+        <v>84200</v>
       </c>
       <c r="H58" s="3">
-        <v>46800</v>
+        <v>57100</v>
       </c>
       <c r="I58" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K58" s="3">
         <v>32300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>26000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>27200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>27700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>68600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>30800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>239500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>223900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3926,11 +4193,11 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -3938,68 +4205,74 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2256800</v>
+        <v>2384100</v>
       </c>
       <c r="E59" s="3">
-        <v>1955200</v>
+        <v>2485100</v>
       </c>
       <c r="F59" s="3">
-        <v>1913400</v>
+        <v>2328400</v>
       </c>
       <c r="G59" s="3">
-        <v>1831700</v>
+        <v>2017300</v>
       </c>
       <c r="H59" s="3">
-        <v>1819500</v>
+        <v>1974100</v>
       </c>
       <c r="I59" s="3">
+        <v>1889900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1877300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1841500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1837100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1863800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1930800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2084600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1457800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1280000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1109500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>754700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>420300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>413100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>452200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4009,68 +4282,74 @@
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2341800</v>
+        <v>2405600</v>
       </c>
       <c r="E60" s="3">
-        <v>2036800</v>
+        <v>2577000</v>
       </c>
       <c r="F60" s="3">
-        <v>1968700</v>
+        <v>2416200</v>
       </c>
       <c r="G60" s="3">
-        <v>1878500</v>
+        <v>2101500</v>
       </c>
       <c r="H60" s="3">
-        <v>1866400</v>
+        <v>2031200</v>
       </c>
       <c r="I60" s="3">
+        <v>1938100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1925600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1873800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1863100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1891000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1958600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2153300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1488600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1519500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1333300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>754700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>420300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>413100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>452200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4080,8 +4359,14 @@
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,62 +4436,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>532000</v>
+        <v>669500</v>
       </c>
       <c r="E62" s="3">
-        <v>701200</v>
+        <v>578800</v>
       </c>
       <c r="F62" s="3">
-        <v>577000</v>
+        <v>548900</v>
       </c>
       <c r="G62" s="3">
-        <v>455700</v>
+        <v>723400</v>
       </c>
       <c r="H62" s="3">
-        <v>327200</v>
+        <v>595300</v>
       </c>
       <c r="I62" s="3">
+        <v>470200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>337600</v>
+      </c>
+      <c r="K62" s="3">
         <v>317300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>211800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>467700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>542400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>490300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>534900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>342300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>121400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>54400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,68 +4744,74 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2874200</v>
+        <v>3087300</v>
       </c>
       <c r="E66" s="3">
-        <v>2739100</v>
+        <v>3168400</v>
       </c>
       <c r="F66" s="3">
-        <v>2547500</v>
+        <v>2965400</v>
       </c>
       <c r="G66" s="3">
-        <v>2334100</v>
+        <v>2826000</v>
       </c>
       <c r="H66" s="3">
-        <v>2193700</v>
+        <v>2628400</v>
       </c>
       <c r="I66" s="3">
+        <v>2408300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2263300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2191200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2075000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2358900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2501200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2643700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2023600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1862000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1454700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>809100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>422600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>413100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>452200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4506,8 +4821,14 @@
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4726,14 +5061,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>628600</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +5158,14 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4828,57 +5175,57 @@
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
-        <v>1342200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1196700</v>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>978900</v>
+        <v>1384900</v>
       </c>
       <c r="I72" s="3">
+        <v>1234700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="K72" s="3">
         <v>763500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>575900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>432200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>250600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>130000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>318900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>256100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>141600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>44300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-62500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-339400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-109100</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4888,8 +5235,14 @@
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,68 +5466,74 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2368900</v>
+        <v>2706800</v>
       </c>
       <c r="E76" s="3">
-        <v>2251200</v>
+        <v>2571000</v>
       </c>
       <c r="F76" s="3">
-        <v>2116400</v>
+        <v>2444200</v>
       </c>
       <c r="G76" s="3">
-        <v>1965100</v>
+        <v>2322700</v>
       </c>
       <c r="H76" s="3">
-        <v>1738100</v>
+        <v>2183600</v>
       </c>
       <c r="I76" s="3">
+        <v>2027500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1793300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1516400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1319700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1212800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1032600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>957400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1110700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1051900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>923300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>792800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>644800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-338900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>56800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5172,8 +5543,14 @@
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>136400</v>
+        <v>125200</v>
       </c>
       <c r="E81" s="3">
-        <v>164200</v>
+        <v>142600</v>
       </c>
       <c r="F81" s="3">
-        <v>184100</v>
+        <v>140700</v>
       </c>
       <c r="G81" s="3">
-        <v>217700</v>
+        <v>169400</v>
       </c>
       <c r="H81" s="3">
-        <v>215400</v>
+        <v>189900</v>
       </c>
       <c r="I81" s="3">
+        <v>224600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K81" s="3">
         <v>187600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>167700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>181500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>129200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>28900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>66200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>114400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>96400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>110000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>241500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-419200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-74200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>23500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>22100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5470,11 +5867,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>8</v>
@@ -5488,8 +5885,14 @@
       <c r="Y83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,35 +6270,41 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>155700</v>
+        <v>257400</v>
       </c>
       <c r="E89" s="3">
-        <v>197600</v>
+        <v>228700</v>
       </c>
       <c r="F89" s="3">
-        <v>134100</v>
+        <v>160600</v>
       </c>
       <c r="G89" s="3">
-        <v>247300</v>
+        <v>203900</v>
       </c>
       <c r="H89" s="3">
-        <v>180400</v>
+        <v>138400</v>
       </c>
       <c r="I89" s="3">
+        <v>255200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>186200</v>
+      </c>
+      <c r="K89" s="3">
         <v>244000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
@@ -5881,11 +6314,11 @@
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5896,11 +6329,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>8</v>
@@ -5914,8 +6347,14 @@
       <c r="Y89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5994,11 +6435,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -6012,8 +6453,14 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,35 +6607,41 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35200</v>
+        <v>-241300</v>
       </c>
       <c r="E94" s="3">
-        <v>-339900</v>
+        <v>-428200</v>
       </c>
       <c r="F94" s="3">
-        <v>10200</v>
+        <v>-36300</v>
       </c>
       <c r="G94" s="3">
-        <v>-477600</v>
+        <v>-350700</v>
       </c>
       <c r="H94" s="3">
-        <v>-313400</v>
+        <v>10600</v>
       </c>
       <c r="I94" s="3">
+        <v>-492700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-323400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-63400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6192,11 +6651,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6207,11 +6666,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
@@ -6225,8 +6684,14 @@
       <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,35 +7021,41 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>146500</v>
+        <v>27800</v>
       </c>
       <c r="E100" s="3">
-        <v>149900</v>
+        <v>126500</v>
       </c>
       <c r="F100" s="3">
         <v>151100</v>
       </c>
       <c r="G100" s="3">
-        <v>63400</v>
+        <v>154700</v>
       </c>
       <c r="H100" s="3">
-        <v>74900</v>
+        <v>155900</v>
       </c>
       <c r="I100" s="3">
+        <v>65400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K100" s="3">
         <v>25700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
@@ -6574,11 +7065,11 @@
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6589,11 +7080,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>8</v>
@@ -6607,35 +7098,41 @@
       <c r="Y100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
@@ -6645,11 +7142,11 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6660,11 +7157,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
@@ -6678,35 +7175,41 @@
       <c r="Y101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>267100</v>
+        <v>40600</v>
       </c>
       <c r="E102" s="3">
-        <v>7100</v>
+        <v>-71900</v>
       </c>
       <c r="F102" s="3">
-        <v>295400</v>
+        <v>275600</v>
       </c>
       <c r="G102" s="3">
-        <v>-166900</v>
+        <v>7300</v>
       </c>
       <c r="H102" s="3">
-        <v>-58200</v>
+        <v>304800</v>
       </c>
       <c r="I102" s="3">
+        <v>-172200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="K102" s="3">
         <v>206100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
@@ -6716,11 +7219,11 @@
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6731,11 +7234,11 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>8</v>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>8</v>
@@ -6747,6 +7250,12 @@
         <v>8</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>561100</v>
+        <v>511600</v>
       </c>
       <c r="E8" s="3">
-        <v>595200</v>
+        <v>555300</v>
       </c>
       <c r="F8" s="3">
-        <v>600800</v>
+        <v>589100</v>
       </c>
       <c r="G8" s="3">
-        <v>620400</v>
+        <v>594600</v>
       </c>
       <c r="H8" s="3">
-        <v>635100</v>
+        <v>614100</v>
       </c>
       <c r="I8" s="3">
-        <v>662500</v>
+        <v>628600</v>
       </c>
       <c r="J8" s="3">
+        <v>655700</v>
+      </c>
+      <c r="K8" s="3">
         <v>574700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>501000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>464600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>545700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>492200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>502100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>369700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>403000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>347400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>306900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>444600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>89900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>62300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>86000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>64400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>52500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>84100</v>
+        <v>91000</v>
       </c>
       <c r="E9" s="3">
-        <v>88700</v>
+        <v>83200</v>
       </c>
       <c r="F9" s="3">
-        <v>79800</v>
+        <v>87800</v>
       </c>
       <c r="G9" s="3">
-        <v>88300</v>
+        <v>79000</v>
       </c>
       <c r="H9" s="3">
-        <v>84600</v>
+        <v>87400</v>
       </c>
       <c r="I9" s="3">
-        <v>90100</v>
+        <v>83800</v>
       </c>
       <c r="J9" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K9" s="3">
         <v>80100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>66500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>60200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>58900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>47400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>32800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>24500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>32900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>477000</v>
+        <v>420600</v>
       </c>
       <c r="E10" s="3">
-        <v>506500</v>
+        <v>472100</v>
       </c>
       <c r="F10" s="3">
-        <v>521000</v>
+        <v>501300</v>
       </c>
       <c r="G10" s="3">
-        <v>532100</v>
+        <v>515700</v>
       </c>
       <c r="H10" s="3">
-        <v>550500</v>
+        <v>526700</v>
       </c>
       <c r="I10" s="3">
-        <v>572400</v>
+        <v>544800</v>
       </c>
       <c r="J10" s="3">
+        <v>566600</v>
+      </c>
+      <c r="K10" s="3">
         <v>494600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>434500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>402700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>485500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>433300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>447300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>342400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>344600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>272100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>411900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>65500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>29500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>71700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>55600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>41100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1301,8 +1324,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1319,29 +1342,32 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>100</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>100</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
+      <c r="Z15" s="3">
+        <v>100</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>425500</v>
+        <v>368500</v>
       </c>
       <c r="E17" s="3">
-        <v>428800</v>
+        <v>421100</v>
       </c>
       <c r="F17" s="3">
-        <v>455600</v>
+        <v>424400</v>
       </c>
       <c r="G17" s="3">
-        <v>425200</v>
+        <v>451000</v>
       </c>
       <c r="H17" s="3">
-        <v>422300</v>
+        <v>420900</v>
       </c>
       <c r="I17" s="3">
-        <v>390500</v>
+        <v>418000</v>
       </c>
       <c r="J17" s="3">
+        <v>386500</v>
+      </c>
+      <c r="K17" s="3">
         <v>308600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>284200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>291800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>343700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>345800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>473100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>329300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>256000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>218000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>175600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>139100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>68400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>141500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>55400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>36100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>49600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>135600</v>
+        <v>143200</v>
       </c>
       <c r="E18" s="3">
-        <v>166300</v>
+        <v>134200</v>
       </c>
       <c r="F18" s="3">
-        <v>145200</v>
+        <v>164600</v>
       </c>
       <c r="G18" s="3">
-        <v>195200</v>
+        <v>143700</v>
       </c>
       <c r="H18" s="3">
-        <v>212800</v>
+        <v>193200</v>
       </c>
       <c r="I18" s="3">
-        <v>272000</v>
+        <v>210600</v>
       </c>
       <c r="J18" s="3">
+        <v>269200</v>
+      </c>
+      <c r="K18" s="3">
         <v>266100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>216800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>172800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>202100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>146400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>40400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>147000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>129400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>131300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>305500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-79200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>30600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>28400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11600</v>
+        <v>13500</v>
       </c>
       <c r="E20" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
-        <v>20700</v>
-      </c>
       <c r="G20" s="3">
+        <v>20500</v>
+      </c>
+      <c r="H20" s="3">
         <v>4500</v>
       </c>
-      <c r="H20" s="3">
-        <v>8600</v>
-      </c>
       <c r="I20" s="3">
-        <v>4200</v>
+        <v>8500</v>
       </c>
       <c r="J20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K20" s="3">
         <v>14400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
-      </c>
-      <c r="V20" s="3">
-        <v>400</v>
       </c>
       <c r="W20" s="3">
         <v>400</v>
       </c>
       <c r="X20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y20" s="3">
         <v>200</v>
       </c>
       <c r="Z20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1679,55 +1716,58 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>306600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>3200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1744,18 +1784,18 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1768,8 +1808,8 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>147200</v>
+        <v>156700</v>
       </c>
       <c r="E23" s="3">
-        <v>168300</v>
+        <v>145700</v>
       </c>
       <c r="F23" s="3">
-        <v>165900</v>
+        <v>166500</v>
       </c>
       <c r="G23" s="3">
-        <v>199700</v>
+        <v>164200</v>
       </c>
       <c r="H23" s="3">
-        <v>221400</v>
+        <v>197700</v>
       </c>
       <c r="I23" s="3">
-        <v>276100</v>
+        <v>219100</v>
       </c>
       <c r="J23" s="3">
+        <v>273300</v>
+      </c>
+      <c r="K23" s="3">
         <v>280500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>223500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>188200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>215000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>153700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>143900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>123400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>140100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>306100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-78800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>31000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>28500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="E24" s="3">
-        <v>26300</v>
+        <v>22300</v>
       </c>
       <c r="F24" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="G24" s="3">
-        <v>31100</v>
+        <v>25600</v>
       </c>
       <c r="H24" s="3">
-        <v>33900</v>
+        <v>30800</v>
       </c>
       <c r="I24" s="3">
-        <v>51500</v>
+        <v>33600</v>
       </c>
       <c r="J24" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K24" s="3">
         <v>58200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>29500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>64600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>124600</v>
+        <v>132200</v>
       </c>
       <c r="E26" s="3">
-        <v>141900</v>
+        <v>123400</v>
       </c>
       <c r="F26" s="3">
-        <v>140000</v>
+        <v>140500</v>
       </c>
       <c r="G26" s="3">
-        <v>168700</v>
+        <v>138600</v>
       </c>
       <c r="H26" s="3">
-        <v>187500</v>
+        <v>166900</v>
       </c>
       <c r="I26" s="3">
-        <v>224600</v>
+        <v>185500</v>
       </c>
       <c r="J26" s="3">
         <v>222300</v>
       </c>
       <c r="K26" s="3">
+        <v>222300</v>
+      </c>
+      <c r="L26" s="3">
         <v>187500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>167600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>129200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>66200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>114400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>96400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>110000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>241500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-74200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>22100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>125200</v>
+        <v>132800</v>
       </c>
       <c r="E27" s="3">
-        <v>142600</v>
+        <v>124000</v>
       </c>
       <c r="F27" s="3">
-        <v>140700</v>
+        <v>141100</v>
       </c>
       <c r="G27" s="3">
-        <v>169400</v>
+        <v>139300</v>
       </c>
       <c r="H27" s="3">
-        <v>189900</v>
+        <v>167700</v>
       </c>
       <c r="I27" s="3">
-        <v>224600</v>
+        <v>188000</v>
       </c>
       <c r="J27" s="3">
         <v>222300</v>
       </c>
       <c r="K27" s="3">
+        <v>222300</v>
+      </c>
+      <c r="L27" s="3">
         <v>187600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>167700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>181500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>129200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>66200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>114400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>96400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>110000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>241500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-419200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-74200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>22100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11600</v>
+        <v>-13500</v>
       </c>
       <c r="E32" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-20700</v>
-      </c>
       <c r="G32" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-8600</v>
-      </c>
       <c r="I32" s="3">
-        <v>-4200</v>
+        <v>-8500</v>
       </c>
       <c r="J32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-400</v>
       </c>
       <c r="W32" s="3">
         <v>-400</v>
       </c>
       <c r="X32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Y32" s="3">
         <v>-200</v>
       </c>
       <c r="Z32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>125200</v>
+        <v>132800</v>
       </c>
       <c r="E33" s="3">
-        <v>142600</v>
+        <v>124000</v>
       </c>
       <c r="F33" s="3">
-        <v>140700</v>
+        <v>141100</v>
       </c>
       <c r="G33" s="3">
-        <v>169400</v>
+        <v>139300</v>
       </c>
       <c r="H33" s="3">
-        <v>189900</v>
+        <v>167700</v>
       </c>
       <c r="I33" s="3">
-        <v>224600</v>
+        <v>188000</v>
       </c>
       <c r="J33" s="3">
         <v>222300</v>
       </c>
       <c r="K33" s="3">
+        <v>222300</v>
+      </c>
+      <c r="L33" s="3">
         <v>187600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>167700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>181500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>129200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>66200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>114400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>96400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>110000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>241500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-419200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-74200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>22100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>125200</v>
+        <v>132800</v>
       </c>
       <c r="E35" s="3">
-        <v>142600</v>
+        <v>124000</v>
       </c>
       <c r="F35" s="3">
-        <v>140700</v>
+        <v>141100</v>
       </c>
       <c r="G35" s="3">
-        <v>169400</v>
+        <v>139300</v>
       </c>
       <c r="H35" s="3">
-        <v>189900</v>
+        <v>167700</v>
       </c>
       <c r="I35" s="3">
-        <v>224600</v>
+        <v>188000</v>
       </c>
       <c r="J35" s="3">
         <v>222300</v>
       </c>
       <c r="K35" s="3">
+        <v>222300</v>
+      </c>
+      <c r="L35" s="3">
         <v>187600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>167700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>181500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>129200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>66200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>114400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>96400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>110000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>241500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-419200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-74200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>22100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,71 +3007,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1029100</v>
+        <v>729000</v>
       </c>
       <c r="E41" s="3">
-        <v>1036900</v>
+        <v>1018600</v>
       </c>
       <c r="F41" s="3">
-        <v>1000300</v>
+        <v>1026300</v>
       </c>
       <c r="G41" s="3">
-        <v>887100</v>
+        <v>990100</v>
       </c>
       <c r="H41" s="3">
-        <v>878400</v>
+        <v>878000</v>
       </c>
       <c r="I41" s="3">
-        <v>606700</v>
+        <v>869400</v>
       </c>
       <c r="J41" s="3">
+        <v>600500</v>
+      </c>
+      <c r="K41" s="3">
         <v>745700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>831600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>615000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>710400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>563400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>570500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>324600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>287700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>285100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>195700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>210000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>281100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>65600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2998,20 +3085,23 @@
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8200</v>
+        <v>33600</v>
       </c>
       <c r="E42" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F42" s="3">
         <v>4300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3024,8 +3114,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3075,71 +3165,74 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3267600</v>
+        <v>3609400</v>
       </c>
       <c r="E43" s="3">
-        <v>3150200</v>
+        <v>3234200</v>
       </c>
       <c r="F43" s="3">
-        <v>2730800</v>
+        <v>3118000</v>
       </c>
       <c r="G43" s="3">
-        <v>2759900</v>
+        <v>2702900</v>
       </c>
       <c r="H43" s="3">
-        <v>2547600</v>
+        <v>2731600</v>
       </c>
       <c r="I43" s="3">
-        <v>2542100</v>
+        <v>2521500</v>
       </c>
       <c r="J43" s="3">
+        <v>2516000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2232800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1947600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1918900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2034700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2097200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2153800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2168400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2094600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1663200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1050200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>642500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>177700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>272300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,71 +3325,74 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>592100</v>
+        <v>606000</v>
       </c>
       <c r="E45" s="3">
-        <v>587900</v>
+        <v>586100</v>
       </c>
       <c r="F45" s="3">
-        <v>693500</v>
+        <v>581900</v>
       </c>
       <c r="G45" s="3">
-        <v>577900</v>
+        <v>686400</v>
       </c>
       <c r="H45" s="3">
-        <v>560500</v>
+        <v>572000</v>
       </c>
       <c r="I45" s="3">
-        <v>526900</v>
+        <v>554700</v>
       </c>
       <c r="J45" s="3">
+        <v>521500</v>
+      </c>
+      <c r="K45" s="3">
         <v>563400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>511100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>511200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>517600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>606800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>597700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>510200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>498200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>427100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>354900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>213900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>156100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>102600</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3306,71 +3405,74 @@
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4897100</v>
+        <v>4977900</v>
       </c>
       <c r="E46" s="3">
-        <v>4779400</v>
+        <v>4847000</v>
       </c>
       <c r="F46" s="3">
-        <v>4424600</v>
+        <v>4730400</v>
       </c>
       <c r="G46" s="3">
-        <v>4224900</v>
+        <v>4379300</v>
       </c>
       <c r="H46" s="3">
-        <v>3986500</v>
+        <v>4181600</v>
       </c>
       <c r="I46" s="3">
-        <v>3675600</v>
+        <v>3945700</v>
       </c>
       <c r="J46" s="3">
+        <v>3638000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3541900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3290300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3045100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3262700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3267400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3322000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3003100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2880600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2375500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1600800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1066300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>615000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>440500</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3383,59 +3485,62 @@
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>591800</v>
+        <v>511300</v>
       </c>
       <c r="E47" s="3">
-        <v>634200</v>
+        <v>585700</v>
       </c>
       <c r="F47" s="3">
-        <v>673300</v>
+        <v>627700</v>
       </c>
       <c r="G47" s="3">
-        <v>631500</v>
+        <v>666400</v>
       </c>
       <c r="H47" s="3">
-        <v>548900</v>
+        <v>625000</v>
       </c>
       <c r="I47" s="3">
-        <v>585500</v>
+        <v>543200</v>
       </c>
       <c r="J47" s="3">
+        <v>579600</v>
+      </c>
+      <c r="K47" s="3">
         <v>358000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>201600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>144900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>127700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>99300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3448,8 +3553,8 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3460,58 +3565,61 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14800</v>
+        <v>20100</v>
       </c>
       <c r="E48" s="3">
-        <v>12900</v>
+        <v>14700</v>
       </c>
       <c r="F48" s="3">
-        <v>13900</v>
+        <v>12800</v>
       </c>
       <c r="G48" s="3">
         <v>13700</v>
       </c>
       <c r="H48" s="3">
-        <v>9700</v>
+        <v>13500</v>
       </c>
       <c r="I48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J48" s="3">
         <v>7400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1000</v>
       </c>
       <c r="T48" s="3">
         <v>1000</v>
@@ -3522,8 +3630,8 @@
       <c r="V48" s="3">
         <v>1000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
+      <c r="W48" s="3">
+        <v>1000</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
@@ -3537,34 +3645,37 @@
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>144000</v>
+        <v>141900</v>
       </c>
       <c r="E49" s="3">
-        <v>144800</v>
+        <v>142600</v>
       </c>
       <c r="F49" s="3">
-        <v>145600</v>
+        <v>143300</v>
       </c>
       <c r="G49" s="3">
-        <v>146500</v>
+        <v>144100</v>
       </c>
       <c r="H49" s="3">
-        <v>147000</v>
+        <v>145000</v>
       </c>
       <c r="I49" s="3">
+        <v>145500</v>
+      </c>
+      <c r="J49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
@@ -3573,22 +3684,22 @@
         <v>500</v>
       </c>
       <c r="N49" s="3">
+        <v>500</v>
+      </c>
+      <c r="O49" s="3">
         <v>400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
       </c>
       <c r="Q49" s="3">
+        <v>500</v>
+      </c>
+      <c r="R49" s="3">
         <v>600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>300</v>
-      </c>
-      <c r="S49" s="3">
-        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>100</v>
@@ -3599,8 +3710,8 @@
       <c r="V49" s="3">
         <v>100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
+      <c r="W49" s="3">
+        <v>100</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,71 +3885,74 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>146400</v>
+        <v>159900</v>
       </c>
       <c r="E52" s="3">
-        <v>168100</v>
+        <v>144900</v>
       </c>
       <c r="F52" s="3">
-        <v>152200</v>
+        <v>166400</v>
       </c>
       <c r="G52" s="3">
-        <v>132200</v>
+        <v>150700</v>
       </c>
       <c r="H52" s="3">
-        <v>119900</v>
+        <v>130900</v>
       </c>
       <c r="I52" s="3">
-        <v>166500</v>
+        <v>118700</v>
       </c>
       <c r="J52" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K52" s="3">
         <v>147500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>207100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>194700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>169500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>154500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>212000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>107400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>86800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>67400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,71 +4045,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5794100</v>
+        <v>5811000</v>
       </c>
       <c r="E54" s="3">
-        <v>5739400</v>
+        <v>5734800</v>
       </c>
       <c r="F54" s="3">
-        <v>5409600</v>
+        <v>5680700</v>
       </c>
       <c r="G54" s="3">
-        <v>5148700</v>
+        <v>5354200</v>
       </c>
       <c r="H54" s="3">
-        <v>4812000</v>
+        <v>5096000</v>
       </c>
       <c r="I54" s="3">
-        <v>4435700</v>
+        <v>4762700</v>
       </c>
       <c r="J54" s="3">
+        <v>4390300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4056700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3707600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3394700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3571600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3533800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3601200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3134400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2913900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2378000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1601900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1067400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>702900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>509000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,59 +4265,62 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="E58" s="3">
-        <v>91900</v>
+        <v>21300</v>
       </c>
       <c r="F58" s="3">
-        <v>87800</v>
+        <v>90900</v>
       </c>
       <c r="G58" s="3">
-        <v>84200</v>
+        <v>86900</v>
       </c>
       <c r="H58" s="3">
-        <v>57100</v>
+        <v>83400</v>
       </c>
       <c r="I58" s="3">
-        <v>48200</v>
+        <v>56500</v>
       </c>
       <c r="J58" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K58" s="3">
         <v>48300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>68600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>239500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>223900</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4199,8 +4333,8 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4211,71 +4345,74 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2384100</v>
+        <v>2562500</v>
       </c>
       <c r="E59" s="3">
-        <v>2485100</v>
+        <v>2359700</v>
       </c>
       <c r="F59" s="3">
-        <v>2328400</v>
+        <v>2459600</v>
       </c>
       <c r="G59" s="3">
-        <v>2017300</v>
+        <v>2304600</v>
       </c>
       <c r="H59" s="3">
-        <v>1974100</v>
+        <v>1996600</v>
       </c>
       <c r="I59" s="3">
-        <v>1889900</v>
+        <v>1953900</v>
       </c>
       <c r="J59" s="3">
+        <v>1870500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1877300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1841500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1837100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1863800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1930800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2084600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1457800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1280000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1109500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>754700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>420300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>413100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>452200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4288,71 +4425,74 @@
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2405600</v>
+        <v>2583800</v>
       </c>
       <c r="E60" s="3">
-        <v>2577000</v>
+        <v>2381000</v>
       </c>
       <c r="F60" s="3">
-        <v>2416200</v>
+        <v>2550600</v>
       </c>
       <c r="G60" s="3">
-        <v>2101500</v>
+        <v>2391500</v>
       </c>
       <c r="H60" s="3">
-        <v>2031200</v>
+        <v>2080000</v>
       </c>
       <c r="I60" s="3">
-        <v>1938100</v>
+        <v>2010500</v>
       </c>
       <c r="J60" s="3">
+        <v>1918300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1925600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1873800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1863100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1891000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1958600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2153300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1488600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1519500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1333300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>754700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>420300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>413100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>452200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,65 +4585,68 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>669500</v>
+        <v>422900</v>
       </c>
       <c r="E62" s="3">
-        <v>578800</v>
+        <v>662700</v>
       </c>
       <c r="F62" s="3">
-        <v>548900</v>
+        <v>572900</v>
       </c>
       <c r="G62" s="3">
-        <v>723400</v>
+        <v>543200</v>
       </c>
       <c r="H62" s="3">
-        <v>595300</v>
+        <v>716000</v>
       </c>
       <c r="I62" s="3">
-        <v>470200</v>
+        <v>589200</v>
       </c>
       <c r="J62" s="3">
+        <v>465300</v>
+      </c>
+      <c r="K62" s="3">
         <v>337600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>317300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>211800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>467700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>542400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>490300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>534900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>342300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>121400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>54400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,71 +4905,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3087300</v>
+        <v>3018100</v>
       </c>
       <c r="E66" s="3">
-        <v>3168400</v>
+        <v>3055700</v>
       </c>
       <c r="F66" s="3">
-        <v>2965400</v>
+        <v>3136000</v>
       </c>
       <c r="G66" s="3">
-        <v>2826000</v>
+        <v>2935100</v>
       </c>
       <c r="H66" s="3">
-        <v>2628400</v>
+        <v>2797100</v>
       </c>
       <c r="I66" s="3">
-        <v>2408300</v>
+        <v>2601500</v>
       </c>
       <c r="J66" s="3">
+        <v>2383600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2263300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2191200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2075000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2358900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2501200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2643700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2023600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1862000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1454700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>809100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>422600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>413100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>452200</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5067,11 +5235,11 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>628600</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,16 +5335,19 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
+      <c r="E72" s="3">
+        <v>1820000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
@@ -5181,54 +5355,54 @@
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="3">
-        <v>1384900</v>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I72" s="3">
-        <v>1234700</v>
+        <v>1370700</v>
       </c>
       <c r="J72" s="3">
+        <v>1222000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1010000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>763500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>575900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>432200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>250600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>130000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>318900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>256100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>141600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-62500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-339400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-109100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,71 +5655,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2706800</v>
+        <v>2792900</v>
       </c>
       <c r="E76" s="3">
-        <v>2571000</v>
+        <v>2679100</v>
       </c>
       <c r="F76" s="3">
-        <v>2444200</v>
+        <v>2544700</v>
       </c>
       <c r="G76" s="3">
-        <v>2322700</v>
+        <v>2419100</v>
       </c>
       <c r="H76" s="3">
-        <v>2183600</v>
+        <v>2298900</v>
       </c>
       <c r="I76" s="3">
-        <v>2027500</v>
+        <v>2161200</v>
       </c>
       <c r="J76" s="3">
+        <v>2006700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1793300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1516400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1319700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1212800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1032600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>957400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1110700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1051900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>923300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>792800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>644800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-338900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>56800</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>125200</v>
+        <v>132800</v>
       </c>
       <c r="E81" s="3">
-        <v>142600</v>
+        <v>124000</v>
       </c>
       <c r="F81" s="3">
-        <v>140700</v>
+        <v>141100</v>
       </c>
       <c r="G81" s="3">
-        <v>169400</v>
+        <v>139300</v>
       </c>
       <c r="H81" s="3">
-        <v>189900</v>
+        <v>167700</v>
       </c>
       <c r="I81" s="3">
-        <v>224600</v>
+        <v>188000</v>
       </c>
       <c r="J81" s="3">
         <v>222300</v>
       </c>
       <c r="K81" s="3">
+        <v>222300</v>
+      </c>
+      <c r="L81" s="3">
         <v>187600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>167700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>181500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>129200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>66200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>114400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>96400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>110000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>241500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-419200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-74200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>22100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5873,8 +6072,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>8</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,38 +6490,41 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>257400</v>
+        <v>250300</v>
       </c>
       <c r="E89" s="3">
-        <v>228700</v>
+        <v>254800</v>
       </c>
       <c r="F89" s="3">
-        <v>160600</v>
+        <v>226300</v>
       </c>
       <c r="G89" s="3">
-        <v>203900</v>
+        <v>159000</v>
       </c>
       <c r="H89" s="3">
-        <v>138400</v>
+        <v>201800</v>
       </c>
       <c r="I89" s="3">
-        <v>255200</v>
+        <v>137000</v>
       </c>
       <c r="J89" s="3">
+        <v>252600</v>
+      </c>
+      <c r="K89" s="3">
         <v>186200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>244000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6320,8 +6537,8 @@
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -6335,8 +6552,8 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>8</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6441,8 +6662,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,38 +6840,41 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-241300</v>
+        <v>-506700</v>
       </c>
       <c r="E94" s="3">
-        <v>-428200</v>
+        <v>-238900</v>
       </c>
       <c r="F94" s="3">
-        <v>-36300</v>
+        <v>-423800</v>
       </c>
       <c r="G94" s="3">
-        <v>-350700</v>
+        <v>-35900</v>
       </c>
       <c r="H94" s="3">
-        <v>10600</v>
+        <v>-347100</v>
       </c>
       <c r="I94" s="3">
-        <v>-492700</v>
+        <v>10500</v>
       </c>
       <c r="J94" s="3">
+        <v>-487700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-323400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6657,8 +6887,8 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6672,8 +6902,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>8</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,38 +7270,41 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>27800</v>
+        <v>5500</v>
       </c>
       <c r="E100" s="3">
-        <v>126500</v>
+        <v>27500</v>
       </c>
       <c r="F100" s="3">
-        <v>151100</v>
+        <v>125200</v>
       </c>
       <c r="G100" s="3">
-        <v>154700</v>
+        <v>149600</v>
       </c>
       <c r="H100" s="3">
-        <v>155900</v>
+        <v>153100</v>
       </c>
       <c r="I100" s="3">
-        <v>65400</v>
+        <v>154300</v>
       </c>
       <c r="J100" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K100" s="3">
         <v>77300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
@@ -7071,8 +7317,8 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7086,8 +7332,8 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>8</v>
@@ -7104,37 +7350,40 @@
       <c r="AA100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>-200</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
@@ -7148,8 +7397,8 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -7163,8 +7412,8 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>8</v>
@@ -7181,38 +7430,41 @@
       <c r="AA101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40600</v>
+        <v>-251200</v>
       </c>
       <c r="E102" s="3">
-        <v>-71900</v>
+        <v>40200</v>
       </c>
       <c r="F102" s="3">
-        <v>275600</v>
+        <v>-71200</v>
       </c>
       <c r="G102" s="3">
+        <v>272800</v>
+      </c>
+      <c r="H102" s="3">
         <v>7300</v>
       </c>
-      <c r="H102" s="3">
-        <v>304800</v>
-      </c>
       <c r="I102" s="3">
-        <v>-172200</v>
+        <v>301700</v>
       </c>
       <c r="J102" s="3">
+        <v>-170400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-60100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>206100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
@@ -7225,8 +7477,8 @@
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -7240,8 +7492,8 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>8</v>
@@ -7256,6 +7508,9 @@
         <v>8</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>511600</v>
+        <v>539300</v>
       </c>
       <c r="E8" s="3">
-        <v>555300</v>
+        <v>495900</v>
       </c>
       <c r="F8" s="3">
-        <v>589100</v>
+        <v>538300</v>
       </c>
       <c r="G8" s="3">
-        <v>594600</v>
+        <v>571000</v>
       </c>
       <c r="H8" s="3">
-        <v>614100</v>
+        <v>576400</v>
       </c>
       <c r="I8" s="3">
-        <v>628600</v>
+        <v>595200</v>
       </c>
       <c r="J8" s="3">
+        <v>609300</v>
+      </c>
+      <c r="K8" s="3">
         <v>655700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>574700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>501000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>464600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>545700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>492200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>502100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>369700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>403000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>347400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>306900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>444600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>89900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>62300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>86000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>64400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>52500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>91000</v>
+        <v>89300</v>
       </c>
       <c r="E9" s="3">
-        <v>83200</v>
+        <v>88200</v>
       </c>
       <c r="F9" s="3">
-        <v>87800</v>
+        <v>80700</v>
       </c>
       <c r="G9" s="3">
-        <v>79000</v>
+        <v>85100</v>
       </c>
       <c r="H9" s="3">
-        <v>87400</v>
+        <v>76600</v>
       </c>
       <c r="I9" s="3">
-        <v>83800</v>
+        <v>84700</v>
       </c>
       <c r="J9" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K9" s="3">
         <v>89200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>80100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>66500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>60200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>58900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>47400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>34800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>32800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>24500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>32900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>420600</v>
+        <v>450000</v>
       </c>
       <c r="E10" s="3">
-        <v>472100</v>
+        <v>407700</v>
       </c>
       <c r="F10" s="3">
-        <v>501300</v>
+        <v>457600</v>
       </c>
       <c r="G10" s="3">
-        <v>515700</v>
+        <v>485900</v>
       </c>
       <c r="H10" s="3">
-        <v>526700</v>
+        <v>499800</v>
       </c>
       <c r="I10" s="3">
-        <v>544800</v>
+        <v>510500</v>
       </c>
       <c r="J10" s="3">
+        <v>528100</v>
+      </c>
+      <c r="K10" s="3">
         <v>566600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>494600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>434500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>402700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>485500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>433300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>447300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>342400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>344600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>272100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>411900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>65500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>29500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>71700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>55600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>41100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1327,8 +1350,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1345,29 +1368,32 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>100</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>100</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>8</v>
+      <c r="AA15" s="3">
+        <v>100</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>368500</v>
+        <v>376500</v>
       </c>
       <c r="E17" s="3">
-        <v>421100</v>
+        <v>357100</v>
       </c>
       <c r="F17" s="3">
-        <v>424400</v>
+        <v>408200</v>
       </c>
       <c r="G17" s="3">
-        <v>451000</v>
+        <v>411400</v>
       </c>
       <c r="H17" s="3">
-        <v>420900</v>
+        <v>437100</v>
       </c>
       <c r="I17" s="3">
-        <v>418000</v>
+        <v>407900</v>
       </c>
       <c r="J17" s="3">
+        <v>405100</v>
+      </c>
+      <c r="K17" s="3">
         <v>386500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>308600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>284200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>291800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>343700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>345800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>473100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>329300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>256000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>218000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>175600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>139100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>68400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>141500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>55400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>36100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>49600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>143200</v>
+        <v>162800</v>
       </c>
       <c r="E18" s="3">
-        <v>134200</v>
+        <v>138800</v>
       </c>
       <c r="F18" s="3">
-        <v>164600</v>
+        <v>130100</v>
       </c>
       <c r="G18" s="3">
-        <v>143700</v>
+        <v>159600</v>
       </c>
       <c r="H18" s="3">
-        <v>193200</v>
+        <v>139300</v>
       </c>
       <c r="I18" s="3">
-        <v>210600</v>
+        <v>187300</v>
       </c>
       <c r="J18" s="3">
+        <v>204100</v>
+      </c>
+      <c r="K18" s="3">
         <v>269200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>266100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>216800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>172800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>202100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>146400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>40400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>147000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>129400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>131300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>305500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-79200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>30600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>28400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,88 +1616,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="E20" s="3">
-        <v>11500</v>
+        <v>13100</v>
       </c>
       <c r="F20" s="3">
-        <v>1900</v>
+        <v>11100</v>
       </c>
       <c r="G20" s="3">
-        <v>20500</v>
+        <v>1800</v>
       </c>
       <c r="H20" s="3">
-        <v>4500</v>
+        <v>19900</v>
       </c>
       <c r="I20" s="3">
-        <v>8500</v>
+        <v>4300</v>
       </c>
       <c r="J20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
-      </c>
-      <c r="W20" s="3">
-        <v>400</v>
       </c>
       <c r="X20" s="3">
         <v>400</v>
       </c>
       <c r="Y20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Z20" s="3">
         <v>200</v>
       </c>
       <c r="AA20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1719,32 +1756,35 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>306600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>3200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1769,8 +1809,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1787,18 +1827,18 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1811,8 +1851,8 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>156700</v>
+        <v>188300</v>
       </c>
       <c r="E23" s="3">
-        <v>145700</v>
+        <v>151800</v>
       </c>
       <c r="F23" s="3">
-        <v>166500</v>
+        <v>141200</v>
       </c>
       <c r="G23" s="3">
-        <v>164200</v>
+        <v>161400</v>
       </c>
       <c r="H23" s="3">
-        <v>197700</v>
+        <v>159200</v>
       </c>
       <c r="I23" s="3">
-        <v>219100</v>
+        <v>191600</v>
       </c>
       <c r="J23" s="3">
+        <v>212400</v>
+      </c>
+      <c r="K23" s="3">
         <v>273300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>280500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>223500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>188200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>215000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>153700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>143900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>123400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>140100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>306100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-78800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>31000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>28500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>24800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>29800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>51000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>58200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>35900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>20500</v>
+      </c>
+      <c r="O24" s="3">
+        <v>33500</v>
+      </c>
+      <c r="P24" s="3">
         <v>24500</v>
       </c>
-      <c r="E24" s="3">
-        <v>22300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>25600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>30800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>33600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>51000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>58200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>35900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>20500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>33500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>24500</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-14300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>29500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>64600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>132200</v>
+        <v>150600</v>
       </c>
       <c r="E26" s="3">
-        <v>123400</v>
+        <v>128100</v>
       </c>
       <c r="F26" s="3">
-        <v>140500</v>
+        <v>119600</v>
       </c>
       <c r="G26" s="3">
-        <v>138600</v>
+        <v>136200</v>
       </c>
       <c r="H26" s="3">
-        <v>166900</v>
+        <v>134300</v>
       </c>
       <c r="I26" s="3">
-        <v>185500</v>
+        <v>161800</v>
       </c>
       <c r="J26" s="3">
-        <v>222300</v>
+        <v>179800</v>
       </c>
       <c r="K26" s="3">
         <v>222300</v>
       </c>
       <c r="L26" s="3">
+        <v>222300</v>
+      </c>
+      <c r="M26" s="3">
         <v>187500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>167600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>129200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>66200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>114400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>96400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>110000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>241500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-74200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>23500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>22100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>132800</v>
+        <v>151200</v>
       </c>
       <c r="E27" s="3">
-        <v>124000</v>
+        <v>128700</v>
       </c>
       <c r="F27" s="3">
-        <v>141100</v>
+        <v>120100</v>
       </c>
       <c r="G27" s="3">
-        <v>139300</v>
+        <v>136800</v>
       </c>
       <c r="H27" s="3">
-        <v>167700</v>
+        <v>135000</v>
       </c>
       <c r="I27" s="3">
-        <v>188000</v>
+        <v>162500</v>
       </c>
       <c r="J27" s="3">
-        <v>222300</v>
+        <v>182200</v>
       </c>
       <c r="K27" s="3">
         <v>222300</v>
       </c>
       <c r="L27" s="3">
+        <v>222300</v>
+      </c>
+      <c r="M27" s="3">
         <v>187600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>167700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>181500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>129200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>66200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>114400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>96400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>110000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>241500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-419200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-74200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13500</v>
+        <v>-25500</v>
       </c>
       <c r="E32" s="3">
-        <v>-11500</v>
+        <v>-13100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1900</v>
+        <v>-11100</v>
       </c>
       <c r="G32" s="3">
-        <v>-20500</v>
+        <v>-1800</v>
       </c>
       <c r="H32" s="3">
-        <v>-4500</v>
+        <v>-19900</v>
       </c>
       <c r="I32" s="3">
-        <v>-8500</v>
+        <v>-4300</v>
       </c>
       <c r="J32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-400</v>
       </c>
       <c r="X32" s="3">
         <v>-400</v>
       </c>
       <c r="Y32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Z32" s="3">
         <v>-200</v>
       </c>
       <c r="AA32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132800</v>
+        <v>151200</v>
       </c>
       <c r="E33" s="3">
-        <v>124000</v>
+        <v>128700</v>
       </c>
       <c r="F33" s="3">
-        <v>141100</v>
+        <v>120100</v>
       </c>
       <c r="G33" s="3">
-        <v>139300</v>
+        <v>136800</v>
       </c>
       <c r="H33" s="3">
-        <v>167700</v>
+        <v>135000</v>
       </c>
       <c r="I33" s="3">
-        <v>188000</v>
+        <v>162500</v>
       </c>
       <c r="J33" s="3">
-        <v>222300</v>
+        <v>182200</v>
       </c>
       <c r="K33" s="3">
         <v>222300</v>
       </c>
       <c r="L33" s="3">
+        <v>222300</v>
+      </c>
+      <c r="M33" s="3">
         <v>187600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>167700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>181500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>129200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>66200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>96400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>110000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>241500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-419200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-74200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132800</v>
+        <v>151200</v>
       </c>
       <c r="E35" s="3">
-        <v>124000</v>
+        <v>128700</v>
       </c>
       <c r="F35" s="3">
-        <v>141100</v>
+        <v>120100</v>
       </c>
       <c r="G35" s="3">
-        <v>139300</v>
+        <v>136800</v>
       </c>
       <c r="H35" s="3">
-        <v>167700</v>
+        <v>135000</v>
       </c>
       <c r="I35" s="3">
-        <v>188000</v>
+        <v>162500</v>
       </c>
       <c r="J35" s="3">
-        <v>222300</v>
+        <v>182200</v>
       </c>
       <c r="K35" s="3">
         <v>222300</v>
       </c>
       <c r="L35" s="3">
+        <v>222300</v>
+      </c>
+      <c r="M35" s="3">
         <v>187600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>167700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>181500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>129200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>66200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>96400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>110000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>241500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-419200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-74200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3094,75 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>729000</v>
+        <v>724200</v>
       </c>
       <c r="E41" s="3">
-        <v>1018600</v>
+        <v>706600</v>
       </c>
       <c r="F41" s="3">
-        <v>1026300</v>
+        <v>987300</v>
       </c>
       <c r="G41" s="3">
-        <v>990100</v>
+        <v>994700</v>
       </c>
       <c r="H41" s="3">
-        <v>878000</v>
+        <v>959700</v>
       </c>
       <c r="I41" s="3">
-        <v>869400</v>
+        <v>851000</v>
       </c>
       <c r="J41" s="3">
+        <v>842700</v>
+      </c>
+      <c r="K41" s="3">
         <v>600500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>745700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>831600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>615000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>710400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>563400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>570500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>324600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>287700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>285100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>195700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>210000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>281100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>65600</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3088,22 +3175,25 @@
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33600</v>
+        <v>34100</v>
       </c>
       <c r="E42" s="3">
-        <v>8100</v>
+        <v>32500</v>
       </c>
       <c r="F42" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>7900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -3117,8 +3207,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3168,74 +3258,77 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3609400</v>
+        <v>3906900</v>
       </c>
       <c r="E43" s="3">
-        <v>3234200</v>
+        <v>3498400</v>
       </c>
       <c r="F43" s="3">
-        <v>3118000</v>
+        <v>3134800</v>
       </c>
       <c r="G43" s="3">
-        <v>2702900</v>
+        <v>3022100</v>
       </c>
       <c r="H43" s="3">
-        <v>2731600</v>
+        <v>2619800</v>
       </c>
       <c r="I43" s="3">
-        <v>2521500</v>
+        <v>2647600</v>
       </c>
       <c r="J43" s="3">
+        <v>2444000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2516000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2232800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1947600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1918900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2034700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2097200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2153800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2168400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2094600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1663200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1050200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>642500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>177700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>272300</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,74 +3424,77 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>606000</v>
+        <v>509400</v>
       </c>
       <c r="E45" s="3">
-        <v>586100</v>
+        <v>587300</v>
       </c>
       <c r="F45" s="3">
-        <v>581900</v>
+        <v>568000</v>
       </c>
       <c r="G45" s="3">
-        <v>686400</v>
+        <v>564000</v>
       </c>
       <c r="H45" s="3">
-        <v>572000</v>
+        <v>665300</v>
       </c>
       <c r="I45" s="3">
-        <v>554700</v>
+        <v>554400</v>
       </c>
       <c r="J45" s="3">
+        <v>537700</v>
+      </c>
+      <c r="K45" s="3">
         <v>521500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>563400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>511100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>511200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>517600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>606800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>597700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>510200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>498200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>427100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>354900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>213900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>156100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>102600</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3408,74 +3507,77 @@
       <c r="AB45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4977900</v>
+        <v>5174700</v>
       </c>
       <c r="E46" s="3">
-        <v>4847000</v>
+        <v>4824900</v>
       </c>
       <c r="F46" s="3">
-        <v>4730400</v>
+        <v>4697900</v>
       </c>
       <c r="G46" s="3">
-        <v>4379300</v>
+        <v>4585000</v>
       </c>
       <c r="H46" s="3">
-        <v>4181600</v>
+        <v>4244700</v>
       </c>
       <c r="I46" s="3">
-        <v>3945700</v>
+        <v>4053100</v>
       </c>
       <c r="J46" s="3">
+        <v>3824400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3638000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3541900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3290300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3045100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3262700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3267400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3322000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3003100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2880600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2375500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1066300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>615000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>440500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3488,62 +3590,65 @@
       <c r="AB46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>511300</v>
+        <v>494400</v>
       </c>
       <c r="E47" s="3">
-        <v>585700</v>
+        <v>495500</v>
       </c>
       <c r="F47" s="3">
-        <v>627700</v>
+        <v>567700</v>
       </c>
       <c r="G47" s="3">
-        <v>666400</v>
+        <v>608400</v>
       </c>
       <c r="H47" s="3">
-        <v>625000</v>
+        <v>645900</v>
       </c>
       <c r="I47" s="3">
-        <v>543200</v>
+        <v>605800</v>
       </c>
       <c r="J47" s="3">
+        <v>526500</v>
+      </c>
+      <c r="K47" s="3">
         <v>579600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>358000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>201600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>144900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>127700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>99300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3556,8 +3661,8 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3568,61 +3673,64 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20100</v>
+        <v>22800</v>
       </c>
       <c r="E48" s="3">
-        <v>14700</v>
+        <v>19500</v>
       </c>
       <c r="F48" s="3">
-        <v>12800</v>
+        <v>14200</v>
       </c>
       <c r="G48" s="3">
-        <v>13700</v>
+        <v>12400</v>
       </c>
       <c r="H48" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="I48" s="3">
-        <v>9600</v>
+        <v>13100</v>
       </c>
       <c r="J48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K48" s="3">
         <v>7400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1000</v>
       </c>
       <c r="U48" s="3">
         <v>1000</v>
@@ -3633,8 +3741,8 @@
       <c r="W48" s="3">
         <v>1000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
+      <c r="X48" s="3">
+        <v>1000</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
@@ -3648,37 +3756,40 @@
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141900</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
-        <v>142600</v>
+        <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>143300</v>
+        <v>600</v>
       </c>
       <c r="G49" s="3">
-        <v>144100</v>
+        <v>700</v>
       </c>
       <c r="H49" s="3">
-        <v>145000</v>
+        <v>700</v>
       </c>
       <c r="I49" s="3">
-        <v>145500</v>
+        <v>800</v>
       </c>
       <c r="J49" s="3">
+        <v>141100</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
@@ -3687,22 +3798,22 @@
         <v>500</v>
       </c>
       <c r="O49" s="3">
+        <v>500</v>
+      </c>
+      <c r="P49" s="3">
         <v>400</v>
-      </c>
-      <c r="P49" s="3">
-        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>500</v>
       </c>
       <c r="R49" s="3">
+        <v>500</v>
+      </c>
+      <c r="S49" s="3">
         <v>600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>300</v>
-      </c>
-      <c r="T49" s="3">
-        <v>100</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
@@ -3713,8 +3824,8 @@
       <c r="W49" s="3">
         <v>100</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
+      <c r="X49" s="3">
+        <v>100</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,74 +4005,77 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>159900</v>
+        <v>287300</v>
       </c>
       <c r="E52" s="3">
-        <v>144900</v>
+        <v>291800</v>
       </c>
       <c r="F52" s="3">
-        <v>166400</v>
+        <v>278000</v>
       </c>
       <c r="G52" s="3">
-        <v>150700</v>
+        <v>299500</v>
       </c>
       <c r="H52" s="3">
-        <v>130900</v>
+        <v>285000</v>
       </c>
       <c r="I52" s="3">
-        <v>118700</v>
+        <v>266500</v>
       </c>
       <c r="J52" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K52" s="3">
         <v>164800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>147500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>207100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>194700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>169500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>154500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>212000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>107400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>86800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>67400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,74 +4171,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5811000</v>
+        <v>5979900</v>
       </c>
       <c r="E54" s="3">
-        <v>5734800</v>
+        <v>5632400</v>
       </c>
       <c r="F54" s="3">
-        <v>5680700</v>
+        <v>5558500</v>
       </c>
       <c r="G54" s="3">
-        <v>5354200</v>
+        <v>5506000</v>
       </c>
       <c r="H54" s="3">
-        <v>5096000</v>
+        <v>5189600</v>
       </c>
       <c r="I54" s="3">
-        <v>4762700</v>
+        <v>4939400</v>
       </c>
       <c r="J54" s="3">
+        <v>4616300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4390300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4056700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3707600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3394700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3571600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3533800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3601200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3134400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2913900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2378000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1601900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1067400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>702900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>509000</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,62 +4399,65 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21300</v>
+        <v>35800</v>
       </c>
       <c r="E58" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="F58" s="3">
-        <v>90900</v>
+        <v>20700</v>
       </c>
       <c r="G58" s="3">
-        <v>86900</v>
+        <v>88100</v>
       </c>
       <c r="H58" s="3">
-        <v>83400</v>
+        <v>84200</v>
       </c>
       <c r="I58" s="3">
-        <v>56500</v>
+        <v>80800</v>
       </c>
       <c r="J58" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K58" s="3">
         <v>47700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>68600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>239500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>223900</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4336,8 +4470,8 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4348,74 +4482,77 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2562500</v>
+        <v>2194300</v>
       </c>
       <c r="E59" s="3">
-        <v>2359700</v>
+        <v>2483700</v>
       </c>
       <c r="F59" s="3">
-        <v>2459600</v>
+        <v>2287100</v>
       </c>
       <c r="G59" s="3">
-        <v>2304600</v>
+        <v>2384000</v>
       </c>
       <c r="H59" s="3">
-        <v>1996600</v>
+        <v>2233700</v>
       </c>
       <c r="I59" s="3">
-        <v>1953900</v>
+        <v>1935200</v>
       </c>
       <c r="J59" s="3">
+        <v>1893900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1870500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1877300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1841500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1837100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1863800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1930800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2084600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1457800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1280000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1109500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>754700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>420300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>413100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>452200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4428,74 +4565,77 @@
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2583800</v>
+        <v>2230100</v>
       </c>
       <c r="E60" s="3">
-        <v>2381000</v>
+        <v>2504400</v>
       </c>
       <c r="F60" s="3">
-        <v>2550600</v>
+        <v>2307800</v>
       </c>
       <c r="G60" s="3">
-        <v>2391500</v>
+        <v>2472200</v>
       </c>
       <c r="H60" s="3">
-        <v>2080000</v>
+        <v>2317900</v>
       </c>
       <c r="I60" s="3">
-        <v>2010500</v>
+        <v>2016100</v>
       </c>
       <c r="J60" s="3">
+        <v>1948600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1918300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1925600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1873800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1863100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1891000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1958600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2153300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1488600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1519500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1333300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>754700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>420300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>413100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>452200</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,68 +4731,71 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>422900</v>
+        <v>872200</v>
       </c>
       <c r="E62" s="3">
-        <v>662700</v>
+        <v>409900</v>
       </c>
       <c r="F62" s="3">
-        <v>572900</v>
+        <v>642300</v>
       </c>
       <c r="G62" s="3">
-        <v>543200</v>
+        <v>555200</v>
       </c>
       <c r="H62" s="3">
-        <v>716000</v>
+        <v>526500</v>
       </c>
       <c r="I62" s="3">
-        <v>589200</v>
+        <v>694000</v>
       </c>
       <c r="J62" s="3">
+        <v>571100</v>
+      </c>
+      <c r="K62" s="3">
         <v>465300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>337600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>317300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>211800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>467700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>542400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>490300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>534900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>342300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>121400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>54400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,74 +5063,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3018100</v>
+        <v>3112800</v>
       </c>
       <c r="E66" s="3">
-        <v>3055700</v>
+        <v>2925300</v>
       </c>
       <c r="F66" s="3">
-        <v>3136000</v>
+        <v>2961700</v>
       </c>
       <c r="G66" s="3">
-        <v>2935100</v>
+        <v>3039600</v>
       </c>
       <c r="H66" s="3">
-        <v>2797100</v>
+        <v>2844900</v>
       </c>
       <c r="I66" s="3">
-        <v>2601500</v>
+        <v>2711100</v>
       </c>
       <c r="J66" s="3">
+        <v>2521500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2383600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2263300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2191200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2075000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2358900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2501200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2643700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2023600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1862000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1454700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>809100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>422600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>413100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>452200</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5238,11 +5406,11 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>628600</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,19 +5509,22 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
-        <v>1820000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1764100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -5358,54 +5532,54 @@
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="3">
-        <v>1370700</v>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J72" s="3">
+        <v>1328500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1222000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1010000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>763500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>575900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>432200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>250600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>130000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>318900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>256100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>141600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-62500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-339400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-109100</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,74 +5841,77 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2792900</v>
+        <v>2867200</v>
       </c>
       <c r="E76" s="3">
-        <v>2679100</v>
+        <v>2707000</v>
       </c>
       <c r="F76" s="3">
-        <v>2544700</v>
+        <v>2596800</v>
       </c>
       <c r="G76" s="3">
-        <v>2419100</v>
+        <v>2466400</v>
       </c>
       <c r="H76" s="3">
-        <v>2298900</v>
+        <v>2344800</v>
       </c>
       <c r="I76" s="3">
-        <v>2161200</v>
+        <v>2228300</v>
       </c>
       <c r="J76" s="3">
+        <v>2094800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2006700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1793300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1516400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1319700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1212800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1032600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>957400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1110700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1051900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>923300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>792800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>644800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-338900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>56800</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132800</v>
+        <v>151200</v>
       </c>
       <c r="E81" s="3">
-        <v>124000</v>
+        <v>128700</v>
       </c>
       <c r="F81" s="3">
-        <v>141100</v>
+        <v>120100</v>
       </c>
       <c r="G81" s="3">
-        <v>139300</v>
+        <v>136800</v>
       </c>
       <c r="H81" s="3">
-        <v>167700</v>
+        <v>135000</v>
       </c>
       <c r="I81" s="3">
-        <v>188000</v>
+        <v>162500</v>
       </c>
       <c r="J81" s="3">
-        <v>222300</v>
+        <v>182200</v>
       </c>
       <c r="K81" s="3">
         <v>222300</v>
       </c>
       <c r="L81" s="3">
+        <v>222300</v>
+      </c>
+      <c r="M81" s="3">
         <v>187600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>167700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>181500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>129200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>66200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>96400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>110000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>241500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-419200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-74200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6075,8 +6274,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>8</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,41 +6707,44 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>250300</v>
+        <v>242700</v>
       </c>
       <c r="E89" s="3">
-        <v>254800</v>
+        <v>242600</v>
       </c>
       <c r="F89" s="3">
-        <v>226300</v>
+        <v>247000</v>
       </c>
       <c r="G89" s="3">
-        <v>159000</v>
+        <v>219400</v>
       </c>
       <c r="H89" s="3">
-        <v>201800</v>
+        <v>154100</v>
       </c>
       <c r="I89" s="3">
-        <v>137000</v>
+        <v>195600</v>
       </c>
       <c r="J89" s="3">
+        <v>132800</v>
+      </c>
+      <c r="K89" s="3">
         <v>252600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>186200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>244000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6540,8 +6757,8 @@
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -6555,8 +6772,8 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>8</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>8</v>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6665,8 +6886,8 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,41 +7070,44 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-506700</v>
+        <v>-473500</v>
       </c>
       <c r="E94" s="3">
-        <v>-238900</v>
+        <v>-491100</v>
       </c>
       <c r="F94" s="3">
-        <v>-423800</v>
+        <v>-231500</v>
       </c>
       <c r="G94" s="3">
-        <v>-35900</v>
+        <v>-410700</v>
       </c>
       <c r="H94" s="3">
-        <v>-347100</v>
+        <v>-34800</v>
       </c>
       <c r="I94" s="3">
-        <v>10500</v>
+        <v>-336400</v>
       </c>
       <c r="J94" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-487700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-323400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-63400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6890,8 +7120,8 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6905,8 +7135,8 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,41 +7516,44 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5500</v>
+        <v>170300</v>
       </c>
       <c r="E100" s="3">
-        <v>27500</v>
+        <v>5400</v>
       </c>
       <c r="F100" s="3">
-        <v>125200</v>
+        <v>26700</v>
       </c>
       <c r="G100" s="3">
+        <v>121400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>145000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>148400</v>
+      </c>
+      <c r="J100" s="3">
         <v>149600</v>
       </c>
-      <c r="H100" s="3">
-        <v>153100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>154300</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>64700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>77300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>25700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
@@ -7320,8 +7566,8 @@
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7335,8 +7581,8 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>8</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>8</v>
@@ -7353,40 +7599,43 @@
       <c r="AB100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3300</v>
-      </c>
       <c r="F101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3">
+        <v>-200</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
@@ -7400,8 +7649,8 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -7415,8 +7664,8 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>8</v>
@@ -7433,41 +7682,44 @@
       <c r="AB101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-251200</v>
+        <v>-59400</v>
       </c>
       <c r="E102" s="3">
-        <v>40200</v>
+        <v>-243500</v>
       </c>
       <c r="F102" s="3">
-        <v>-71200</v>
+        <v>39000</v>
       </c>
       <c r="G102" s="3">
-        <v>272800</v>
+        <v>-69000</v>
       </c>
       <c r="H102" s="3">
-        <v>7300</v>
+        <v>264400</v>
       </c>
       <c r="I102" s="3">
-        <v>301700</v>
+        <v>7000</v>
       </c>
       <c r="J102" s="3">
+        <v>292400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-170400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-60100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>206100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
@@ -7480,8 +7732,8 @@
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -7495,8 +7747,8 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>8</v>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3" t="s">
         <v>8</v>
@@ -7511,6 +7763,9 @@
         <v>8</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>QFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>539300</v>
+        <v>591100</v>
       </c>
       <c r="E8" s="3">
-        <v>495900</v>
+        <v>540500</v>
       </c>
       <c r="F8" s="3">
-        <v>538300</v>
+        <v>497000</v>
       </c>
       <c r="G8" s="3">
-        <v>571000</v>
+        <v>539400</v>
       </c>
       <c r="H8" s="3">
-        <v>576400</v>
+        <v>572200</v>
       </c>
       <c r="I8" s="3">
-        <v>595200</v>
+        <v>577600</v>
       </c>
       <c r="J8" s="3">
+        <v>596500</v>
+      </c>
+      <c r="K8" s="3">
         <v>609300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>655700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>574700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>501000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>464600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>545700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>492200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>502100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>369700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>403000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>347400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>306900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>444600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>89900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>62300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>86000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>64400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>52500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>89300</v>
+        <v>88300</v>
       </c>
       <c r="E9" s="3">
-        <v>88200</v>
+        <v>89500</v>
       </c>
       <c r="F9" s="3">
-        <v>80700</v>
+        <v>88400</v>
       </c>
       <c r="G9" s="3">
-        <v>85100</v>
+        <v>80900</v>
       </c>
       <c r="H9" s="3">
-        <v>76600</v>
+        <v>85200</v>
       </c>
       <c r="I9" s="3">
-        <v>84700</v>
+        <v>76700</v>
       </c>
       <c r="J9" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K9" s="3">
         <v>81200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>89200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>66500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>60200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>58900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>54800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>27200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>58400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>47400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>34800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>32800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>24500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>32900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>450000</v>
+        <v>502800</v>
       </c>
       <c r="E10" s="3">
-        <v>407700</v>
+        <v>451000</v>
       </c>
       <c r="F10" s="3">
-        <v>457600</v>
+        <v>408600</v>
       </c>
       <c r="G10" s="3">
-        <v>485900</v>
+        <v>458600</v>
       </c>
       <c r="H10" s="3">
-        <v>499800</v>
+        <v>487000</v>
       </c>
       <c r="I10" s="3">
-        <v>510500</v>
+        <v>500900</v>
       </c>
       <c r="J10" s="3">
+        <v>511600</v>
+      </c>
+      <c r="K10" s="3">
         <v>528100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>566600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>494600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>434500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>402700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>485500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>433300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>447300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>342400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>344600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>272100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>411900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>65500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>29500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>71700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>55600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>41100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1353,8 +1376,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1371,29 +1394,32 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>100</v>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA15" s="3">
         <v>100</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>8</v>
+      <c r="AB15" s="3">
+        <v>100</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>376500</v>
+        <v>399300</v>
       </c>
       <c r="E17" s="3">
-        <v>357100</v>
+        <v>377300</v>
       </c>
       <c r="F17" s="3">
-        <v>408200</v>
+        <v>357900</v>
       </c>
       <c r="G17" s="3">
-        <v>411400</v>
+        <v>409100</v>
       </c>
       <c r="H17" s="3">
-        <v>437100</v>
+        <v>412300</v>
       </c>
       <c r="I17" s="3">
-        <v>407900</v>
+        <v>438000</v>
       </c>
       <c r="J17" s="3">
+        <v>408800</v>
+      </c>
+      <c r="K17" s="3">
         <v>405100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>386500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>308600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>284200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>291800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>343700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>345800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>473100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>329300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>256000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>218000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>175600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>139100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>68400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>141500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>55400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>36100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>49600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>162800</v>
+        <v>191800</v>
       </c>
       <c r="E18" s="3">
-        <v>138800</v>
+        <v>163100</v>
       </c>
       <c r="F18" s="3">
-        <v>130100</v>
+        <v>139100</v>
       </c>
       <c r="G18" s="3">
-        <v>159600</v>
+        <v>130300</v>
       </c>
       <c r="H18" s="3">
-        <v>139300</v>
+        <v>159900</v>
       </c>
       <c r="I18" s="3">
-        <v>187300</v>
+        <v>139600</v>
       </c>
       <c r="J18" s="3">
+        <v>187700</v>
+      </c>
+      <c r="K18" s="3">
         <v>204100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>269200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>266100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>216800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>172800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>202100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>146400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>40400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>147000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>129400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>131300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>305500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-79200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>30600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>28400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-8200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,91 +1650,95 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E20" s="3">
         <v>25500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13100</v>
       </c>
-      <c r="F20" s="3">
-        <v>11100</v>
-      </c>
       <c r="G20" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19900</v>
       </c>
-      <c r="I20" s="3">
-        <v>4300</v>
-      </c>
       <c r="J20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
-      </c>
-      <c r="X20" s="3">
-        <v>400</v>
       </c>
       <c r="Y20" s="3">
         <v>400</v>
       </c>
       <c r="Z20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA20" s="3">
         <v>200</v>
       </c>
       <c r="AB20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1759,32 +1796,35 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>306600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="3">
         <v>3200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1812,8 +1852,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1830,18 +1870,18 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1854,8 +1894,8 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1866,174 +1906,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>188300</v>
+        <v>204100</v>
       </c>
       <c r="E23" s="3">
-        <v>151800</v>
+        <v>188700</v>
       </c>
       <c r="F23" s="3">
-        <v>141200</v>
+        <v>152200</v>
       </c>
       <c r="G23" s="3">
-        <v>161400</v>
+        <v>141500</v>
       </c>
       <c r="H23" s="3">
-        <v>159200</v>
+        <v>161800</v>
       </c>
       <c r="I23" s="3">
-        <v>191600</v>
+        <v>159500</v>
       </c>
       <c r="J23" s="3">
+        <v>192000</v>
+      </c>
+      <c r="K23" s="3">
         <v>212400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>273300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>280500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>223500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>188200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>215000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>153700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>143900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>123400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>140100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>306100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-78800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>31000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>28500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37600</v>
+        <v>47000</v>
       </c>
       <c r="E24" s="3">
-        <v>23700</v>
+        <v>37700</v>
       </c>
       <c r="F24" s="3">
-        <v>21600</v>
+        <v>23800</v>
       </c>
       <c r="G24" s="3">
-        <v>25200</v>
+        <v>21700</v>
       </c>
       <c r="H24" s="3">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="I24" s="3">
-        <v>29800</v>
+        <v>24900</v>
       </c>
       <c r="J24" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K24" s="3">
         <v>32500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-14300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>29500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>30100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>64600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>150600</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>128100</v>
+        <v>151000</v>
       </c>
       <c r="F26" s="3">
-        <v>119600</v>
+        <v>128400</v>
       </c>
       <c r="G26" s="3">
-        <v>136200</v>
+        <v>119800</v>
       </c>
       <c r="H26" s="3">
-        <v>134300</v>
+        <v>136500</v>
       </c>
       <c r="I26" s="3">
-        <v>161800</v>
+        <v>134600</v>
       </c>
       <c r="J26" s="3">
+        <v>162200</v>
+      </c>
+      <c r="K26" s="3">
         <v>179800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>222300</v>
       </c>
       <c r="L26" s="3">
         <v>222300</v>
       </c>
       <c r="M26" s="3">
+        <v>222300</v>
+      </c>
+      <c r="N26" s="3">
         <v>187500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>167600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>181500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>129200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>66200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>114400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>96400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>110000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>241500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-74200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>151200</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>128700</v>
+        <v>151500</v>
       </c>
       <c r="F27" s="3">
-        <v>120100</v>
+        <v>129000</v>
       </c>
       <c r="G27" s="3">
-        <v>136800</v>
+        <v>120400</v>
       </c>
       <c r="H27" s="3">
-        <v>135000</v>
+        <v>137100</v>
       </c>
       <c r="I27" s="3">
-        <v>162500</v>
+        <v>135300</v>
       </c>
       <c r="J27" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K27" s="3">
         <v>182200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>222300</v>
       </c>
       <c r="L27" s="3">
         <v>222300</v>
       </c>
       <c r="M27" s="3">
+        <v>222300</v>
+      </c>
+      <c r="N27" s="3">
         <v>187600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>167700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>181500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>129200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>66200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>114400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>96400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>110000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>241500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-419200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-74200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-25500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-11100</v>
-      </c>
       <c r="G32" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19900</v>
       </c>
-      <c r="I32" s="3">
-        <v>-4300</v>
-      </c>
       <c r="J32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-400</v>
       </c>
       <c r="Y32" s="3">
         <v>-400</v>
       </c>
       <c r="Z32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="AA32" s="3">
         <v>-200</v>
       </c>
       <c r="AB32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>151200</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>128700</v>
+        <v>151500</v>
       </c>
       <c r="F33" s="3">
-        <v>120100</v>
+        <v>129000</v>
       </c>
       <c r="G33" s="3">
-        <v>136800</v>
+        <v>120400</v>
       </c>
       <c r="H33" s="3">
-        <v>135000</v>
+        <v>137100</v>
       </c>
       <c r="I33" s="3">
-        <v>162500</v>
+        <v>135300</v>
       </c>
       <c r="J33" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K33" s="3">
         <v>182200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>222300</v>
       </c>
       <c r="L33" s="3">
         <v>222300</v>
       </c>
       <c r="M33" s="3">
+        <v>222300</v>
+      </c>
+      <c r="N33" s="3">
         <v>187600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>167700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>181500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>129200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>66200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>114400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>96400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>110000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>241500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-419200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-74200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>22100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>151200</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>128700</v>
+        <v>151500</v>
       </c>
       <c r="F35" s="3">
-        <v>120100</v>
+        <v>129000</v>
       </c>
       <c r="G35" s="3">
-        <v>136800</v>
+        <v>120400</v>
       </c>
       <c r="H35" s="3">
-        <v>135000</v>
+        <v>137100</v>
       </c>
       <c r="I35" s="3">
-        <v>162500</v>
+        <v>135300</v>
       </c>
       <c r="J35" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K35" s="3">
         <v>182200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>222300</v>
       </c>
       <c r="L35" s="3">
         <v>222300</v>
       </c>
       <c r="M35" s="3">
+        <v>222300</v>
+      </c>
+      <c r="N35" s="3">
         <v>187600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>167700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>181500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>129200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>66200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>114400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>96400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>110000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>241500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-419200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-74200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,77 +3181,78 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>724200</v>
+        <v>681900</v>
       </c>
       <c r="E41" s="3">
-        <v>706600</v>
+        <v>725800</v>
       </c>
       <c r="F41" s="3">
-        <v>987300</v>
+        <v>708100</v>
       </c>
       <c r="G41" s="3">
-        <v>994700</v>
+        <v>989400</v>
       </c>
       <c r="H41" s="3">
-        <v>959700</v>
+        <v>996900</v>
       </c>
       <c r="I41" s="3">
-        <v>851000</v>
+        <v>961800</v>
       </c>
       <c r="J41" s="3">
+        <v>852800</v>
+      </c>
+      <c r="K41" s="3">
         <v>842700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>745700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>831600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>615000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>710400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>563400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>570500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>324600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>287700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>285100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>195700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>210000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>281100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>65600</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3178,26 +3265,29 @@
       <c r="AC41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34100</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>32500</v>
+        <v>34200</v>
       </c>
       <c r="F42" s="3">
+        <v>32600</v>
+      </c>
+      <c r="G42" s="3">
         <v>7900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3210,8 +3300,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -3261,77 +3351,80 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3906900</v>
+        <v>4247300</v>
       </c>
       <c r="E43" s="3">
-        <v>3498400</v>
+        <v>3915400</v>
       </c>
       <c r="F43" s="3">
-        <v>3134800</v>
+        <v>3506000</v>
       </c>
       <c r="G43" s="3">
-        <v>3022100</v>
+        <v>3141600</v>
       </c>
       <c r="H43" s="3">
-        <v>2619800</v>
+        <v>3028700</v>
       </c>
       <c r="I43" s="3">
-        <v>2647600</v>
+        <v>2625500</v>
       </c>
       <c r="J43" s="3">
+        <v>2653400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2444000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2516000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2232800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1947600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1918900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2034700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2097200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2153800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2168400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2094600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1663200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1050200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>642500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>177700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>272300</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,77 +3523,80 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>509400</v>
+        <v>595300</v>
       </c>
       <c r="E45" s="3">
-        <v>587300</v>
+        <v>510600</v>
       </c>
       <c r="F45" s="3">
-        <v>568000</v>
+        <v>588600</v>
       </c>
       <c r="G45" s="3">
-        <v>564000</v>
+        <v>569300</v>
       </c>
       <c r="H45" s="3">
-        <v>665300</v>
+        <v>565200</v>
       </c>
       <c r="I45" s="3">
-        <v>554400</v>
+        <v>666700</v>
       </c>
       <c r="J45" s="3">
+        <v>555600</v>
+      </c>
+      <c r="K45" s="3">
         <v>537700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>521500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>563400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>511100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>511200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>517600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>606800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>597700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>510200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>498200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>427100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>354900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>213900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>156100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>102600</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3510,77 +3609,80 @@
       <c r="AC45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5174700</v>
+        <v>5524600</v>
       </c>
       <c r="E46" s="3">
-        <v>4824900</v>
+        <v>5186000</v>
       </c>
       <c r="F46" s="3">
-        <v>4697900</v>
+        <v>4835400</v>
       </c>
       <c r="G46" s="3">
-        <v>4585000</v>
+        <v>4708200</v>
       </c>
       <c r="H46" s="3">
-        <v>4244700</v>
+        <v>4595000</v>
       </c>
       <c r="I46" s="3">
-        <v>4053100</v>
+        <v>4253900</v>
       </c>
       <c r="J46" s="3">
+        <v>4061900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3824400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3638000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3541900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3290300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3045100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3262700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3267400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3322000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3003100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2880600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2375500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1066300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>615000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>440500</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3593,65 +3695,68 @@
       <c r="AC46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>494400</v>
+        <v>498300</v>
       </c>
       <c r="E47" s="3">
         <v>495500</v>
       </c>
       <c r="F47" s="3">
-        <v>567700</v>
+        <v>496600</v>
       </c>
       <c r="G47" s="3">
-        <v>608400</v>
+        <v>568900</v>
       </c>
       <c r="H47" s="3">
-        <v>645900</v>
+        <v>609700</v>
       </c>
       <c r="I47" s="3">
-        <v>605800</v>
+        <v>647300</v>
       </c>
       <c r="J47" s="3">
+        <v>607100</v>
+      </c>
+      <c r="K47" s="3">
         <v>526500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>579600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>358000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>201600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>144900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>127700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>99300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3664,8 +3769,8 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3676,64 +3781,67 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22800</v>
+        <v>27800</v>
       </c>
       <c r="E48" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F48" s="3">
         <v>19500</v>
       </c>
-      <c r="F48" s="3">
-        <v>14200</v>
-      </c>
       <c r="G48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="H48" s="3">
         <v>12400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1000</v>
       </c>
       <c r="V48" s="3">
         <v>1000</v>
@@ -3744,8 +3852,8 @@
       <c r="X48" s="3">
         <v>1000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
+      <c r="Y48" s="3">
+        <v>1000</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
@@ -3759,40 +3867,43 @@
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>143200</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
       </c>
       <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
       </c>
       <c r="I49" s="3">
+        <v>700</v>
+      </c>
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>141100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
@@ -3801,22 +3912,22 @@
         <v>500</v>
       </c>
       <c r="P49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q49" s="3">
         <v>400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>500</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
       </c>
       <c r="S49" s="3">
+        <v>500</v>
+      </c>
+      <c r="T49" s="3">
         <v>600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>300</v>
-      </c>
-      <c r="U49" s="3">
-        <v>100</v>
       </c>
       <c r="V49" s="3">
         <v>100</v>
@@ -3827,8 +3938,8 @@
       <c r="X49" s="3">
         <v>100</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
+      <c r="Y49" s="3">
+        <v>100</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,77 +4125,80 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>287300</v>
+        <v>163100</v>
       </c>
       <c r="E52" s="3">
-        <v>291800</v>
+        <v>287900</v>
       </c>
       <c r="F52" s="3">
-        <v>278000</v>
+        <v>292400</v>
       </c>
       <c r="G52" s="3">
-        <v>299500</v>
+        <v>278600</v>
       </c>
       <c r="H52" s="3">
-        <v>285000</v>
+        <v>300200</v>
       </c>
       <c r="I52" s="3">
-        <v>266500</v>
+        <v>285600</v>
       </c>
       <c r="J52" s="3">
+        <v>267100</v>
+      </c>
+      <c r="K52" s="3">
         <v>115000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>164800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>147500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>207100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>194700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>169500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>154500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>212000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>107400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>86800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>67400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,77 +4297,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5979900</v>
+        <v>6357100</v>
       </c>
       <c r="E54" s="3">
-        <v>5632400</v>
+        <v>5993000</v>
       </c>
       <c r="F54" s="3">
-        <v>5558500</v>
+        <v>5644600</v>
       </c>
       <c r="G54" s="3">
-        <v>5506000</v>
+        <v>5570600</v>
       </c>
       <c r="H54" s="3">
-        <v>5189600</v>
+        <v>5518000</v>
       </c>
       <c r="I54" s="3">
-        <v>4939400</v>
+        <v>5200900</v>
       </c>
       <c r="J54" s="3">
+        <v>4950100</v>
+      </c>
+      <c r="K54" s="3">
         <v>4616300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4390300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4056700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3707600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3394700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3571600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3533800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3601200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3134400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2913900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2378000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1601900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1067400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>702900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>509000</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,65 +4533,68 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35800</v>
+        <v>104400</v>
       </c>
       <c r="E58" s="3">
-        <v>20700</v>
+        <v>35900</v>
       </c>
       <c r="F58" s="3">
         <v>20700</v>
       </c>
       <c r="G58" s="3">
-        <v>88100</v>
+        <v>20700</v>
       </c>
       <c r="H58" s="3">
-        <v>84200</v>
+        <v>88300</v>
       </c>
       <c r="I58" s="3">
-        <v>80800</v>
+        <v>84400</v>
       </c>
       <c r="J58" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K58" s="3">
         <v>54800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>27200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>68600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>239500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>223900</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4473,8 +4607,8 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4485,77 +4619,80 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2194300</v>
+        <v>2518500</v>
       </c>
       <c r="E59" s="3">
-        <v>2483700</v>
+        <v>2199100</v>
       </c>
       <c r="F59" s="3">
-        <v>2287100</v>
+        <v>2489100</v>
       </c>
       <c r="G59" s="3">
-        <v>2384000</v>
+        <v>2292100</v>
       </c>
       <c r="H59" s="3">
-        <v>2233700</v>
+        <v>2389200</v>
       </c>
       <c r="I59" s="3">
-        <v>1935200</v>
+        <v>2238600</v>
       </c>
       <c r="J59" s="3">
+        <v>1939500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1893900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1870500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1877300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1841500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1837100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1863800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1930800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2084600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1457800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1280000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1109500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>754700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>420300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>413100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>452200</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4568,77 +4705,80 @@
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2230100</v>
+        <v>2623000</v>
       </c>
       <c r="E60" s="3">
-        <v>2504400</v>
+        <v>2235000</v>
       </c>
       <c r="F60" s="3">
-        <v>2307800</v>
+        <v>2509800</v>
       </c>
       <c r="G60" s="3">
-        <v>2472200</v>
+        <v>2312800</v>
       </c>
       <c r="H60" s="3">
-        <v>2317900</v>
+        <v>2477600</v>
       </c>
       <c r="I60" s="3">
-        <v>2016100</v>
+        <v>2323000</v>
       </c>
       <c r="J60" s="3">
+        <v>2020400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1948600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1918300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1925600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1873800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1863100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1891000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1958600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2153300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1488600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1519500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1333300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>754700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>420300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>413100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>452200</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,71 +4877,74 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>872200</v>
+        <v>816500</v>
       </c>
       <c r="E62" s="3">
-        <v>409900</v>
+        <v>874100</v>
       </c>
       <c r="F62" s="3">
-        <v>642300</v>
+        <v>410800</v>
       </c>
       <c r="G62" s="3">
-        <v>555200</v>
+        <v>643700</v>
       </c>
       <c r="H62" s="3">
-        <v>526500</v>
+        <v>556500</v>
       </c>
       <c r="I62" s="3">
-        <v>694000</v>
+        <v>527700</v>
       </c>
       <c r="J62" s="3">
+        <v>695500</v>
+      </c>
+      <c r="K62" s="3">
         <v>571100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>465300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>337600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>317300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>211800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>467700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>542400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>490300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>534900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>342300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>121400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>54400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,77 +5221,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3112800</v>
+        <v>3450000</v>
       </c>
       <c r="E66" s="3">
-        <v>2925300</v>
+        <v>3119600</v>
       </c>
       <c r="F66" s="3">
-        <v>2961700</v>
+        <v>2931700</v>
       </c>
       <c r="G66" s="3">
-        <v>3039600</v>
+        <v>2968200</v>
       </c>
       <c r="H66" s="3">
-        <v>2844900</v>
+        <v>3046200</v>
       </c>
       <c r="I66" s="3">
-        <v>2711100</v>
+        <v>2851100</v>
       </c>
       <c r="J66" s="3">
+        <v>2717000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2521500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2383600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2263300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2191200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2075000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2358900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2501200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2643700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2023600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1862000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1454700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>809100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>422600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>413100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>452200</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5409,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>628600</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,8 +5683,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5523,11 +5697,11 @@
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
-        <v>1764100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1767900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
@@ -5535,54 +5709,54 @@
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>1328500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1222000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1010000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>763500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>575900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>432200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>250600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>130000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>318900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>256100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>141600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-62500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-339400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-109100</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,77 +6027,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2867200</v>
+        <v>2907000</v>
       </c>
       <c r="E76" s="3">
-        <v>2707000</v>
+        <v>2873400</v>
       </c>
       <c r="F76" s="3">
-        <v>2596800</v>
+        <v>2712900</v>
       </c>
       <c r="G76" s="3">
-        <v>2466400</v>
+        <v>2602400</v>
       </c>
       <c r="H76" s="3">
-        <v>2344800</v>
+        <v>2471800</v>
       </c>
       <c r="I76" s="3">
-        <v>2228300</v>
+        <v>2349900</v>
       </c>
       <c r="J76" s="3">
+        <v>2233100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2094800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2006700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1793300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1516400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1319700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1212800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1032600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>957400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1110700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1051900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>923300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>792800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>644800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-338900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>56800</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>151200</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>128700</v>
+        <v>151500</v>
       </c>
       <c r="F81" s="3">
-        <v>120100</v>
+        <v>129000</v>
       </c>
       <c r="G81" s="3">
-        <v>136800</v>
+        <v>120400</v>
       </c>
       <c r="H81" s="3">
-        <v>135000</v>
+        <v>137100</v>
       </c>
       <c r="I81" s="3">
-        <v>162500</v>
+        <v>135300</v>
       </c>
       <c r="J81" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K81" s="3">
         <v>182200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>222300</v>
       </c>
       <c r="L81" s="3">
         <v>222300</v>
       </c>
       <c r="M81" s="3">
+        <v>222300</v>
+      </c>
+      <c r="N81" s="3">
         <v>187600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>167700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>181500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>129200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>66200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>114400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>96400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>110000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>241500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-419200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-74200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>22100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6277,8 +6476,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>8</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,44 +6924,47 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>242700</v>
+        <v>171800</v>
       </c>
       <c r="E89" s="3">
-        <v>242600</v>
+        <v>243200</v>
       </c>
       <c r="F89" s="3">
-        <v>247000</v>
+        <v>243200</v>
       </c>
       <c r="G89" s="3">
-        <v>219400</v>
+        <v>247500</v>
       </c>
       <c r="H89" s="3">
-        <v>154100</v>
+        <v>219800</v>
       </c>
       <c r="I89" s="3">
-        <v>195600</v>
+        <v>154400</v>
       </c>
       <c r="J89" s="3">
+        <v>196000</v>
+      </c>
+      <c r="K89" s="3">
         <v>132800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>252600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>186200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>244000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
@@ -6760,8 +6977,8 @@
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6775,8 +6992,8 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>8</v>
+      <c r="X89" s="3">
+        <v>0</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>8</v>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6889,8 +7110,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>8</v>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,44 +7300,47 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-473500</v>
+        <v>-312200</v>
       </c>
       <c r="E94" s="3">
-        <v>-491100</v>
+        <v>-474600</v>
       </c>
       <c r="F94" s="3">
-        <v>-231500</v>
+        <v>-492100</v>
       </c>
       <c r="G94" s="3">
-        <v>-410700</v>
+        <v>-232000</v>
       </c>
       <c r="H94" s="3">
-        <v>-34800</v>
+        <v>-411600</v>
       </c>
       <c r="I94" s="3">
-        <v>-336400</v>
+        <v>-34900</v>
       </c>
       <c r="J94" s="3">
+        <v>-337100</v>
+      </c>
+      <c r="K94" s="3">
         <v>10100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-487700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-323400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-63400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
@@ -7123,8 +7353,8 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -7138,8 +7368,8 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>8</v>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,44 +7762,47 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>170300</v>
+        <v>97100</v>
       </c>
       <c r="E100" s="3">
+        <v>170700</v>
+      </c>
+      <c r="F100" s="3">
         <v>5400</v>
       </c>
-      <c r="F100" s="3">
-        <v>26700</v>
-      </c>
       <c r="G100" s="3">
-        <v>121400</v>
+        <v>26800</v>
       </c>
       <c r="H100" s="3">
-        <v>145000</v>
+        <v>121700</v>
       </c>
       <c r="I100" s="3">
-        <v>148400</v>
+        <v>145300</v>
       </c>
       <c r="J100" s="3">
+        <v>148700</v>
+      </c>
+      <c r="K100" s="3">
         <v>149600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>64700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>77300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>25700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
@@ -7569,8 +7815,8 @@
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7584,8 +7830,8 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>8</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>8</v>
@@ -7602,43 +7848,46 @@
       <c r="AC100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="N101" s="3">
+        <v>-200</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
@@ -7652,8 +7901,8 @@
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -7667,8 +7916,8 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>8</v>
@@ -7685,44 +7934,47 @@
       <c r="AC101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-59400</v>
+        <v>-42700</v>
       </c>
       <c r="E102" s="3">
-        <v>-243500</v>
+        <v>-59500</v>
       </c>
       <c r="F102" s="3">
-        <v>39000</v>
+        <v>-244000</v>
       </c>
       <c r="G102" s="3">
-        <v>-69000</v>
+        <v>39100</v>
       </c>
       <c r="H102" s="3">
-        <v>264400</v>
+        <v>-69200</v>
       </c>
       <c r="I102" s="3">
-        <v>7000</v>
+        <v>265000</v>
       </c>
       <c r="J102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K102" s="3">
         <v>292400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-170400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>206100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
@@ -7735,8 +7987,8 @@
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -7750,8 +8002,8 @@
       <c r="W102" s="3">
         <v>0</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>8</v>
+      <c r="X102" s="3">
+        <v>0</v>
       </c>
       <c r="Y102" s="3" t="s">
         <v>8</v>
@@ -7766,6 +8018,9 @@
         <v>8</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
